--- a/legendre_out/DATA/p1/p1IntegrandSplinePoints6.000000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandSplinePoints6.000000.xlsx
@@ -386,7 +386,7 @@
         <v>3.754973317072596</v>
       </c>
       <c r="C2" t="n">
-        <v>3.879992382197332e-07</v>
+        <v>2.0313521700969e-07</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.755890524555461</v>
       </c>
       <c r="C3" t="n">
-        <v>3.940524234684092e-07</v>
+        <v>2.112652108876439e-07</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.756807732038326</v>
       </c>
       <c r="C4" t="n">
-        <v>3.997639500556436e-07</v>
+        <v>2.187361217059113e-07</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.757724939521191</v>
       </c>
       <c r="C5" t="n">
-        <v>4.051760465258302e-07</v>
+        <v>2.256054488167465e-07</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.758642147004056</v>
       </c>
       <c r="C6" t="n">
-        <v>4.10330941423363e-07</v>
+        <v>2.319306915724034e-07</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.759559354486921</v>
       </c>
       <c r="C7" t="n">
-        <v>4.15270863292636e-07</v>
+        <v>2.37769349325136e-07</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.760476561969786</v>
       </c>
       <c r="C8" t="n">
-        <v>4.200380406780432e-07</v>
+        <v>2.431789214271987e-07</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.761393769452651</v>
       </c>
       <c r="C9" t="n">
-        <v>4.246747021239784e-07</v>
+        <v>2.482169072308451e-07</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.762310976935516</v>
       </c>
       <c r="C10" t="n">
-        <v>4.292230761748358e-07</v>
+        <v>2.529408060883297e-07</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.763228184418381</v>
       </c>
       <c r="C11" t="n">
-        <v>4.337253913750091e-07</v>
+        <v>2.574081173519062e-07</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.764145391901245</v>
       </c>
       <c r="C12" t="n">
-        <v>4.382238762688904e-07</v>
+        <v>2.616763403738267e-07</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.76506259938411</v>
       </c>
       <c r="C13" t="n">
-        <v>4.427607594008779e-07</v>
+        <v>2.658029745063495e-07</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.765979806866975</v>
       </c>
       <c r="C14" t="n">
-        <v>4.473782693153632e-07</v>
+        <v>2.698455191017265e-07</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.76689701434984</v>
       </c>
       <c r="C15" t="n">
-        <v>4.521186345567404e-07</v>
+        <v>2.738614735122116e-07</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.767814221832705</v>
       </c>
       <c r="C16" t="n">
-        <v>4.570240836694036e-07</v>
+        <v>2.77908337090059e-07</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.76873142931557</v>
       </c>
       <c r="C17" t="n">
-        <v>4.621368451977466e-07</v>
+        <v>2.820436091875229e-07</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.769648636798435</v>
       </c>
       <c r="C18" t="n">
-        <v>4.674991476861634e-07</v>
+        <v>2.86324789156857e-07</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.7705658442813</v>
       </c>
       <c r="C19" t="n">
-        <v>4.731532196790481e-07</v>
+        <v>2.908093763503156e-07</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.771483051764165</v>
       </c>
       <c r="C20" t="n">
-        <v>4.791412897207945e-07</v>
+        <v>2.955548701201528e-07</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.77240025924703</v>
       </c>
       <c r="C21" t="n">
-        <v>4.855055863557966e-07</v>
+        <v>3.006187698186224e-07</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.773317466729895</v>
       </c>
       <c r="C22" t="n">
-        <v>4.922883381284485e-07</v>
+        <v>3.060585747979788e-07</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.77423467421276</v>
       </c>
       <c r="C23" t="n">
-        <v>4.995317735831441e-07</v>
+        <v>3.119317844104758e-07</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.775151881695625</v>
       </c>
       <c r="C24" t="n">
-        <v>5.072781212642773e-07</v>
+        <v>3.182958980083675e-07</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.77606908917849</v>
       </c>
       <c r="C25" t="n">
-        <v>5.15569609716242e-07</v>
+        <v>3.252084149439079e-07</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.776986296661355</v>
       </c>
       <c r="C26" t="n">
-        <v>5.244484674834324e-07</v>
+        <v>3.327268345693512e-07</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.777903504144219</v>
       </c>
       <c r="C27" t="n">
-        <v>5.339569231102425e-07</v>
+        <v>3.409086562369515e-07</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.778820711627084</v>
       </c>
       <c r="C28" t="n">
-        <v>5.441372051410659e-07</v>
+        <v>3.498113792989627e-07</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.779737919109949</v>
       </c>
       <c r="C29" t="n">
-        <v>5.550315421202969e-07</v>
+        <v>3.594925031076389e-07</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.780655126592814</v>
       </c>
       <c r="C30" t="n">
-        <v>5.666821625923235e-07</v>
+        <v>3.700095270152287e-07</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.781572334075679</v>
       </c>
       <c r="C31" t="n">
-        <v>5.79131295101551e-07</v>
+        <v>3.814199503739966e-07</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.782489541558544</v>
       </c>
       <c r="C32" t="n">
-        <v>5.924211681923679e-07</v>
+        <v>3.937812725361916e-07</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.783406749041409</v>
       </c>
       <c r="C33" t="n">
-        <v>6.065940104091681e-07</v>
+        <v>4.071509928540678e-07</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.784323956524274</v>
       </c>
       <c r="C34" t="n">
-        <v>6.216920502963457e-07</v>
+        <v>4.215866106798793e-07</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.785241164007139</v>
       </c>
       <c r="C35" t="n">
-        <v>6.377575163982945e-07</v>
+        <v>4.371456253658801e-07</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.786158371490004</v>
       </c>
       <c r="C36" t="n">
-        <v>6.548326372594085e-07</v>
+        <v>4.538855362643242e-07</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.787075578972869</v>
       </c>
       <c r="C37" t="n">
-        <v>6.729596414240821e-07</v>
+        <v>4.718638427274658e-07</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.787992786455733</v>
       </c>
       <c r="C38" t="n">
-        <v>6.921807574367087e-07</v>
+        <v>4.911380441075589e-07</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>3.788909993938598</v>
       </c>
       <c r="C39" t="n">
-        <v>7.125382138416823e-07</v>
+        <v>5.117656397568575e-07</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>3.789827201421463</v>
       </c>
       <c r="C40" t="n">
-        <v>7.340742391833972e-07</v>
+        <v>5.338041290276155e-07</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>3.790744408904328</v>
       </c>
       <c r="C41" t="n">
-        <v>7.568310620062472e-07</v>
+        <v>5.573110112720875e-07</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>3.791661616387193</v>
       </c>
       <c r="C42" t="n">
-        <v>7.808509108546264e-07</v>
+        <v>5.82343785842527e-07</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>3.792578823870058</v>
       </c>
       <c r="C43" t="n">
-        <v>8.061760142729284e-07</v>
+        <v>6.089599520911882e-07</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>3.793496031352923</v>
       </c>
       <c r="C44" t="n">
-        <v>8.328486008055478e-07</v>
+        <v>6.372170093703253e-07</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>3.794413238835788</v>
       </c>
       <c r="C45" t="n">
-        <v>8.609108989968778e-07</v>
+        <v>6.671724570321921e-07</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>3.795330446318653</v>
       </c>
       <c r="C46" t="n">
-        <v>8.904051373913129e-07</v>
+        <v>6.98883794429043e-07</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>3.796247653801518</v>
       </c>
       <c r="C47" t="n">
-        <v>9.21373544533247e-07</v>
+        <v>7.324085209131319e-07</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>3.797164861284383</v>
       </c>
       <c r="C48" t="n">
-        <v>9.53858348967074e-07</v>
+        <v>7.678041358367127e-07</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>3.798082068767247</v>
       </c>
       <c r="C49" t="n">
-        <v>9.879023860803316e-07</v>
+        <v>8.051286213669451e-07</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>3.798999276250112</v>
       </c>
       <c r="C50" t="n">
-        <v>1.023696362646293e-06</v>
+        <v>8.44557608705376e-07</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>3.799916483732977</v>
       </c>
       <c r="C51" t="n">
-        <v>1.061770885457977e-06</v>
+        <v>8.865371593934412e-07</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>3.800833691215842</v>
       </c>
       <c r="C52" t="n">
-        <v>1.102704139482234e-06</v>
+        <v>9.315511889913318e-07</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>3.801750898698707</v>
       </c>
       <c r="C53" t="n">
-        <v>1.147074309685912e-06</v>
+        <v>9.800836130592393e-07</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>3.802668106181572</v>
       </c>
       <c r="C54" t="n">
-        <v>1.195459581035862e-06</v>
+        <v>1.032618347157354e-06</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>3.803585313664437</v>
       </c>
       <c r="C55" t="n">
-        <v>1.248438138498933e-06</v>
+        <v>1.08963930684587e-06</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>3.804502521147302</v>
       </c>
       <c r="C56" t="n">
-        <v>1.306588167041976e-06</v>
+        <v>1.151630407684976e-06</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>3.805419728630167</v>
       </c>
       <c r="C57" t="n">
-        <v>1.370487851631838e-06</v>
+        <v>1.219075565234864e-06</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>3.806336936113032</v>
       </c>
       <c r="C58" t="n">
-        <v>1.440715377235372e-06</v>
+        <v>1.292458695055726e-06</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>3.807254143595897</v>
       </c>
       <c r="C59" t="n">
-        <v>1.517848928819425e-06</v>
+        <v>1.372263712707754e-06</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>3.808171351078762</v>
       </c>
       <c r="C60" t="n">
-        <v>1.602466691350849e-06</v>
+        <v>1.458974533751138e-06</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>3.809088558561627</v>
       </c>
       <c r="C61" t="n">
-        <v>1.695146849796491e-06</v>
+        <v>1.55307507374607e-06</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>3.810005766044492</v>
       </c>
       <c r="C62" t="n">
-        <v>1.796467589123203e-06</v>
+        <v>1.655049248252742e-06</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>3.810922973527357</v>
       </c>
       <c r="C63" t="n">
-        <v>1.907007094297833e-06</v>
+        <v>1.765380972831344e-06</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>3.811840181010222</v>
       </c>
       <c r="C64" t="n">
-        <v>2.027343550287232e-06</v>
+        <v>1.884554163042068e-06</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>3.812757388493087</v>
       </c>
       <c r="C65" t="n">
-        <v>2.158055142058249e-06</v>
+        <v>2.013052734445106e-06</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>3.813674595975951</v>
       </c>
       <c r="C66" t="n">
-        <v>2.299720054577734e-06</v>
+        <v>2.15136060260065e-06</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>3.814591803458816</v>
       </c>
       <c r="C67" t="n">
-        <v>2.452916472812458e-06</v>
+        <v>2.299961683068814e-06</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>3.815509010941681</v>
       </c>
       <c r="C68" t="n">
-        <v>2.618630892467234e-06</v>
+        <v>2.459766374719794e-06</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>3.816426218424546</v>
       </c>
       <c r="C69" t="n">
-        <v>2.802225275871271e-06</v>
+        <v>2.636255280720027e-06</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>3.817343425907411</v>
       </c>
       <c r="C70" t="n">
-        <v>3.011717675770039e-06</v>
+        <v>2.837683308527029e-06</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>3.818260633390276</v>
       </c>
       <c r="C71" t="n">
-        <v>3.255163488682004e-06</v>
+        <v>3.072344371420192e-06</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>3.819177840873141</v>
       </c>
       <c r="C72" t="n">
-        <v>3.540618111125634e-06</v>
+        <v>3.348532382678913e-06</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>3.820095048356006</v>
       </c>
       <c r="C73" t="n">
-        <v>3.876136939619395e-06</v>
+        <v>3.674541255582582e-06</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>3.821012255838871</v>
       </c>
       <c r="C74" t="n">
-        <v>4.269775370681753e-06</v>
+        <v>4.058664903410598e-06</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>3.821929463321736</v>
       </c>
       <c r="C75" t="n">
-        <v>4.729588800831174e-06</v>
+        <v>4.509197239442352e-06</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>3.8228466708046</v>
       </c>
       <c r="C76" t="n">
-        <v>5.263632626586127e-06</v>
+        <v>5.034432176957237e-06</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>3.823763878287465</v>
       </c>
       <c r="C77" t="n">
-        <v>5.879962244465078e-06</v>
+        <v>5.642663629234652e-06</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>3.82468108577033</v>
       </c>
       <c r="C78" t="n">
-        <v>6.586633050986491e-06</v>
+        <v>6.342185509553983e-06</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>3.825598293253195</v>
       </c>
       <c r="C79" t="n">
-        <v>7.391700442668837e-06</v>
+        <v>7.141291731194633e-06</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>3.82651550073606</v>
       </c>
       <c r="C80" t="n">
-        <v>8.30321981603058e-06</v>
+        <v>8.04827620743599e-06</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>3.827432708218925</v>
       </c>
       <c r="C81" t="n">
-        <v>9.329246567590184e-06</v>
+        <v>9.071432851557448e-06</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>3.82834991570179</v>
       </c>
       <c r="C82" t="n">
-        <v>1.047594325069222e-05</v>
+        <v>1.021713966715071e-05</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>3.829267123184655</v>
       </c>
       <c r="C83" t="n">
-        <v>1.172806225302004e-05</v>
+        <v>1.147010358417013e-05</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>3.83018433066752</v>
       </c>
       <c r="C84" t="n">
-        <v>1.305681993548672e-05</v>
+        <v>1.280133055344001e-05</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>3.831101538150385</v>
       </c>
       <c r="C85" t="n">
-        <v>1.443321918255145e-05</v>
+        <v>1.418161044786983e-05</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>3.83201874563325</v>
       </c>
       <c r="C86" t="n">
-        <v>1.582826287867275e-05</v>
+        <v>1.55817331403684e-05</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>3.832935953116114</v>
       </c>
       <c r="C87" t="n">
-        <v>1.721295390831118e-05</v>
+        <v>1.697248850384655e-05</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>3.833853160598979</v>
       </c>
       <c r="C88" t="n">
-        <v>1.855829515592524e-05</v>
+        <v>1.832466641121308e-05</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>3.834770368081844</v>
       </c>
       <c r="C89" t="n">
-        <v>1.983528950597414e-05</v>
+        <v>1.960905673537749e-05</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>3.835687575564709</v>
       </c>
       <c r="C90" t="n">
-        <v>2.101493984291706e-05</v>
+        <v>2.079644934924923e-05</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>3.836604783047574</v>
       </c>
       <c r="C91" t="n">
-        <v>2.206824905121318e-05</v>
+        <v>2.185763412573779e-05</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>3.837521990530439</v>
       </c>
       <c r="C92" t="n">
-        <v>2.296622001532172e-05</v>
+        <v>2.276340093775265e-05</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>3.838439198013304</v>
       </c>
       <c r="C93" t="n">
-        <v>2.367985561970184e-05</v>
+        <v>2.348453965820328e-05</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>3.839356405496169</v>
       </c>
       <c r="C94" t="n">
-        <v>2.418015874881275e-05</v>
+        <v>2.399184015999916e-05</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>3.840273612979034</v>
       </c>
       <c r="C95" t="n">
-        <v>2.443813228711362e-05</v>
+        <v>2.425609231604976e-05</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>3.841190820461899</v>
       </c>
       <c r="C96" t="n">
-        <v>2.442748635183059e-05</v>
+        <v>2.425080803706078e-05</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>3.842108027944764</v>
       </c>
       <c r="C97" t="n">
-        <v>2.415428387373211e-05</v>
+        <v>2.398202897493766e-05</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>3.843025235427629</v>
       </c>
       <c r="C98" t="n">
-        <v>2.364588677559479e-05</v>
+        <v>2.347721225127709e-05</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>3.843942442910494</v>
       </c>
       <c r="C99" t="n">
-        <v>2.293003161263556e-05</v>
+        <v>2.276419166886649e-05</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>3.844859650393359</v>
       </c>
       <c r="C100" t="n">
-        <v>2.203445494007142e-05</v>
+        <v>2.18708010304933e-05</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>3.845776857876224</v>
       </c>
       <c r="C101" t="n">
-        <v>2.098689331311933e-05</v>
+        <v>2.0824874138945e-05</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>3.846694065359089</v>
       </c>
       <c r="C102" t="n">
-        <v>1.981508328699626e-05</v>
+        <v>1.965424479700901e-05</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>3.847611272841954</v>
       </c>
       <c r="C103" t="n">
-        <v>1.854676141691917e-05</v>
+        <v>1.838674680747279e-05</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>3.848528480324818</v>
       </c>
       <c r="C104" t="n">
-        <v>1.72096642581057e-05</v>
+        <v>1.705021397312444e-05</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>3.849445687807683</v>
       </c>
       <c r="C105" t="n">
-        <v>1.58315283657715e-05</v>
+        <v>1.56724800967501e-05</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>3.850362895290548</v>
       </c>
       <c r="C106" t="n">
-        <v>1.444009029513419e-05</v>
+        <v>1.428137898113786e-05</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>3.851280102773413</v>
       </c>
       <c r="C107" t="n">
-        <v>1.306308660141073e-05</v>
+        <v>1.290474442907517e-05</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>3.852197310256278</v>
       </c>
       <c r="C108" t="n">
-        <v>1.172825383981809e-05</v>
+        <v>1.157041024334946e-05</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>3.853114517739143</v>
       </c>
       <c r="C109" t="n">
-        <v>1.046332856557323e-05</v>
+        <v>1.030621022674819e-05</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>3.854031725222008</v>
       </c>
       <c r="C110" t="n">
-        <v>9.296047333893134e-06</v>
+        <v>9.139978182058806e-06</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>3.854948932704873</v>
       </c>
       <c r="C111" t="n">
-        <v>8.252138429978331e-06</v>
+        <v>8.097502684396749e-06</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>3.855866140187738</v>
       </c>
       <c r="C112" t="n">
-        <v>7.329122855420066e-06</v>
+        <v>7.175845934177967e-06</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>3.856783347670603</v>
       </c>
       <c r="C113" t="n">
-        <v>6.503712909926115e-06</v>
+        <v>6.350878492963895e-06</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>3.857700555153468</v>
       </c>
       <c r="C114" t="n">
-        <v>5.752135399738524e-06</v>
+        <v>5.597976494443948e-06</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>3.858617762636332</v>
       </c>
       <c r="C115" t="n">
-        <v>5.053858942792494e-06</v>
+        <v>4.89596386188432e-06</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>3.859534970119197</v>
       </c>
       <c r="C116" t="n">
-        <v>4.4070637202553e-06</v>
+        <v>4.24356497508088e-06</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>3.860452177602062</v>
       </c>
       <c r="C117" t="n">
-        <v>3.816628735874039e-06</v>
+        <v>3.64662866547986e-06</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>3.861369385084927</v>
       </c>
       <c r="C118" t="n">
-        <v>3.28744150034355e-06</v>
+        <v>3.111012811988765e-06</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>3.862286592567792</v>
       </c>
       <c r="C119" t="n">
-        <v>2.824341301630471e-06</v>
+        <v>2.64252193193651e-06</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>3.863203800050657</v>
       </c>
       <c r="C120" t="n">
-        <v>2.42845161644476e-06</v>
+        <v>2.242848756326021e-06</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>3.864121007533522</v>
       </c>
       <c r="C121" t="n">
-        <v>2.09460593926967e-06</v>
+        <v>1.906725742582288e-06</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>3.865038215016387</v>
       </c>
       <c r="C122" t="n">
-        <v>1.817029559289036e-06</v>
+        <v>1.628212329491633e-06</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>3.865955422499252</v>
       </c>
       <c r="C123" t="n">
-        <v>1.589947765686792e-06</v>
+        <v>1.401367955840474e-06</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>3.866872629982117</v>
       </c>
       <c r="C124" t="n">
-        <v>1.407585847646559e-06</v>
+        <v>1.220252060414913e-06</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>3.867789837464982</v>
       </c>
       <c r="C125" t="n">
-        <v>1.264169094352292e-06</v>
+        <v>1.078924082001392e-06</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>3.868707044947846</v>
       </c>
       <c r="C126" t="n">
-        <v>1.15392279498783e-06</v>
+        <v>9.714434593862317e-07</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>3.869624252430711</v>
       </c>
       <c r="C127" t="n">
-        <v>1.071072238737007e-06</v>
+        <v>8.918696313557523e-07</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>3.870541459913576</v>
       </c>
       <c r="C128" t="n">
-        <v>1.00984271478366e-06</v>
+        <v>8.342620366962737e-07</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>3.871458667396441</v>
       </c>
       <c r="C129" t="n">
-        <v>9.64459512311625e-07</v>
+        <v>7.926801141941161e-07</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>3.872375874879306</v>
       </c>
       <c r="C130" t="n">
-        <v>9.291479205047381e-07</v>
+        <v>7.611833026355999e-07</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>3.873293082362171</v>
       </c>
       <c r="C131" t="n">
-        <v>8.981332285468356e-07</v>
+        <v>7.338310408070447e-07</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>3.874210289845036</v>
       </c>
       <c r="C132" t="n">
-        <v>8.656407256217535e-07</v>
+        <v>7.046827674947712e-07</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>3.875127497327901</v>
       </c>
       <c r="C133" t="n">
-        <v>8.258977726556006e-07</v>
+        <v>6.678001417861629e-07</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>3.876044704810766</v>
       </c>
       <c r="C134" t="n">
-        <v>7.759982571174526e-07</v>
+        <v>6.203168998391803e-07</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>3.876961912293631</v>
       </c>
       <c r="C135" t="n">
-        <v>7.215914237904844e-07</v>
+        <v>5.68535615651338e-07</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>3.877879119776496</v>
       </c>
       <c r="C136" t="n">
-        <v>6.699156003602169e-07</v>
+        <v>5.204618947722286e-07</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>3.878796327259361</v>
       </c>
       <c r="C137" t="n">
-        <v>6.282091145121712e-07</v>
+        <v>4.841013427514453e-07</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>3.879713534742226</v>
       </c>
       <c r="C138" t="n">
-        <v>6.034833372009779e-07</v>
+        <v>4.671909924742141e-07</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>3.880630742225091</v>
       </c>
       <c r="C139" t="n">
-        <v>5.979933667269838e-07</v>
+        <v>4.718394699739195e-07</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>3.881547949707956</v>
       </c>
       <c r="C140" t="n">
-        <v>6.094822262338428e-07</v>
+        <v>4.948159692173074e-07</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>3.88246515719082</v>
       </c>
       <c r="C141" t="n">
-        <v>6.355148641702804e-07</v>
+        <v>5.326789567999369e-07</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>3.883382364673685</v>
       </c>
       <c r="C142" t="n">
-        <v>6.736562289850646e-07</v>
+        <v>5.819868993174265e-07</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>3.88429957215655</v>
       </c>
       <c r="C143" t="n">
-        <v>7.214712691269271e-07</v>
+        <v>6.392982633653409e-07</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>3.885216779639415</v>
       </c>
       <c r="C144" t="n">
-        <v>7.765249330446093e-07</v>
+        <v>7.011715155392611e-07</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>3.88613398712228</v>
       </c>
       <c r="C145" t="n">
-        <v>8.363821691868529e-07</v>
+        <v>7.64165122434767e-07</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>3.887051194605145</v>
       </c>
       <c r="C146" t="n">
-        <v>8.986079260023991e-07</v>
+        <v>8.248375506474396e-07</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>3.88796840208801</v>
       </c>
       <c r="C147" t="n">
-        <v>9.607675762774536e-07</v>
+        <v>8.797479342014572e-07</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>3.888885609570875</v>
       </c>
       <c r="C148" t="n">
-        <v>1.021357064857113e-06</v>
+        <v>9.269190780389093e-07</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>3.88980281705374</v>
       </c>
       <c r="C149" t="n">
-        <v>1.081776077853686e-06</v>
+        <v>9.689410010057839e-07</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>3.890720024536605</v>
       </c>
       <c r="C150" t="n">
-        <v>1.143989094544269e-06</v>
+        <v>1.009292069413521e-06</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>3.89163723201947</v>
       </c>
       <c r="C151" t="n">
-        <v>1.20996059420596e-06</v>
+        <v>1.051450649573561e-06</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>3.892554439502335</v>
       </c>
       <c r="C152" t="n">
-        <v>1.281655056115857e-06</v>
+        <v>1.098895107797343e-06</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>3.8934716469852</v>
       </c>
       <c r="C153" t="n">
-        <v>1.361036959551057e-06</v>
+        <v>1.155103810396309e-06</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>3.894388854468064</v>
       </c>
       <c r="C154" t="n">
-        <v>1.450070783788658e-06</v>
+        <v>1.223555123681897e-06</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>3.895306061950929</v>
       </c>
       <c r="C155" t="n">
-        <v>1.550721008105757e-06</v>
+        <v>1.307727413965547e-06</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>3.896223269433794</v>
       </c>
       <c r="C156" t="n">
-        <v>1.664952111779451e-06</v>
+        <v>1.411099047558701e-06</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>3.897140476916659</v>
       </c>
       <c r="C157" t="n">
-        <v>1.795112211205979e-06</v>
+        <v>1.53729360609738e-06</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>3.898057684399524</v>
       </c>
       <c r="C158" t="n">
-        <v>1.946099842349605e-06</v>
+        <v>1.690900062695428e-06</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>3.898974891882389</v>
       </c>
       <c r="C159" t="n">
-        <v>2.123853965041701e-06</v>
+        <v>1.876901214426953e-06</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>3.899892099365254</v>
       </c>
       <c r="C160" t="n">
-        <v>2.334316608210588e-06</v>
+        <v>2.100281020088662e-06</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>3.900809306848119</v>
       </c>
       <c r="C161" t="n">
-        <v>2.583429800784459e-06</v>
+        <v>2.366023438477121e-06</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>3.901726514330984</v>
       </c>
       <c r="C162" t="n">
-        <v>2.877135571691874e-06</v>
+        <v>2.679112428389291e-06</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>3.902643721813849</v>
       </c>
       <c r="C163" t="n">
-        <v>3.221375949861045e-06</v>
+        <v>3.044531948621761e-06</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>3.903560929296713</v>
       </c>
       <c r="C164" t="n">
-        <v>3.622092964220296e-06</v>
+        <v>3.467265957971235e-06</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>3.904478136779578</v>
       </c>
       <c r="C165" t="n">
-        <v>4.085228643697948e-06</v>
+        <v>3.95229841523442e-06</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>3.905395344262443</v>
       </c>
       <c r="C166" t="n">
-        <v>4.616725017222326e-06</v>
+        <v>4.504613279208024e-06</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>3.906312551745308</v>
       </c>
       <c r="C167" t="n">
-        <v>5.222524113721751e-06</v>
+        <v>5.12919450868875e-06</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>3.907229759228173</v>
       </c>
       <c r="C168" t="n">
-        <v>5.908567962124543e-06</v>
+        <v>5.831026062473304e-06</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>3.908146966711038</v>
       </c>
       <c r="C169" t="n">
-        <v>6.680798591359029e-06</v>
+        <v>6.615091899358394e-06</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>3.909064174193903</v>
       </c>
       <c r="C170" t="n">
-        <v>7.545153018277056e-06</v>
+        <v>7.486371251053874e-06</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>3.909981381676768</v>
       </c>
       <c r="C171" t="n">
-        <v>8.500633396049875e-06</v>
+        <v>8.443302806022629e-06</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>3.910898589159633</v>
       </c>
       <c r="C172" t="n">
-        <v>9.525544271940411e-06</v>
+        <v>9.464804524882416e-06</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>3.911815796642498</v>
       </c>
       <c r="C173" t="n">
-        <v>1.059434579367793e-05</v>
+        <v>1.052616856353925e-05</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>3.912733004125363</v>
       </c>
       <c r="C174" t="n">
-        <v>1.168149810899173e-05</v>
+        <v>1.160268707789913e-05</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>3.913650211608228</v>
       </c>
       <c r="C175" t="n">
-        <v>1.276146136561107e-05</v>
+        <v>1.266965222386809e-05</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>3.914567419091093</v>
       </c>
       <c r="C176" t="n">
-        <v>1.380869571126524e-05</v>
+        <v>1.370235615735214e-05</v>
       </c>
     </row>
     <row r="177">
@@ -2311,7 +2311,7 @@
         <v>3.915484626573958</v>
       </c>
       <c r="C177" t="n">
-        <v>1.479766129368352e-05</v>
+        <v>1.467609103425729e-05</v>
       </c>
     </row>
     <row r="178">
@@ -2322,7 +2322,7 @@
         <v>3.916401834056822</v>
       </c>
       <c r="C178" t="n">
-        <v>1.570281826059478e-05</v>
+        <v>1.556614901048915e-05</v>
       </c>
     </row>
     <row r="179">
@@ -2333,7 +2333,7 @@
         <v>3.917319041539687</v>
       </c>
       <c r="C179" t="n">
-        <v>1.649862675972917e-05</v>
+        <v>1.634782224195459e-05</v>
       </c>
     </row>
     <row r="180">
@@ -2344,7 +2344,7 @@
         <v>3.918236249022552</v>
       </c>
       <c r="C180" t="n">
-        <v>1.715982552452178e-05</v>
+        <v>1.699667313982215e-05</v>
       </c>
     </row>
     <row r="181">
@@ -2355,7 +2355,7 @@
         <v>3.919153456505417</v>
       </c>
       <c r="C181" t="n">
-        <v>1.767328205498785e-05</v>
+        <v>1.750003019990791e-05</v>
       </c>
     </row>
     <row r="182">
@@ -2366,7 +2366,7 @@
         <v>3.920070663988282</v>
       </c>
       <c r="C182" t="n">
-        <v>1.804241499223673e-05</v>
+        <v>1.786127813659233e-05</v>
       </c>
     </row>
     <row r="183">
@@ -2377,7 +2377,7 @@
         <v>3.920987871471147</v>
       </c>
       <c r="C183" t="n">
-        <v>1.827183292060359e-05</v>
+        <v>1.80849560250582e-05</v>
       </c>
     </row>
     <row r="184">
@@ -2388,7 +2388,7 @@
         <v>3.921905078954012</v>
       </c>
       <c r="C184" t="n">
-        <v>1.836614442442363e-05</v>
+        <v>1.817560294048835e-05</v>
       </c>
     </row>
     <row r="185">
@@ -2399,7 +2399,7 @@
         <v>3.922822286436877</v>
       </c>
       <c r="C185" t="n">
-        <v>1.832995808803204e-05</v>
+        <v>1.813775795806556e-05</v>
       </c>
     </row>
     <row r="186">
@@ -2410,7 +2410,7 @@
         <v>3.923739493919742</v>
       </c>
       <c r="C186" t="n">
-        <v>1.816788249576399e-05</v>
+        <v>1.797596015297265e-05</v>
       </c>
     </row>
     <row r="187">
@@ -2421,7 +2421,7 @@
         <v>3.924656701402607</v>
       </c>
       <c r="C187" t="n">
-        <v>1.788452623195468e-05</v>
+        <v>1.76947486003924e-05</v>
       </c>
     </row>
     <row r="188">
@@ -2432,7 +2432,7 @@
         <v>3.925573908885472</v>
       </c>
       <c r="C188" t="n">
-        <v>1.748449788093928e-05</v>
+        <v>1.729866237550764e-05</v>
       </c>
     </row>
     <row r="189">
@@ -2443,7 +2443,7 @@
         <v>3.926491116368337</v>
       </c>
       <c r="C189" t="n">
-        <v>1.697241101626247e-05</v>
+        <v>1.679224541238202e-05</v>
       </c>
     </row>
     <row r="190">
@@ -2454,7 +2454,7 @@
         <v>3.927408323851202</v>
       </c>
       <c r="C190" t="n">
-        <v>1.635604973260339e-05</v>
+        <v>1.618312934554742e-05</v>
       </c>
     </row>
     <row r="191">
@@ -2465,7 +2465,7 @@
         <v>3.928325531334067</v>
       </c>
       <c r="C191" t="n">
-        <v>1.565179900629716e-05</v>
+        <v>1.548732201811148e-05</v>
       </c>
     </row>
     <row r="192">
@@ -2476,7 +2476,7 @@
         <v>3.929242738816932</v>
       </c>
       <c r="C192" t="n">
-        <v>1.487748824546278e-05</v>
+        <v>1.472223797337593e-05</v>
       </c>
     </row>
     <row r="193">
@@ -2487,7 +2487,7 @@
         <v>3.930159946299796</v>
       </c>
       <c r="C193" t="n">
-        <v>1.405094685821921e-05</v>
+        <v>1.390529175464252e-05</v>
       </c>
     </row>
     <row r="194">
@@ -2498,7 +2498,7 @@
         <v>3.931077153782661</v>
       </c>
       <c r="C194" t="n">
-        <v>1.319000425268544e-05</v>
+        <v>1.305389790521302e-05</v>
       </c>
     </row>
     <row r="195">
@@ -2509,7 +2509,7 @@
         <v>3.931994361265526</v>
       </c>
       <c r="C195" t="n">
-        <v>1.231248983698045e-05</v>
+        <v>1.218547096838916e-05</v>
       </c>
     </row>
     <row r="196">
@@ -2520,7 +2520,7 @@
         <v>3.932911568748391</v>
       </c>
       <c r="C196" t="n">
-        <v>1.143623301922323e-05</v>
+        <v>1.131742548747269e-05</v>
       </c>
     </row>
     <row r="197">
@@ -2531,7 +2531,7 @@
         <v>3.933828776231256</v>
       </c>
       <c r="C197" t="n">
-        <v>1.057906320753275e-05</v>
+        <v>1.046717600576535e-05</v>
       </c>
     </row>
     <row r="198">
@@ -2542,7 +2542,7 @@
         <v>3.934745983714121</v>
       </c>
       <c r="C198" t="n">
-        <v>9.75880981002838e-06</v>
+        <v>9.652137066569288e-06</v>
       </c>
     </row>
     <row r="199">
@@ -2553,7 +2553,7 @@
         <v>3.935663191196986</v>
       </c>
       <c r="C199" t="n">
-        <v>8.991022313407194e-06</v>
+        <v>8.887525691290723e-06</v>
       </c>
     </row>
     <row r="200">
@@ -2564,7 +2564,7 @@
         <v>3.936580398679851</v>
       </c>
       <c r="C200" t="n">
-        <v>8.278192398810565e-06</v>
+        <v>8.175973023006962e-06</v>
       </c>
     </row>
     <row r="201">
@@ -2575,7 +2575,7 @@
         <v>3.937497606162716</v>
       </c>
       <c r="C201" t="n">
-        <v>7.618171135550578e-06</v>
+        <v>7.515637311122144e-06</v>
       </c>
     </row>
     <row r="202">
@@ -2586,7 +2586,7 @@
         <v>3.938414813645581</v>
       </c>
       <c r="C202" t="n">
-        <v>7.008804024452817e-06</v>
+        <v>6.904671437806742e-06</v>
       </c>
     </row>
     <row r="203">
@@ -2597,7 +2597,7 @@
         <v>3.939332021128445</v>
       </c>
       <c r="C203" t="n">
-        <v>6.447936566342857e-06</v>
+        <v>6.341228285231217e-06</v>
       </c>
     </row>
     <row r="204">
@@ -2608,7 +2608,7 @@
         <v>3.94024922861131</v>
       </c>
       <c r="C204" t="n">
-        <v>5.93341426204628e-06</v>
+        <v>5.823460735566041e-06</v>
       </c>
     </row>
     <row r="205">
@@ -2619,7 +2619,7 @@
         <v>3.941166436094175</v>
       </c>
       <c r="C205" t="n">
-        <v>5.463082612388663e-06</v>
+        <v>5.349521670981679e-06</v>
       </c>
     </row>
     <row r="206">
@@ -2630,7 +2630,7 @@
         <v>3.94208364357704</v>
       </c>
       <c r="C206" t="n">
-        <v>5.034787118195586e-06</v>
+        <v>4.917563973648598e-06</v>
       </c>
     </row>
     <row r="207">
@@ -2641,7 +2641,7 @@
         <v>3.943000851059905</v>
       </c>
       <c r="C207" t="n">
-        <v>4.646373280292622e-06</v>
+        <v>4.525740525737262e-06</v>
       </c>
     </row>
     <row r="208">
@@ -2652,7 +2652,7 @@
         <v>3.94391805854277</v>
       </c>
       <c r="C208" t="n">
-        <v>4.295690272457728e-06</v>
+        <v>4.172202724569921e-06</v>
       </c>
     </row>
     <row r="209">
@@ -2663,7 +2663,7 @@
         <v>3.944835266025635</v>
       </c>
       <c r="C209" t="n">
-        <v>3.980698662227513e-06</v>
+        <v>3.855056934806294e-06</v>
       </c>
     </row>
     <row r="210">
@@ -2674,7 +2674,7 @@
         <v>3.9457524735085</v>
       </c>
       <c r="C210" t="n">
-        <v>3.69948780003114e-06</v>
+        <v>3.572357458615278e-06</v>
       </c>
     </row>
     <row r="211">
@@ -2685,7 +2685,7 @@
         <v>3.946669680991365</v>
       </c>
       <c r="C211" t="n">
-        <v>3.450154210032873e-06</v>
+        <v>3.322155698071586e-06</v>
       </c>
     </row>
     <row r="212">
@@ -2696,7 +2696,7 @@
         <v>3.94758688847423</v>
       </c>
       <c r="C212" t="n">
-        <v>3.230794416396972e-06</v>
+        <v>3.102503055249924e-06</v>
       </c>
     </row>
     <row r="213">
@@ -2707,7 +2707,7 @@
         <v>3.948504095957095</v>
       </c>
       <c r="C213" t="n">
-        <v>3.039504943287702e-06</v>
+        <v>2.911450932225004e-06</v>
       </c>
     </row>
     <row r="214">
@@ -2718,7 +2718,7 @@
         <v>3.94942130343996</v>
       </c>
       <c r="C214" t="n">
-        <v>2.874382314869325e-06</v>
+        <v>2.747050731071537e-06</v>
       </c>
     </row>
     <row r="215">
@@ -2729,7 +2729,7 @@
         <v>3.950338510922824</v>
       </c>
       <c r="C215" t="n">
-        <v>2.733523055306166e-06</v>
+        <v>2.607353853864294e-06</v>
       </c>
     </row>
     <row r="216">
@@ -2740,7 +2740,7 @@
         <v>3.951255718405689</v>
       </c>
       <c r="C216" t="n">
-        <v>2.615023688762355e-06</v>
+        <v>2.49041170267785e-06</v>
       </c>
     </row>
     <row r="217">
@@ -2751,7 +2751,7 @@
         <v>3.952172925888554</v>
       </c>
       <c r="C217" t="n">
-        <v>2.516980739402225e-06</v>
+        <v>2.39427567958699e-06</v>
       </c>
     </row>
     <row r="218">
@@ -2762,7 +2762,7 @@
         <v>3.953090133371419</v>
       </c>
       <c r="C218" t="n">
-        <v>2.437490731390042e-06</v>
+        <v>2.316997186666423e-06</v>
       </c>
     </row>
     <row r="219">
@@ -2773,7 +2773,7 @@
         <v>3.954007340854284</v>
       </c>
       <c r="C219" t="n">
-        <v>2.374650188890069e-06</v>
+        <v>2.25662762599086e-06</v>
       </c>
     </row>
     <row r="220">
@@ -2784,7 +2784,7 @@
         <v>3.954924548337149</v>
       </c>
       <c r="C220" t="n">
-        <v>2.326555636066567e-06</v>
+        <v>2.211218399635011e-06</v>
       </c>
     </row>
     <row r="221">
@@ -2795,7 +2795,7 @@
         <v>3.955841755820014</v>
       </c>
       <c r="C221" t="n">
-        <v>2.291303597083801e-06</v>
+        <v>2.178820909673586e-06</v>
       </c>
     </row>
     <row r="222">
@@ -2806,7 +2806,7 @@
         <v>3.956758963302879</v>
       </c>
       <c r="C222" t="n">
-        <v>2.266990596106032e-06</v>
+        <v>2.157486558181295e-06</v>
       </c>
     </row>
     <row r="223">
@@ -2817,7 +2817,7 @@
         <v>3.957676170785744</v>
       </c>
       <c r="C223" t="n">
-        <v>2.251713157297524e-06</v>
+        <v>2.145266747232849e-06</v>
       </c>
     </row>
     <row r="224">
@@ -2828,7 +2828,7 @@
         <v>3.958593378268609</v>
       </c>
       <c r="C224" t="n">
-        <v>2.24356780482254e-06</v>
+        <v>2.140212878902957e-06</v>
       </c>
     </row>
     <row r="225">
@@ -2839,7 +2839,7 @@
         <v>3.959510585751474</v>
       </c>
       <c r="C225" t="n">
-        <v>2.240651062845344e-06</v>
+        <v>2.14037635526633e-06</v>
       </c>
     </row>
     <row r="226">
@@ -2850,7 +2850,7 @@
         <v>3.960427793234339</v>
       </c>
       <c r="C226" t="n">
-        <v>2.241059455530197e-06</v>
+        <v>2.143808578397677e-06</v>
       </c>
     </row>
     <row r="227">
@@ -2861,7 +2861,7 @@
         <v>3.961345000717204</v>
       </c>
       <c r="C227" t="n">
-        <v>2.242889507041363e-06</v>
+        <v>2.148560950371709e-06</v>
       </c>
     </row>
     <row r="228">
@@ -2872,7 +2872,7 @@
         <v>3.962262208200069</v>
       </c>
       <c r="C228" t="n">
-        <v>2.244237741543106e-06</v>
+        <v>2.152684873263137e-06</v>
       </c>
     </row>
     <row r="229">
@@ -2883,7 +2883,7 @@
         <v>3.963179415682934</v>
       </c>
       <c r="C229" t="n">
-        <v>2.243200683199686e-06</v>
+        <v>2.154231749146669e-06</v>
       </c>
     </row>
     <row r="230">
@@ -2894,7 +2894,7 @@
         <v>3.964096623165799</v>
       </c>
       <c r="C230" t="n">
-        <v>2.237874856175368e-06</v>
+        <v>2.151252980097017e-06</v>
       </c>
     </row>
     <row r="231">
@@ -2905,7 +2905,7 @@
         <v>3.965013830648664</v>
       </c>
       <c r="C231" t="n">
-        <v>2.226356784634415e-06</v>
+        <v>2.14179996818889e-06</v>
       </c>
     </row>
     <row r="232">
@@ -2916,7 +2916,7 @@
         <v>3.965931038131528</v>
       </c>
       <c r="C232" t="n">
-        <v>2.206742992741091e-06</v>
+        <v>2.123924115496999e-06</v>
       </c>
     </row>
     <row r="233">
@@ -2927,7 +2927,7 @@
         <v>3.966848245614393</v>
       </c>
       <c r="C233" t="n">
-        <v>2.177130004659657e-06</v>
+        <v>2.095676824096054e-06</v>
       </c>
     </row>
     <row r="234">
@@ -2938,7 +2938,7 @@
         <v>3.967765453097258</v>
       </c>
       <c r="C234" t="n">
-        <v>2.135614344554377e-06</v>
+        <v>2.055109496060765e-06</v>
       </c>
     </row>
     <row r="235">
@@ -2949,7 +2949,7 @@
         <v>3.968682660580123</v>
       </c>
       <c r="C235" t="n">
-        <v>2.080292536589544e-06</v>
+        <v>2.000273533465871e-06</v>
       </c>
     </row>
     <row r="236">
@@ -2960,7 +2960,7 @@
         <v>3.969599868062988</v>
       </c>
       <c r="C236" t="n">
-        <v>2.00929009898354e-06</v>
+        <v>1.929250224216789e-06</v>
       </c>
     </row>
     <row r="237">
@@ -2971,7 +2971,7 @@
         <v>3.970517075545853</v>
       </c>
       <c r="C237" t="n">
-        <v>1.922641470331456e-06</v>
+        <v>1.842088489684986e-06</v>
       </c>
     </row>
     <row r="238">
@@ -2982,7 +2982,7 @@
         <v>3.971434283028718</v>
       </c>
       <c r="C238" t="n">
-        <v>1.823441586644499e-06</v>
+        <v>1.741991881058983e-06</v>
       </c>
     </row>
     <row r="239">
@@ -2993,7 +2993,7 @@
         <v>3.972351490511583</v>
       </c>
       <c r="C239" t="n">
-        <v>1.715060904881273e-06</v>
+        <v>1.632447944733863e-06</v>
       </c>
     </row>
     <row r="240">
@@ -3004,7 +3004,7 @@
         <v>3.973268697994448</v>
       </c>
       <c r="C240" t="n">
-        <v>1.600869882000386e-06</v>
+        <v>1.516944227104713e-06</v>
       </c>
     </row>
     <row r="241">
@@ -3015,7 +3015,7 @@
         <v>3.974185905477313</v>
       </c>
       <c r="C241" t="n">
-        <v>1.484238974960444e-06</v>
+        <v>1.39896827456662e-06</v>
       </c>
     </row>
     <row r="242">
@@ -3026,7 +3026,7 @@
         <v>3.975103112960177</v>
       </c>
       <c r="C242" t="n">
-        <v>1.368538640720053e-06</v>
+        <v>1.282007633514668e-06</v>
       </c>
     </row>
     <row r="243">
@@ -3037,7 +3037,7 @@
         <v>3.976020320443042</v>
       </c>
       <c r="C243" t="n">
-        <v>1.257139336237819e-06</v>
+        <v>1.169549850343944e-06</v>
       </c>
     </row>
     <row r="244">
@@ -3048,7 +3048,7 @@
         <v>3.976937527925907</v>
       </c>
       <c r="C244" t="n">
-        <v>1.153411518472347e-06</v>
+        <v>1.065082471449533e-06</v>
       </c>
     </row>
     <row r="245">
@@ -3059,7 +3059,7 @@
         <v>3.977854735408772</v>
       </c>
       <c r="C245" t="n">
-        <v>1.060725644382245e-06</v>
+        <v>9.720930432265221e-07</v>
       </c>
     </row>
     <row r="246">
@@ -3070,7 +3070,7 @@
         <v>3.978771942891637</v>
       </c>
       <c r="C246" t="n">
-        <v>9.824521709261171e-07</v>
+        <v>8.940691120699956e-07</v>
       </c>
     </row>
     <row r="247">
@@ -3081,7 +3081,7 @@
         <v>3.979689150374502</v>
       </c>
       <c r="C247" t="n">
-        <v>9.219615550625708e-07</v>
+        <v>8.344982243750403e-07</v>
       </c>
     </row>
     <row r="248">
@@ -3092,7 +3092,7 @@
         <v>3.980606357857367</v>
       </c>
       <c r="C248" t="n">
-        <v>8.826242537502118e-07</v>
+        <v>7.968679265367418e-07</v>
       </c>
     </row>
     <row r="249">
@@ -3103,7 +3103,7 @@
         <v>3.981523565340232</v>
       </c>
       <c r="C249" t="n">
-        <v>8.678107239476461e-07</v>
+        <v>7.846657649501857e-07</v>
       </c>
     </row>
     <row r="250">
@@ -3114,7 +3114,7 @@
         <v>3.982440772823097</v>
       </c>
       <c r="C250" t="n">
-        <v>8.8085703914859e-07</v>
+        <v>8.01343545770294e-07</v>
       </c>
     </row>
     <row r="251">
@@ -3125,7 +3125,7 @@
         <v>3.983357980305962</v>
       </c>
       <c r="C251" t="n">
-        <v>9.225547672808905e-07</v>
+        <v>8.477081631190171e-07</v>
       </c>
     </row>
     <row r="252">
@@ -3136,7 +3136,7 @@
         <v>3.984275187788826</v>
       </c>
       <c r="C252" t="n">
-        <v>9.894464704958525e-07</v>
+        <v>9.201498391104741e-07</v>
       </c>
     </row>
     <row r="253">
@@ -3147,7 +3147,7 @@
         <v>3.985192395271691</v>
       </c>
       <c r="C253" t="n">
-        <v>1.077671073349918e-06</v>
+        <v>1.014639230680415e-06</v>
       </c>
     </row>
     <row r="254">
@@ -3158,7 +3158,7 @@
         <v>3.986109602754556</v>
       </c>
       <c r="C254" t="n">
-        <v>1.183367500399435e-06</v>
+        <v>1.12714699476449e-06</v>
       </c>
     </row>
     <row r="255">
@@ -3169,7 +3169,7 @@
         <v>3.987026810237421</v>
       </c>
       <c r="C255" t="n">
-        <v>1.302674676200779e-06</v>
+        <v>1.253643788298377e-06</v>
       </c>
     </row>
     <row r="256">
@@ -3180,7 +3180,7 @@
         <v>3.987944017720286</v>
       </c>
       <c r="C256" t="n">
-        <v>1.431731525310327e-06</v>
+        <v>1.390100268217756e-06</v>
       </c>
     </row>
     <row r="257">
@@ -3191,7 +3191,7 @@
         <v>3.988861225203151</v>
       </c>
       <c r="C257" t="n">
-        <v>1.566676972284452e-06</v>
+        <v>1.532487091458305e-06</v>
       </c>
     </row>
     <row r="258">
@@ -3202,7 +3202,7 @@
         <v>3.989778432686016</v>
       </c>
       <c r="C258" t="n">
-        <v>1.70364994167953e-06</v>
+        <v>1.676774914955704e-06</v>
       </c>
     </row>
     <row r="259">
@@ -3213,7 +3213,7 @@
         <v>3.990695640168881</v>
       </c>
       <c r="C259" t="n">
-        <v>1.838789358051936e-06</v>
+        <v>1.818934395645629e-06</v>
       </c>
     </row>
     <row r="260">
@@ -3224,7 +3224,7 @@
         <v>3.991612847651746</v>
       </c>
       <c r="C260" t="n">
-        <v>1.968234145958047e-06</v>
+        <v>1.954936190463763e-06</v>
       </c>
     </row>
     <row r="261">
@@ -3235,7 +3235,7 @@
         <v>3.992530055134611</v>
       </c>
       <c r="C261" t="n">
-        <v>2.088123229954236e-06</v>
+        <v>2.08075095634578e-06</v>
       </c>
     </row>
     <row r="262">
@@ -3246,7 +3246,7 @@
         <v>3.993447262617476</v>
       </c>
       <c r="C262" t="n">
-        <v>2.194595534596879e-06</v>
+        <v>2.192349350227362e-06</v>
       </c>
     </row>
     <row r="263">
@@ -3257,7 +3257,7 @@
         <v>3.994364470100341</v>
       </c>
       <c r="C263" t="n">
-        <v>2.283789984442353e-06</v>
+        <v>2.285702029044187e-06</v>
       </c>
     </row>
     <row r="264">
@@ -3268,7 +3268,7 @@
         <v>3.995281677583206</v>
       </c>
       <c r="C264" t="n">
-        <v>2.351944511524846e-06</v>
+        <v>2.356883389792075e-06</v>
       </c>
     </row>
     <row r="265">
@@ -3279,7 +3279,7 @@
         <v>3.996198885066071</v>
       </c>
       <c r="C265" t="n">
-        <v>2.397836978295002e-06</v>
+        <v>2.404629169195657e-06</v>
       </c>
     </row>
     <row r="266">
@@ -3290,7 +3290,7 @@
         <v>3.997116092548936</v>
       </c>
       <c r="C266" t="n">
-        <v>2.422940343858235e-06</v>
+        <v>2.430499026931884e-06</v>
       </c>
     </row>
     <row r="267">
@@ -3301,7 +3301,7 @@
         <v>3.998033300031801</v>
       </c>
       <c r="C267" t="n">
-        <v>2.428857642255986e-06</v>
+        <v>2.436188915228376e-06</v>
       </c>
     </row>
     <row r="268">
@@ -3312,7 +3312,7 @@
         <v>3.998950507514666</v>
       </c>
       <c r="C268" t="n">
-        <v>2.417191907529699e-06</v>
+        <v>2.423394786312755e-06</v>
       </c>
     </row>
     <row r="269">
@@ -3323,7 +3323,7 @@
         <v>3.999867714997531</v>
       </c>
       <c r="C269" t="n">
-        <v>2.389546173720814e-06</v>
+        <v>2.393812592412639e-06</v>
       </c>
     </row>
     <row r="270">
@@ -3334,7 +3334,7 @@
         <v>4.000784922480396</v>
       </c>
       <c r="C270" t="n">
-        <v>2.347523474870775e-06</v>
+        <v>2.349138285755649e-06</v>
       </c>
     </row>
     <row r="271">
@@ -3345,7 +3345,7 @@
         <v>4.00170212996326</v>
       </c>
       <c r="C271" t="n">
-        <v>2.292726845021027e-06</v>
+        <v>2.291067818569406e-06</v>
       </c>
     </row>
     <row r="272">
@@ -3356,7 +3356,7 @@
         <v>4.002619337446125</v>
       </c>
       <c r="C272" t="n">
-        <v>2.226759318213009e-06</v>
+        <v>2.22129714308153e-06</v>
       </c>
     </row>
     <row r="273">
@@ -3367,7 +3367,7 @@
         <v>4.00353654492899</v>
       </c>
       <c r="C273" t="n">
-        <v>2.151223928488166e-06</v>
+        <v>2.141522211519641e-06</v>
       </c>
     </row>
     <row r="274">
@@ -3378,7 +3378,7 @@
         <v>4.004453752411855</v>
       </c>
       <c r="C274" t="n">
-        <v>2.06772370988794e-06</v>
+        <v>2.053438976111359e-06</v>
       </c>
     </row>
     <row r="275">
@@ -3389,7 +3389,7 @@
         <v>4.00537095989472</v>
       </c>
       <c r="C275" t="n">
-        <v>1.977861696453773e-06</v>
+        <v>1.958743389084304e-06</v>
       </c>
     </row>
     <row r="276">
@@ -3400,7 +3400,7 @@
         <v>4.006288167377585</v>
       </c>
       <c r="C276" t="n">
-        <v>1.883240922227109e-06</v>
+        <v>1.859131402666096e-06</v>
       </c>
     </row>
     <row r="277">
@@ -3411,7 +3411,7 @@
         <v>4.00720537486045</v>
       </c>
       <c r="C277" t="n">
-        <v>1.785464421249389e-06</v>
+        <v>1.756298969084357e-06</v>
       </c>
     </row>
     <row r="278">
@@ -3422,7 +3422,7 @@
         <v>4.008122582343315</v>
       </c>
       <c r="C278" t="n">
-        <v>1.686135227562057e-06</v>
+        <v>1.651942040566707e-06</v>
       </c>
     </row>
     <row r="279">
@@ -3433,7 +3433,7 @@
         <v>4.009039789826179</v>
       </c>
       <c r="C279" t="n">
-        <v>1.58685637520665e-06</v>
+        <v>1.547756569340864e-06</v>
       </c>
     </row>
     <row r="280">
@@ -3444,7 +3444,7 @@
         <v>4.009956997309045</v>
       </c>
       <c r="C280" t="n">
-        <v>1.489230898224325e-06</v>
+        <v>1.44543850763415e-06</v>
       </c>
     </row>
     <row r="281">
@@ -3455,7 +3455,7 @@
         <v>4.010874204791909</v>
       </c>
       <c r="C281" t="n">
-        <v>1.3948618306569e-06</v>
+        <v>1.346683807674578e-06</v>
       </c>
     </row>
     <row r="282">
@@ -3466,7 +3466,7 @@
         <v>4.011791412274774</v>
       </c>
       <c r="C282" t="n">
-        <v>1.305352206545538e-06</v>
+        <v>1.253188421689477e-06</v>
       </c>
     </row>
     <row r="283">
@@ -3477,7 +3477,7 @@
         <v>4.012708619757639</v>
       </c>
       <c r="C283" t="n">
-        <v>1.222196486275379e-06</v>
+        <v>1.166532882439229e-06</v>
       </c>
     </row>
     <row r="284">
@@ -3488,7 +3488,7 @@
         <v>4.013625827240504</v>
       </c>
       <c r="C284" t="n">
-        <v>1.145756294813332e-06</v>
+        <v>1.087093459468938e-06</v>
       </c>
     </row>
     <row r="285">
@@ -3499,7 +3499,7 @@
         <v>4.014543034723369</v>
       </c>
       <c r="C285" t="n">
-        <v>1.075719461525617e-06</v>
+        <v>1.014530142409182e-06</v>
       </c>
     </row>
     <row r="286">
@@ -3510,7 +3510,7 @@
         <v>4.015460242206234</v>
       </c>
       <c r="C286" t="n">
-        <v>1.011764892160765e-06</v>
+        <v>9.484934346188758e-07</v>
       </c>
     </row>
     <row r="287">
@@ -3521,7 +3521,7 @@
         <v>4.016377449689099</v>
       </c>
       <c r="C287" t="n">
-        <v>9.535714924673056e-07</v>
+        <v>8.886338394569351e-07</v>
       </c>
     </row>
     <row r="288">
@@ -3532,7 +3532,7 @@
         <v>4.017294657171964</v>
       </c>
       <c r="C288" t="n">
-        <v>9.0081816819377e-07</v>
+        <v>8.34601860282274e-07</v>
       </c>
     </row>
     <row r="289">
@@ -3543,7 +3543,7 @@
         <v>4.018211864654829</v>
       </c>
       <c r="C289" t="n">
-        <v>8.53183825088689e-07</v>
+        <v>7.860480004538079e-07</v>
       </c>
     </row>
     <row r="290">
@@ -3554,7 +3554,7 @@
         <v>4.019129072137694</v>
       </c>
       <c r="C290" t="n">
-        <v>8.10347368900593e-07</v>
+        <v>7.426227633304512e-07</v>
       </c>
     </row>
     <row r="291">
@@ -3565,7 +3565,7 @@
         <v>4.020046279620558</v>
       </c>
       <c r="C291" t="n">
-        <v>7.719877053780127e-07</v>
+        <v>7.03976652271119e-07</v>
       </c>
     </row>
     <row r="292">
@@ -3576,7 +3576,7 @@
         <v>4.020963487103423</v>
       </c>
       <c r="C292" t="n">
-        <v>7.377837402694787e-07</v>
+        <v>6.697601706347262e-07</v>
       </c>
     </row>
     <row r="293">
@@ -3587,7 +3587,7 @@
         <v>4.021880694586288</v>
       </c>
       <c r="C293" t="n">
-        <v>7.074143793235221e-07</v>
+        <v>6.396238217801875e-07</v>
       </c>
     </row>
     <row r="294">
@@ -3598,7 +3598,7 @@
         <v>4.022797902069153</v>
       </c>
       <c r="C294" t="n">
-        <v>6.805585282886733e-07</v>
+        <v>6.132181090664179e-07</v>
       </c>
     </row>
     <row r="295">
@@ -3609,7 +3609,7 @@
         <v>4.023715109552018</v>
       </c>
       <c r="C295" t="n">
-        <v>6.568950929134629e-07</v>
+        <v>5.901935358523323e-07</v>
       </c>
     </row>
     <row r="296">
@@ -3620,7 +3620,7 @@
         <v>4.024632317034883</v>
       </c>
       <c r="C296" t="n">
-        <v>6.361029789464217e-07</v>
+        <v>5.702006054968453e-07</v>
       </c>
     </row>
     <row r="297">
@@ -3631,7 +3631,7 @@
         <v>4.025549524517748</v>
       </c>
       <c r="C297" t="n">
-        <v>6.178610921360805e-07</v>
+        <v>5.528898213588724e-07</v>
       </c>
     </row>
     <row r="298">
@@ -3642,7 +3642,7 @@
         <v>4.026466732000613</v>
       </c>
       <c r="C298" t="n">
-        <v>6.018483382309697e-07</v>
+        <v>5.379116867973274e-07</v>
       </c>
     </row>
     <row r="299">
@@ -3653,7 +3653,7 @@
         <v>4.027383939483478</v>
       </c>
       <c r="C299" t="n">
-        <v>5.877436229796202e-07</v>
+        <v>5.24916705171126e-07</v>
       </c>
     </row>
     <row r="300">
@@ -3664,7 +3664,7 @@
         <v>4.028301146966343</v>
       </c>
       <c r="C300" t="n">
-        <v>5.752258521305627e-07</v>
+        <v>5.13555379839183e-07</v>
       </c>
     </row>
     <row r="301">
@@ -3675,7 +3675,7 @@
         <v>4.029218354449208</v>
       </c>
       <c r="C301" t="n">
-        <v>5.639743034887963e-07</v>
+        <v>5.034786188546945e-07</v>
       </c>
     </row>
     <row r="302">
@@ -3686,7 +3686,7 @@
         <v>4.030135561932073</v>
       </c>
       <c r="C302" t="n">
-        <v>5.537502615580262e-07</v>
+        <v>4.944265308218747e-07</v>
       </c>
     </row>
     <row r="303">
@@ -3697,7 +3697,7 @@
         <v>4.031052769414938</v>
       </c>
       <c r="C303" t="n">
-        <v>5.444995405202654e-07</v>
+        <v>4.863399414722451e-07</v>
       </c>
     </row>
     <row r="304">
@@ -3708,7 +3708,7 @@
         <v>4.031969976897803</v>
       </c>
       <c r="C304" t="n">
-        <v>5.361931665060482e-07</v>
+        <v>4.791871001470545e-07</v>
       </c>
     </row>
     <row r="305">
@@ -3719,7 +3719,7 @@
         <v>4.032887184380668</v>
       </c>
       <c r="C305" t="n">
-        <v>5.288021656459087e-07</v>
+        <v>4.729362561875513e-07</v>
       </c>
     </row>
     <row r="306">
@@ -3730,7 +3730,7 @@
         <v>4.033804391863533</v>
       </c>
       <c r="C306" t="n">
-        <v>5.222975640703813e-07</v>
+        <v>4.675556589349849e-07</v>
       </c>
     </row>
     <row r="307">
@@ -3741,7 +3741,7 @@
         <v>4.034721599346398</v>
       </c>
       <c r="C307" t="n">
-        <v>5.166503879099998e-07</v>
+        <v>4.630135577306035e-07</v>
       </c>
     </row>
     <row r="308">
@@ -3752,7 +3752,7 @@
         <v>4.035638806829263</v>
       </c>
       <c r="C308" t="n">
-        <v>5.118316632952989e-07</v>
+        <v>4.592782019156561e-07</v>
       </c>
     </row>
     <row r="309">
@@ -3763,7 +3763,7 @@
         <v>4.036556014312128</v>
       </c>
       <c r="C309" t="n">
-        <v>5.078124163568124e-07</v>
+        <v>4.563178408313912e-07</v>
       </c>
     </row>
     <row r="310">
@@ -3774,7 +3774,7 @@
         <v>4.037473221794992</v>
       </c>
       <c r="C310" t="n">
-        <v>5.045636732250747e-07</v>
+        <v>4.541007238190577e-07</v>
       </c>
     </row>
     <row r="311">
@@ -3785,7 +3785,7 @@
         <v>4.038390429277857</v>
       </c>
       <c r="C311" t="n">
-        <v>5.020564600306199e-07</v>
+        <v>4.525951002199041e-07</v>
       </c>
     </row>
     <row r="312">
@@ -3796,7 +3796,7 @@
         <v>4.039307636760722</v>
       </c>
       <c r="C312" t="n">
-        <v>5.002618029039824e-07</v>
+        <v>4.517692193751793e-07</v>
       </c>
     </row>
     <row r="313">
@@ -3807,7 +3807,7 @@
         <v>4.040224844243587</v>
       </c>
       <c r="C313" t="n">
-        <v>4.991507279756961e-07</v>
+        <v>4.51591330626132e-07</v>
       </c>
     </row>
     <row r="314">
@@ -3818,7 +3818,7 @@
         <v>4.041142051726452</v>
       </c>
       <c r="C314" t="n">
-        <v>4.986942613762952e-07</v>
+        <v>4.520296833140108e-07</v>
       </c>
     </row>
     <row r="315">
@@ -3829,7 +3829,7 @@
         <v>4.042059259209317</v>
       </c>
       <c r="C315" t="n">
-        <v>4.98863429236314e-07</v>
+        <v>4.530525267800643e-07</v>
       </c>
     </row>
     <row r="316">
@@ -3840,7 +3840,7 @@
         <v>4.042976466692181</v>
       </c>
       <c r="C316" t="n">
-        <v>4.996292576862857e-07</v>
+        <v>4.546281103655397e-07</v>
       </c>
     </row>
     <row r="317">
@@ -3851,7 +3851,7 @@
         <v>4.043893674175047</v>
       </c>
       <c r="C317" t="n">
-        <v>5.009627728567476e-07</v>
+        <v>4.567246834116909e-07</v>
       </c>
     </row>
     <row r="318">
@@ -3862,7 +3862,7 @@
         <v>4.044810881657911</v>
       </c>
       <c r="C318" t="n">
-        <v>5.028350008782286e-07</v>
+        <v>4.593104952597587e-07</v>
       </c>
     </row>
     <row r="319">
@@ -3873,7 +3873,7 @@
         <v>4.045728089140776</v>
       </c>
       <c r="C319" t="n">
-        <v>5.052169678812678e-07</v>
+        <v>4.623537952509984e-07</v>
       </c>
     </row>
     <row r="320">
@@ -3884,7 +3884,7 @@
         <v>4.046645296623641</v>
       </c>
       <c r="C320" t="n">
-        <v>5.080796999963975e-07</v>
+        <v>4.658228327266566e-07</v>
       </c>
     </row>
     <row r="321">
@@ -3895,7 +3895,7 @@
         <v>4.047562504106506</v>
       </c>
       <c r="C321" t="n">
-        <v>5.113942233541521e-07</v>
+        <v>4.696858570279818e-07</v>
       </c>
     </row>
     <row r="322">
@@ -3906,7 +3906,7 @@
         <v>4.048479711589371</v>
       </c>
       <c r="C322" t="n">
-        <v>5.151315640850659e-07</v>
+        <v>4.73911117496223e-07</v>
       </c>
     </row>
     <row r="323">
@@ -3917,7 +3917,7 @@
         <v>4.049396919072236</v>
       </c>
       <c r="C323" t="n">
-        <v>5.19262748319673e-07</v>
+        <v>4.784668634726287e-07</v>
       </c>
     </row>
     <row r="324">
@@ -3928,7 +3928,7 @@
         <v>4.050314126555101</v>
       </c>
       <c r="C324" t="n">
-        <v>5.237588021885074e-07</v>
+        <v>4.833213442984478e-07</v>
       </c>
     </row>
     <row r="325">
@@ -3939,7 +3939,7 @@
         <v>4.051231334037966</v>
       </c>
       <c r="C325" t="n">
-        <v>5.285907518221035e-07</v>
+        <v>4.884428093149289e-07</v>
       </c>
     </row>
     <row r="326">
@@ -3950,7 +3950,7 @@
         <v>4.052148541520831</v>
       </c>
       <c r="C326" t="n">
-        <v>5.337296233509956e-07</v>
+        <v>4.937995078633207e-07</v>
       </c>
     </row>
     <row r="327">
@@ -3961,7 +3961,7 @@
         <v>4.053065749003696</v>
       </c>
       <c r="C327" t="n">
-        <v>5.391464429057174e-07</v>
+        <v>4.993596892848717e-07</v>
       </c>
     </row>
     <row r="328">
@@ -3972,7 +3972,7 @@
         <v>4.053982956486561</v>
       </c>
       <c r="C328" t="n">
-        <v>5.448122366168035e-07</v>
+        <v>5.050916029208311e-07</v>
       </c>
     </row>
     <row r="329">
@@ -3983,7 +3983,7 @@
         <v>4.054900163969426</v>
       </c>
       <c r="C329" t="n">
-        <v>5.506980306147882e-07</v>
+        <v>5.109634981124471e-07</v>
       </c>
     </row>
     <row r="330">
@@ -3994,7 +3994,7 @@
         <v>4.05581737145229</v>
       </c>
       <c r="C330" t="n">
-        <v>5.567748510302054e-07</v>
+        <v>5.169436242009689e-07</v>
       </c>
     </row>
     <row r="331">
@@ -4005,7 +4005,7 @@
         <v>4.056734578935155</v>
       </c>
       <c r="C331" t="n">
-        <v>5.630137239935894e-07</v>
+        <v>5.230002305276449e-07</v>
       </c>
     </row>
     <row r="332">
@@ -4016,7 +4016,7 @@
         <v>4.05765178641802</v>
       </c>
       <c r="C332" t="n">
-        <v>5.693856756354744e-07</v>
+        <v>5.291015664337238e-07</v>
       </c>
     </row>
     <row r="333">
@@ -4027,7 +4027,7 @@
         <v>4.058568993900885</v>
       </c>
       <c r="C333" t="n">
-        <v>5.758617320863946e-07</v>
+        <v>5.352158812604543e-07</v>
       </c>
     </row>
     <row r="334">
@@ -4038,7 +4038,7 @@
         <v>4.05948620138375</v>
       </c>
       <c r="C334" t="n">
-        <v>5.824129194768841e-07</v>
+        <v>5.413114243490853e-07</v>
       </c>
     </row>
     <row r="335">
@@ -4049,7 +4049,7 @@
         <v>4.060403408866615</v>
       </c>
       <c r="C335" t="n">
-        <v>5.890102639374772e-07</v>
+        <v>5.473564450408654e-07</v>
       </c>
     </row>
     <row r="336">
@@ -4060,7 +4060,7 @@
         <v>4.06132061634948</v>
       </c>
       <c r="C336" t="n">
-        <v>5.956247915987082e-07</v>
+        <v>5.533191926770434e-07</v>
       </c>
     </row>
     <row r="337">
@@ -4071,7 +4071,7 @@
         <v>4.062237823832345</v>
       </c>
       <c r="C337" t="n">
-        <v>6.022275285911111e-07</v>
+        <v>5.591679165988679e-07</v>
       </c>
     </row>
     <row r="338">
@@ -4082,7 +4082,7 @@
         <v>4.06315503131521</v>
       </c>
       <c r="C338" t="n">
-        <v>6.0878950104522e-07</v>
+        <v>5.648708661475875e-07</v>
       </c>
     </row>
     <row r="339">
@@ -4093,7 +4093,7 @@
         <v>4.064072238798075</v>
       </c>
       <c r="C339" t="n">
-        <v>6.153173828158144e-07</v>
+        <v>5.704340167167511e-07</v>
       </c>
     </row>
     <row r="340">
@@ -4104,7 +4104,7 @@
         <v>4.06498944628094</v>
       </c>
       <c r="C340" t="n">
-        <v>6.221499467656755e-07</v>
+        <v>5.762148046924376e-07</v>
       </c>
     </row>
     <row r="341">
@@ -4115,7 +4115,7 @@
         <v>4.065906653763805</v>
       </c>
       <c r="C341" t="n">
-        <v>6.298066788665461e-07</v>
+        <v>5.827619154771589e-07</v>
       </c>
     </row>
     <row r="342">
@@ -4126,7 +4126,7 @@
         <v>4.06682386124667</v>
       </c>
       <c r="C342" t="n">
-        <v>6.388088743028139e-07</v>
+        <v>5.906259491665057e-07</v>
       </c>
     </row>
     <row r="343">
@@ -4137,7 +4137,7 @@
         <v>4.067741068729535</v>
       </c>
       <c r="C343" t="n">
-        <v>6.496778282588662e-07</v>
+        <v>6.00357505856068e-07</v>
       </c>
     </row>
     <row r="344">
@@ -4148,7 +4148,7 @@
         <v>4.0686582762124</v>
       </c>
       <c r="C344" t="n">
-        <v>6.629348359190911e-07</v>
+        <v>6.125071856414366e-07</v>
       </c>
     </row>
     <row r="345">
@@ -4159,7 +4159,7 @@
         <v>4.069575483695265</v>
       </c>
       <c r="C345" t="n">
-        <v>6.791011924678759e-07</v>
+        <v>6.276255886182015e-07</v>
       </c>
     </row>
     <row r="346">
@@ -4170,7 +4170,7 @@
         <v>4.07049269117813</v>
       </c>
       <c r="C346" t="n">
-        <v>6.986981930896083e-07</v>
+        <v>6.462633148819532e-07</v>
       </c>
     </row>
     <row r="347">
@@ -4181,7 +4181,7 @@
         <v>4.071409898660995</v>
       </c>
       <c r="C347" t="n">
-        <v>7.222471329686762e-07</v>
+        <v>6.689709645282817e-07</v>
       </c>
     </row>
     <row r="348">
@@ -4192,7 +4192,7 @@
         <v>4.07232710614386</v>
       </c>
       <c r="C348" t="n">
-        <v>7.502693072894671e-07</v>
+        <v>6.962991376527779e-07</v>
       </c>
     </row>
     <row r="349">
@@ -4203,7 +4203,7 @@
         <v>4.073244313626724</v>
       </c>
       <c r="C349" t="n">
-        <v>7.832860112363687e-07</v>
+        <v>7.287984343510318e-07</v>
       </c>
     </row>
     <row r="350">
@@ -4214,7 +4214,7 @@
         <v>4.074161521109589</v>
       </c>
       <c r="C350" t="n">
-        <v>8.218185399937684e-07</v>
+        <v>7.670194547186336e-07</v>
       </c>
     </row>
     <row r="351">
@@ -4225,7 +4225,7 @@
         <v>4.075078728592454</v>
       </c>
       <c r="C351" t="n">
-        <v>8.663881887460542e-07</v>
+        <v>8.11512798851174e-07</v>
       </c>
     </row>
     <row r="352">
@@ -4236,7 +4236,7 @@
         <v>4.075995936075319</v>
       </c>
       <c r="C352" t="n">
-        <v>9.175162526776134e-07</v>
+        <v>8.628290668442431e-07</v>
       </c>
     </row>
     <row r="353">
@@ -4247,7 +4247,7 @@
         <v>4.076913143558183</v>
       </c>
       <c r="C353" t="n">
-        <v>9.757240269727741e-07</v>
+        <v>9.215188587933709e-07</v>
       </c>
     </row>
     <row r="354">
@@ -4258,7 +4258,7 @@
         <v>4.077830351041049</v>
       </c>
       <c r="C354" t="n">
-        <v>1.041532806816103e-06</v>
+        <v>9.881327747943293e-07</v>
       </c>
     </row>
     <row r="355">
@@ -4269,7 +4269,7 @@
         <v>4.078747558523913</v>
       </c>
       <c r="C355" t="n">
-        <v>1.115463887391734e-06</v>
+        <v>1.06322141494245e-06</v>
       </c>
     </row>
     <row r="356">
@@ -4280,7 +4280,7 @@
         <v>4.079664766006778</v>
       </c>
       <c r="C356" t="n">
-        <v>1.198038563884256e-06</v>
+        <v>1.147335379333529e-06</v>
       </c>
     </row>
     <row r="357">
@@ -4291,7 +4291,7 @@
         <v>4.080581973489643</v>
       </c>
       <c r="C357" t="n">
-        <v>1.289778131477989e-06</v>
+        <v>1.241025268063088e-06</v>
       </c>
     </row>
     <row r="358">
@@ -4302,7 +4302,7 @@
         <v>4.081499180972508</v>
       </c>
       <c r="C358" t="n">
-        <v>1.391203885357321e-06</v>
+        <v>1.344841681226717e-06</v>
       </c>
     </row>
     <row r="359">
@@ -4313,7 +4313,7 @@
         <v>4.082416388455373</v>
       </c>
       <c r="C359" t="n">
-        <v>1.50283712070664e-06</v>
+        <v>1.459335218920007e-06</v>
       </c>
     </row>
     <row r="360">
@@ -4324,7 +4324,7 @@
         <v>4.083333595938238</v>
       </c>
       <c r="C360" t="n">
-        <v>1.625199132710333e-06</v>
+        <v>1.585056481238548e-06</v>
       </c>
     </row>
     <row r="361">
@@ -4335,7 +4335,7 @@
         <v>4.084250803421103</v>
       </c>
       <c r="C361" t="n">
-        <v>1.758811216552787e-06</v>
+        <v>1.722556068277931e-06</v>
       </c>
     </row>
     <row r="362">
@@ -4346,7 +4346,7 @@
         <v>4.085168010903968</v>
       </c>
       <c r="C362" t="n">
-        <v>1.904190671628547e-06</v>
+        <v>1.872380384308459e-06</v>
       </c>
     </row>
     <row r="363">
@@ -4357,7 +4357,7 @@
         <v>4.086085218386833</v>
       </c>
       <c r="C363" t="n">
-        <v>2.060811154538984e-06</v>
+        <v>2.03397994442938e-06</v>
       </c>
     </row>
     <row r="364">
@@ -4368,7 +4368,7 @@
         <v>4.087002425869698</v>
       </c>
       <c r="C364" t="n">
-        <v>2.225712983059024e-06</v>
+        <v>2.204250108195464e-06</v>
       </c>
     </row>
     <row r="365">
@@ -4379,7 +4379,7 @@
         <v>4.087919633352563</v>
       </c>
       <c r="C365" t="n">
-        <v>2.395590343064308e-06</v>
+        <v>2.379722775362147e-06</v>
       </c>
     </row>
     <row r="366">
@@ -4390,7 +4390,7 @@
         <v>4.088836840835428</v>
       </c>
       <c r="C366" t="n">
-        <v>2.567137420430483e-06</v>
+        <v>2.556929845684871e-06</v>
       </c>
     </row>
     <row r="367">
@@ -4401,7 +4401,7 @@
         <v>4.089754048318293</v>
       </c>
       <c r="C367" t="n">
-        <v>2.73704840103319e-06</v>
+        <v>2.732403218919072e-06</v>
       </c>
     </row>
     <row r="368">
@@ -4412,7 +4412,7 @@
         <v>4.090671255801158</v>
       </c>
       <c r="C368" t="n">
-        <v>2.902017470748072e-06</v>
+        <v>2.902674794820188e-06</v>
       </c>
     </row>
     <row r="369">
@@ -4423,7 +4423,7 @@
         <v>4.091588463284022</v>
       </c>
       <c r="C369" t="n">
-        <v>3.058738815450773e-06</v>
+        <v>3.064276473143657e-06</v>
       </c>
     </row>
     <row r="370">
@@ -4434,7 +4434,7 @@
         <v>4.092505670766887</v>
       </c>
       <c r="C370" t="n">
-        <v>3.203906621016937e-06</v>
+        <v>3.213740153644918e-06</v>
       </c>
     </row>
     <row r="371">
@@ -4445,7 +4445,7 @@
         <v>4.093422878249752</v>
       </c>
       <c r="C371" t="n">
-        <v>3.334215073322206e-06</v>
+        <v>3.347597736079409e-06</v>
       </c>
     </row>
     <row r="372">
@@ -4456,7 +4456,7 @@
         <v>4.094340085732617</v>
       </c>
       <c r="C372" t="n">
-        <v>3.446358358242225e-06</v>
+        <v>3.462381120202567e-06</v>
       </c>
     </row>
     <row r="373">
@@ -4467,7 +4467,7 @@
         <v>4.095257293215482</v>
       </c>
       <c r="C373" t="n">
-        <v>3.537030661652636e-06</v>
+        <v>3.554622205769832e-06</v>
       </c>
     </row>
     <row r="374">
@@ -4478,7 +4478,7 @@
         <v>4.096174500698347</v>
       </c>
       <c r="C374" t="n">
-        <v>3.602926169429082e-06</v>
+        <v>3.620852892536639e-06</v>
       </c>
     </row>
     <row r="375">
@@ -4489,7 +4489,7 @@
         <v>4.097091708181212</v>
       </c>
       <c r="C375" t="n">
-        <v>3.640739067447208e-06</v>
+        <v>3.657605080258429e-06</v>
       </c>
     </row>
     <row r="376">
@@ -4500,7 +4500,7 @@
         <v>4.098008915664077</v>
       </c>
       <c r="C376" t="n">
-        <v>3.647223886741365e-06</v>
+        <v>3.66147473431193e-06</v>
       </c>
     </row>
     <row r="377">
@@ -4511,7 +4511,7 @@
         <v>4.098926123146942</v>
       </c>
       <c r="C377" t="n">
-        <v>3.622227335229244e-06</v>
+        <v>3.632340639067347e-06</v>
       </c>
     </row>
     <row r="378">
@@ -4522,7 +4522,7 @@
         <v>4.099843330629807</v>
       </c>
       <c r="C378" t="n">
-        <v>3.570107528102089e-06</v>
+        <v>3.574871128148913e-06</v>
       </c>
     </row>
     <row r="379">
@@ -4533,7 +4533,7 @@
         <v>4.100760538112672</v>
       </c>
       <c r="C379" t="n">
-        <v>3.495579529113528e-06</v>
+        <v>3.494113490707826e-06</v>
       </c>
     </row>
     <row r="380">
@@ -4544,7 +4544,7 @@
         <v>4.101677745595537</v>
       </c>
       <c r="C380" t="n">
-        <v>3.403358402017191e-06</v>
+        <v>3.395115015895287e-06</v>
       </c>
     </row>
     <row r="381">
@@ -4555,7 +4555,7 @@
         <v>4.102594953078402</v>
       </c>
       <c r="C381" t="n">
-        <v>3.298159210566711e-06</v>
+        <v>3.282922992862494e-06</v>
       </c>
     </row>
     <row r="382">
@@ -4566,7 +4566,7 @@
         <v>4.103512160561267</v>
       </c>
       <c r="C382" t="n">
-        <v>3.184697018515716e-06</v>
+        <v>3.162584710760648e-06</v>
       </c>
     </row>
     <row r="383">
@@ -4577,7 +4577,7 @@
         <v>4.104429368044132</v>
       </c>
       <c r="C383" t="n">
-        <v>3.067686889617838e-06</v>
+        <v>3.039147458740947e-06</v>
       </c>
     </row>
     <row r="384">
@@ -4588,7 +4588,7 @@
         <v>4.105346575526997</v>
       </c>
       <c r="C384" t="n">
-        <v>2.951843887626706e-06</v>
+        <v>2.917658525954593e-06</v>
       </c>
     </row>
     <row r="385">
@@ -4599,7 +4599,7 @@
         <v>4.106263783009862</v>
       </c>
       <c r="C385" t="n">
-        <v>2.841883076295952e-06</v>
+        <v>2.803165201552784e-06</v>
       </c>
     </row>
     <row r="386">
@@ -4610,7 +4610,7 @@
         <v>4.107180990492727</v>
       </c>
       <c r="C386" t="n">
-        <v>2.742002272627044e-06</v>
+        <v>2.700154259298388e-06</v>
       </c>
     </row>
     <row r="387">
@@ -4621,7 +4621,7 @@
         <v>4.108098197975592</v>
       </c>
       <c r="C387" t="n">
-        <v>2.652877539206126e-06</v>
+        <v>2.609296117345536e-06</v>
       </c>
     </row>
     <row r="388">
@@ -4632,7 +4632,7 @@
         <v>4.109015405458456</v>
       </c>
       <c r="C388" t="n">
-        <v>2.573717026407138e-06</v>
+        <v>2.529670488096753e-06</v>
       </c>
     </row>
     <row r="389">
@@ -4643,7 +4643,7 @@
         <v>4.109932612941321</v>
       </c>
       <c r="C389" t="n">
-        <v>2.503724024989882e-06</v>
+        <v>2.460351817824831e-06</v>
       </c>
     </row>
     <row r="390">
@@ -4654,7 +4654,7 @@
         <v>4.110849820424186</v>
       </c>
       <c r="C390" t="n">
-        <v>2.442101825714162e-06</v>
+        <v>2.400414552802556e-06</v>
       </c>
     </row>
     <row r="391">
@@ -4665,7 +4665,7 @@
         <v>4.111767027907051</v>
       </c>
       <c r="C391" t="n">
-        <v>2.388053719339782e-06</v>
+        <v>2.348933139302718e-06</v>
       </c>
     </row>
     <row r="392">
@@ -4676,7 +4676,7 @@
         <v>4.112684235389915</v>
       </c>
       <c r="C392" t="n">
-        <v>2.340782996626589e-06</v>
+        <v>2.304982023598145e-06</v>
       </c>
     </row>
     <row r="393">
@@ -4687,7 +4687,7 @@
         <v>4.11360144287278</v>
       </c>
       <c r="C393" t="n">
-        <v>2.299492948334296e-06</v>
+        <v>2.267635651961542e-06</v>
       </c>
     </row>
     <row r="394">
@@ -4698,7 +4698,7 @@
         <v>4.114518650355645</v>
       </c>
       <c r="C394" t="n">
-        <v>2.263386865222753e-06</v>
+        <v>2.23596847066574e-06</v>
       </c>
     </row>
     <row r="395">
@@ -4709,7 +4709,7 @@
         <v>4.11543585783851</v>
       </c>
       <c r="C395" t="n">
-        <v>2.231668038051767e-06</v>
+        <v>2.209054925983534e-06</v>
       </c>
     </row>
     <row r="396">
@@ -4720,7 +4720,7 @@
         <v>4.116353065321375</v>
       </c>
       <c r="C396" t="n">
-        <v>2.203539757581142e-06</v>
+        <v>2.185969464187708e-06</v>
       </c>
     </row>
     <row r="397">
@@ -4731,7 +4731,7 @@
         <v>4.11727027280424</v>
       </c>
       <c r="C397" t="n">
-        <v>2.178205314570678e-06</v>
+        <v>2.165786531551052e-06</v>
       </c>
     </row>
     <row r="398">
@@ -4742,7 +4742,7 @@
         <v>4.118187480287105</v>
       </c>
       <c r="C398" t="n">
-        <v>2.154867999780182e-06</v>
+        <v>2.147580574346354e-06</v>
       </c>
     </row>
     <row r="399">
@@ -4753,7 +4753,7 @@
         <v>4.11910468776997</v>
       </c>
       <c r="C399" t="n">
-        <v>2.132731103969458e-06</v>
+        <v>2.130426038846405e-06</v>
       </c>
     </row>
     <row r="400">
@@ -4764,7 +4764,7 @@
         <v>4.120021895252835</v>
       </c>
       <c r="C400" t="n">
-        <v>2.110997917898307e-06</v>
+        <v>2.113397371323992e-06</v>
       </c>
     </row>
     <row r="401">
@@ -4775,7 +4775,7 @@
         <v>4.1209391027357</v>
       </c>
       <c r="C401" t="n">
-        <v>2.088871732326535e-06</v>
+        <v>2.095569018051904e-06</v>
       </c>
     </row>
     <row r="402">
@@ -4786,7 +4786,7 @@
         <v>4.121856310218565</v>
       </c>
       <c r="C402" t="n">
-        <v>2.065555838013945e-06</v>
+        <v>2.07601542530293e-06</v>
       </c>
     </row>
     <row r="403">
@@ -4797,7 +4797,7 @@
         <v>4.12277351770143</v>
       </c>
       <c r="C403" t="n">
-        <v>2.040253525720341e-06</v>
+        <v>2.053811039349858e-06</v>
       </c>
     </row>
     <row r="404">
@@ -4808,7 +4808,7 @@
         <v>4.123690725184295</v>
       </c>
       <c r="C404" t="n">
-        <v>2.012185376438945e-06</v>
+        <v>2.02804962529784e-06</v>
       </c>
     </row>
     <row r="405">
@@ -4819,7 +4819,7 @@
         <v>4.12460793266716</v>
       </c>
       <c r="C405" t="n">
-        <v>1.981173753094338e-06</v>
+        <v>1.998497335024976e-06</v>
       </c>
     </row>
     <row r="406">
@@ -4830,7 +4830,7 @@
         <v>4.125525140150025</v>
       </c>
       <c r="C406" t="n">
-        <v>1.947784315883899e-06</v>
+        <v>1.965750825993773e-06</v>
       </c>
     </row>
     <row r="407">
@@ -4841,7 +4841,7 @@
         <v>4.12644234763289</v>
       </c>
       <c r="C407" t="n">
-        <v>1.912628714654556e-06</v>
+        <v>1.930458141111271e-06</v>
       </c>
     </row>
     <row r="408">
@@ -4852,7 +4852,7 @@
         <v>4.127359555115754</v>
       </c>
       <c r="C408" t="n">
-        <v>1.876318599253239e-06</v>
+        <v>1.893267323284506e-06</v>
       </c>
     </row>
     <row r="409">
@@ -4863,7 +4863,7 @@
         <v>4.128276762598619</v>
       </c>
       <c r="C409" t="n">
-        <v>1.839465619526879e-06</v>
+        <v>1.854826415420516e-06</v>
       </c>
     </row>
     <row r="410">
@@ -4874,7 +4874,7 @@
         <v>4.129193970081484</v>
       </c>
       <c r="C410" t="n">
-        <v>1.802681425322405e-06</v>
+        <v>1.81578346042634e-06</v>
       </c>
     </row>
     <row r="411">
@@ -4885,7 +4885,7 @@
         <v>4.130111177564349</v>
       </c>
       <c r="C411" t="n">
-        <v>1.766577666486747e-06</v>
+        <v>1.776786501209014e-06</v>
       </c>
     </row>
     <row r="412">
@@ -4896,7 +4896,7 @@
         <v>4.131028385047214</v>
       </c>
       <c r="C412" t="n">
-        <v>1.731765992866835e-06</v>
+        <v>1.738483580675577e-06</v>
       </c>
     </row>
     <row r="413">
@@ -4907,7 +4907,7 @@
         <v>4.131945592530079</v>
       </c>
       <c r="C413" t="n">
-        <v>1.698858054309599e-06</v>
+        <v>1.701522741733066e-06</v>
       </c>
     </row>
     <row r="414">
@@ -4918,7 +4918,7 @@
         <v>4.132862800012944</v>
       </c>
       <c r="C414" t="n">
-        <v>1.668465500661968e-06</v>
+        <v>1.666552027288518e-06</v>
       </c>
     </row>
     <row r="415">
@@ -4929,7 +4929,7 @@
         <v>4.133780007495809</v>
       </c>
       <c r="C415" t="n">
-        <v>1.641199981770873e-06</v>
+        <v>1.634219480248973e-06</v>
       </c>
     </row>
     <row r="416">
@@ -4940,7 +4940,7 @@
         <v>4.134697214978674</v>
       </c>
       <c r="C416" t="n">
-        <v>1.617549975249927e-06</v>
+        <v>1.605065575903115e-06</v>
       </c>
     </row>
     <row r="417">
@@ -4951,7 +4951,7 @@
         <v>4.135614422461539</v>
       </c>
       <c r="C417" t="n">
-        <v>1.597389799002684e-06</v>
+        <v>1.57909443734791e-06</v>
       </c>
     </row>
     <row r="418">
@@ -4962,7 +4962,7 @@
         <v>4.136531629944404</v>
       </c>
       <c r="C418" t="n">
-        <v>1.580402728804165e-06</v>
+        <v>1.556143348562301e-06</v>
       </c>
     </row>
     <row r="419">
@@ -4973,7 +4973,7 @@
         <v>4.137448837427269</v>
       </c>
       <c r="C419" t="n">
-        <v>1.56627197965668e-06</v>
+        <v>1.536049540451779e-06</v>
       </c>
     </row>
     <row r="420">
@@ -4984,7 +4984,7 @@
         <v>4.138366044910134</v>
       </c>
       <c r="C420" t="n">
-        <v>1.554680766562538e-06</v>
+        <v>1.518650243921834e-06</v>
       </c>
     </row>
     <row r="421">
@@ -4995,7 +4995,7 @@
         <v>4.139283252392999</v>
       </c>
       <c r="C421" t="n">
-        <v>1.545312304524048e-06</v>
+        <v>1.503782689877955e-06</v>
       </c>
     </row>
     <row r="422">
@@ -5006,7 +5006,7 @@
         <v>4.140200459875864</v>
       </c>
       <c r="C422" t="n">
-        <v>1.53784980854352e-06</v>
+        <v>1.491284109225632e-06</v>
       </c>
     </row>
     <row r="423">
@@ -5017,7 +5017,7 @@
         <v>4.141117667358729</v>
       </c>
       <c r="C423" t="n">
-        <v>1.531983973532519e-06</v>
+        <v>1.480994137548348e-06</v>
       </c>
     </row>
     <row r="424">
@@ -5028,7 +5028,7 @@
         <v>4.142034874841594</v>
       </c>
       <c r="C424" t="n">
-        <v>1.52754570807198e-06</v>
+        <v>1.472797487009192e-06</v>
       </c>
     </row>
     <row r="425">
@@ -5039,7 +5039,7 @@
         <v>4.142952082324459</v>
       </c>
       <c r="C425" t="n">
-        <v>1.524490447380288e-06</v>
+        <v>1.466618903206731e-06</v>
       </c>
     </row>
     <row r="426">
@@ -5050,7 +5050,7 @@
         <v>4.143869289807323</v>
       </c>
       <c r="C426" t="n">
-        <v>1.522777955327022e-06</v>
+        <v>1.462384523335592e-06</v>
       </c>
     </row>
     <row r="427">
@@ -5061,7 +5061,7 @@
         <v>4.144786497290188</v>
       </c>
       <c r="C427" t="n">
-        <v>1.522367995781757e-06</v>
+        <v>1.460020484590405e-06</v>
       </c>
     </row>
     <row r="428">
@@ -5072,7 +5072,7 @@
         <v>4.145703704773053</v>
       </c>
       <c r="C428" t="n">
-        <v>1.523220332614071e-06</v>
+        <v>1.459452924165797e-06</v>
       </c>
     </row>
     <row r="429">
@@ -5083,7 +5083,7 @@
         <v>4.146620912255917</v>
       </c>
       <c r="C429" t="n">
-        <v>1.525294729693538e-06</v>
+        <v>1.460607979256394e-06</v>
       </c>
     </row>
     <row r="430">
@@ -5094,7 +5094,7 @@
         <v>4.147538119738782</v>
       </c>
       <c r="C430" t="n">
-        <v>1.528550950889738e-06</v>
+        <v>1.463411787056829e-06</v>
       </c>
     </row>
     <row r="431">
@@ -5105,7 +5105,7 @@
         <v>4.148455327221647</v>
       </c>
       <c r="C431" t="n">
-        <v>1.532948760072248e-06</v>
+        <v>1.467790484761728e-06</v>
       </c>
     </row>
     <row r="432">
@@ -5116,7 +5116,7 @@
         <v>4.149372534704512</v>
       </c>
       <c r="C432" t="n">
-        <v>1.538447921110644e-06</v>
+        <v>1.47367020956572e-06</v>
       </c>
     </row>
     <row r="433">
@@ -5127,7 +5127,7 @@
         <v>4.150289742187377</v>
       </c>
       <c r="C433" t="n">
-        <v>1.545008197874503e-06</v>
+        <v>1.480977098663433e-06</v>
       </c>
     </row>
     <row r="434">
@@ -5138,7 +5138,7 @@
         <v>4.151206949670242</v>
       </c>
       <c r="C434" t="n">
-        <v>1.552589354233402e-06</v>
+        <v>1.489637289249496e-06</v>
       </c>
     </row>
     <row r="435">
@@ -5149,7 +5149,7 @@
         <v>4.152124157153107</v>
       </c>
       <c r="C435" t="n">
-        <v>1.561151154056918e-06</v>
+        <v>1.499576918518536e-06</v>
       </c>
     </row>
     <row r="436">
@@ -5160,7 +5160,7 @@
         <v>4.153041364635972</v>
       </c>
       <c r="C436" t="n">
-        <v>1.570653361214628e-06</v>
+        <v>1.510722123665182e-06</v>
       </c>
     </row>
     <row r="437">
@@ -5171,7 +5171,7 @@
         <v>4.153958572118837</v>
       </c>
       <c r="C437" t="n">
-        <v>1.581055739576109e-06</v>
+        <v>1.522999041884063e-06</v>
       </c>
     </row>
     <row r="438">
@@ -5182,7 +5182,7 @@
         <v>4.154875779601702</v>
       </c>
       <c r="C438" t="n">
-        <v>1.592318053010936e-06</v>
+        <v>1.536333810369807e-06</v>
       </c>
     </row>
     <row r="439">
@@ -5193,7 +5193,7 @@
         <v>4.155792987084567</v>
       </c>
       <c r="C439" t="n">
-        <v>1.604400065388688e-06</v>
+        <v>1.550652566317042e-06</v>
       </c>
     </row>
     <row r="440">
@@ -5204,7 +5204,7 @@
         <v>4.156710194567432</v>
       </c>
       <c r="C440" t="n">
-        <v>1.617261540578942e-06</v>
+        <v>1.565881446920396e-06</v>
       </c>
     </row>
     <row r="441">
@@ -5215,7 +5215,7 @@
         <v>4.157627402050297</v>
       </c>
       <c r="C441" t="n">
-        <v>1.630862242451274e-06</v>
+        <v>1.581946589374498e-06</v>
       </c>
     </row>
     <row r="442">
@@ -5226,7 +5226,7 @@
         <v>4.158544609533162</v>
       </c>
       <c r="C442" t="n">
-        <v>1.645161934875261e-06</v>
+        <v>1.598774130873976e-06</v>
       </c>
     </row>
     <row r="443">
@@ -5237,7 +5237,7 @@
         <v>4.159461817016027</v>
       </c>
       <c r="C443" t="n">
-        <v>1.660120381720479e-06</v>
+        <v>1.616290208613458e-06</v>
       </c>
     </row>
     <row r="444">
@@ -5248,7 +5248,7 @@
         <v>4.160379024498892</v>
       </c>
       <c r="C444" t="n">
-        <v>1.675697346856507e-06</v>
+        <v>1.634420959787574e-06</v>
       </c>
     </row>
     <row r="445">
@@ -5259,7 +5259,7 @@
         <v>4.161296231981757</v>
       </c>
       <c r="C445" t="n">
-        <v>1.691852594152921e-06</v>
+        <v>1.65309252159095e-06</v>
       </c>
     </row>
     <row r="446">
@@ -5270,7 +5270,7 @@
         <v>4.162213439464622</v>
       </c>
       <c r="C446" t="n">
-        <v>1.708545887479297e-06</v>
+        <v>1.672231031218215e-06</v>
       </c>
     </row>
     <row r="447">
@@ -5281,7 +5281,7 @@
         <v>4.163130646947486</v>
       </c>
       <c r="C447" t="n">
-        <v>1.725736990705212e-06</v>
+        <v>1.691762625863998e-06</v>
       </c>
     </row>
     <row r="448">
@@ -5292,7 +5292,7 @@
         <v>4.164047854430351</v>
       </c>
       <c r="C448" t="n">
-        <v>1.743385667700245e-06</v>
+        <v>1.711613442722927e-06</v>
       </c>
     </row>
     <row r="449">
@@ -5303,7 +5303,7 @@
         <v>4.164965061913216</v>
       </c>
       <c r="C449" t="n">
-        <v>1.76145168233397e-06</v>
+        <v>1.731709618989631e-06</v>
       </c>
     </row>
     <row r="450">
@@ -5314,7 +5314,7 @@
         <v>4.165882269396081</v>
       </c>
       <c r="C450" t="n">
-        <v>1.779894798475966e-06</v>
+        <v>1.751977291858737e-06</v>
       </c>
     </row>
     <row r="451">
@@ -5325,7 +5325,7 @@
         <v>4.166799476878946</v>
       </c>
       <c r="C451" t="n">
-        <v>1.798681017164385e-06</v>
+        <v>1.772350679362018e-06</v>
       </c>
     </row>
     <row r="452">
@@ -5336,7 +5336,7 @@
         <v>4.167716684361811</v>
       </c>
       <c r="C452" t="n">
-        <v>1.817866564816474e-06</v>
+        <v>1.792880894975971e-06</v>
       </c>
     </row>
     <row r="453">
@@ -5347,7 +5347,7 @@
         <v>4.168633891844676</v>
       </c>
       <c r="C453" t="n">
-        <v>1.837575570852125e-06</v>
+        <v>1.813707026888567e-06</v>
       </c>
     </row>
     <row r="454">
@@ -5358,7 +5358,7 @@
         <v>4.169551099327541</v>
       </c>
       <c r="C454" t="n">
-        <v>1.8579338240162e-06</v>
+        <v>1.834970313098971e-06</v>
       </c>
     </row>
     <row r="455">
@@ -5369,7 +5369,7 @@
         <v>4.170468306810406</v>
       </c>
       <c r="C455" t="n">
-        <v>1.879067113053568e-06</v>
+        <v>1.856811991606356e-06</v>
       </c>
     </row>
     <row r="456">
@@ -5380,7 +5380,7 @@
         <v>4.171385514293271</v>
       </c>
       <c r="C456" t="n">
-        <v>1.901101226709089e-06</v>
+        <v>1.879373300409887e-06</v>
       </c>
     </row>
     <row r="457">
@@ -5391,7 +5391,7 @@
         <v>4.172302721776136</v>
       </c>
       <c r="C457" t="n">
-        <v>1.924161953727629e-06</v>
+        <v>1.902795477508735e-06</v>
       </c>
     </row>
     <row r="458">
@@ -5402,7 +5402,7 @@
         <v>4.173219929259001</v>
       </c>
       <c r="C458" t="n">
-        <v>1.948375082854053e-06</v>
+        <v>1.927219760902067e-06</v>
       </c>
     </row>
     <row r="459">
@@ -5413,7 +5413,7 @@
         <v>4.174137136741866</v>
       </c>
       <c r="C459" t="n">
-        <v>1.973866402833224e-06</v>
+        <v>1.952787388589052e-06</v>
       </c>
     </row>
     <row r="460">
@@ -5424,7 +5424,7 @@
         <v>4.175054344224731</v>
       </c>
       <c r="C460" t="n">
-        <v>2.000761702410007e-06</v>
+        <v>1.97963959856886e-06</v>
       </c>
     </row>
     <row r="461">
@@ -5435,7 +5435,7 @@
         <v>4.175971551707596</v>
       </c>
       <c r="C461" t="n">
-        <v>2.029186770329268e-06</v>
+        <v>2.007917628840658e-06</v>
       </c>
     </row>
     <row r="462">
@@ -5446,7 +5446,7 @@
         <v>4.176888759190461</v>
       </c>
       <c r="C462" t="n">
-        <v>2.059267395335868e-06</v>
+        <v>2.037762717403615e-06</v>
       </c>
     </row>
     <row r="463">
@@ -5457,7 +5457,7 @@
         <v>4.177805966673326</v>
       </c>
       <c r="C463" t="n">
-        <v>2.091129366174672e-06</v>
+        <v>2.0693161022569e-06</v>
       </c>
     </row>
     <row r="464">
@@ -5468,7 +5468,7 @@
         <v>4.178723174156191</v>
       </c>
       <c r="C464" t="n">
-        <v>2.124898471590547e-06</v>
+        <v>2.102719021399681e-06</v>
       </c>
     </row>
     <row r="465">
@@ -5479,7 +5479,7 @@
         <v>4.179640381639055</v>
       </c>
       <c r="C465" t="n">
-        <v>2.160700500328354e-06</v>
+        <v>2.138112712831128e-06</v>
       </c>
     </row>
     <row r="466">
@@ -5490,7 +5490,7 @@
         <v>4.18055758912192</v>
       </c>
       <c r="C466" t="n">
-        <v>2.198661241132922e-06</v>
+        <v>2.17563841455037e-06</v>
       </c>
     </row>
     <row r="467">
@@ -5501,7 +5501,7 @@
         <v>4.181474796604784</v>
       </c>
       <c r="C467" t="n">
-        <v>2.238906482749188e-06</v>
+        <v>2.21543736455665e-06</v>
       </c>
     </row>
     <row r="468">
@@ -5512,7 +5512,7 @@
         <v>4.182392004087649</v>
       </c>
       <c r="C468" t="n">
-        <v>2.28156201392198e-06</v>
+        <v>2.257650800849101e-06</v>
       </c>
     </row>
     <row r="469">
@@ -5523,7 +5523,7 @@
         <v>4.183309211570514</v>
       </c>
       <c r="C469" t="n">
-        <v>2.326753623396162e-06</v>
+        <v>2.302419961426892e-06</v>
       </c>
     </row>
     <row r="470">
@@ -5534,7 +5534,7 @@
         <v>4.184226419053379</v>
       </c>
       <c r="C470" t="n">
-        <v>2.3746070999166e-06</v>
+        <v>2.34988608428919e-06</v>
       </c>
     </row>
     <row r="471">
@@ -5545,7 +5545,7 @@
         <v>4.185143626536244</v>
       </c>
       <c r="C471" t="n">
-        <v>2.425248232228157e-06</v>
+        <v>2.400190407435164e-06</v>
       </c>
     </row>
     <row r="472">
@@ -5556,7 +5556,7 @@
         <v>4.186060834019109</v>
       </c>
       <c r="C472" t="n">
-        <v>2.478802809075698e-06</v>
+        <v>2.453474168863985e-06</v>
       </c>
     </row>
     <row r="473">
@@ -5567,7 +5567,7 @@
         <v>4.186978041501974</v>
       </c>
       <c r="C473" t="n">
-        <v>2.535396619204086e-06</v>
+        <v>2.509878606574819e-06</v>
       </c>
     </row>
     <row r="474">
@@ -5578,7 +5578,7 @@
         <v>4.187895248984839</v>
       </c>
       <c r="C474" t="n">
-        <v>2.595155451358187e-06</v>
+        <v>2.569544958566835e-06</v>
       </c>
     </row>
     <row r="475">
@@ -5589,7 +5589,7 @@
         <v>4.188812456467704</v>
       </c>
       <c r="C475" t="n">
-        <v>2.658205094282865e-06</v>
+        <v>2.632614462839203e-06</v>
       </c>
     </row>
     <row r="476">
@@ -5600,7 +5600,7 @@
         <v>4.189729663950569</v>
       </c>
       <c r="C476" t="n">
-        <v>2.724671336722983e-06</v>
+        <v>2.699228357391091e-06</v>
       </c>
     </row>
     <row r="477">
@@ -5611,7 +5611,7 @@
         <v>4.190646871433434</v>
       </c>
       <c r="C477" t="n">
-        <v>2.794679967423407e-06</v>
+        <v>2.769527880221667e-06</v>
       </c>
     </row>
     <row r="478">
@@ -5622,7 +5622,7 @@
         <v>4.191564078916299</v>
       </c>
       <c r="C478" t="n">
-        <v>2.868356775129e-06</v>
+        <v>2.843654269330099e-06</v>
       </c>
     </row>
     <row r="479">
@@ -5633,7 +5633,7 @@
         <v>4.192481286399164</v>
       </c>
       <c r="C479" t="n">
-        <v>2.945827548584627e-06</v>
+        <v>2.921748762715558e-06</v>
       </c>
     </row>
     <row r="480">
@@ -5644,7 +5644,7 @@
         <v>4.193398493882029</v>
       </c>
       <c r="C480" t="n">
-        <v>3.027218076535152e-06</v>
+        <v>3.003952598377211e-06</v>
       </c>
     </row>
     <row r="481">
@@ -5655,7 +5655,7 @@
         <v>4.194315701364894</v>
       </c>
       <c r="C481" t="n">
-        <v>3.112654147725441e-06</v>
+        <v>3.090407014314227e-06</v>
       </c>
     </row>
     <row r="482">
@@ -5666,7 +5666,7 @@
         <v>4.195232908847759</v>
       </c>
       <c r="C482" t="n">
-        <v>3.202261550900356e-06</v>
+        <v>3.181253248525774e-06</v>
       </c>
     </row>
     <row r="483">
@@ -5677,7 +5677,7 @@
         <v>4.196150116330624</v>
       </c>
       <c r="C483" t="n">
-        <v>3.296166074804762e-06</v>
+        <v>3.276632539011022e-06</v>
       </c>
     </row>
     <row r="484">
@@ -5688,7 +5688,7 @@
         <v>4.197067323813489</v>
       </c>
       <c r="C484" t="n">
-        <v>3.394493508183523e-06</v>
+        <v>3.376686123769138e-06</v>
       </c>
     </row>
     <row r="485">
@@ -5699,7 +5699,7 @@
         <v>4.197984531296354</v>
       </c>
       <c r="C485" t="n">
-        <v>3.497369639781504e-06</v>
+        <v>3.481555240799291e-06</v>
       </c>
     </row>
     <row r="486">
@@ -5710,7 +5710,7 @@
         <v>4.198901738779218</v>
       </c>
       <c r="C486" t="n">
-        <v>3.60492025834357e-06</v>
+        <v>3.591381128100651e-06</v>
       </c>
     </row>
     <row r="487">
@@ -5721,7 +5721,7 @@
         <v>4.199818946262083</v>
       </c>
       <c r="C487" t="n">
-        <v>3.717271152614584e-06</v>
+        <v>3.706305023672385e-06</v>
       </c>
     </row>
     <row r="488">
@@ -5732,7 +5732,7 @@
         <v>4.200736153744948</v>
       </c>
       <c r="C488" t="n">
-        <v>3.834547427097409e-06</v>
+        <v>3.826467091884102e-06</v>
       </c>
     </row>
     <row r="489">
@@ -5743,7 +5743,7 @@
         <v>4.201653361227813</v>
       </c>
       <c r="C489" t="n">
-        <v>3.956831598357719e-06</v>
+        <v>3.951940673279507e-06</v>
       </c>
     </row>
     <row r="490">
@@ -5754,7 +5754,7 @@
         <v>4.202570568710678</v>
       </c>
       <c r="C490" t="n">
-        <v>4.084139274513185e-06</v>
+        <v>4.082694123780494e-06</v>
       </c>
     </row>
     <row r="491">
@@ -5765,7 +5765,7 @@
         <v>4.203487776193543</v>
       </c>
       <c r="C491" t="n">
-        <v>4.216480201968063e-06</v>
+        <v>4.218686601819175e-06</v>
       </c>
     </row>
     <row r="492">
@@ -5776,7 +5776,7 @@
         <v>4.204404983676408</v>
       </c>
       <c r="C492" t="n">
-        <v>4.353864127126608e-06</v>
+        <v>4.359877265827665e-06</v>
       </c>
     </row>
     <row r="493">
@@ -5787,7 +5787,7 @@
         <v>4.205322191159273</v>
       </c>
       <c r="C493" t="n">
-        <v>4.496300796393078e-06</v>
+        <v>4.506225274238078e-06</v>
       </c>
     </row>
     <row r="494">
@@ -5798,7 +5798,7 @@
         <v>4.206239398642138</v>
       </c>
       <c r="C494" t="n">
-        <v>4.643799956171726e-06</v>
+        <v>4.657689785482528e-06</v>
       </c>
     </row>
     <row r="495">
@@ -5809,7 +5809,7 @@
         <v>4.207156606125003</v>
       </c>
       <c r="C495" t="n">
-        <v>4.796371352866808e-06</v>
+        <v>4.814229957993128e-06</v>
       </c>
     </row>
     <row r="496">
@@ -5820,7 +5820,7 @@
         <v>4.208073813607868</v>
       </c>
       <c r="C496" t="n">
-        <v>4.954024732882579e-06</v>
+        <v>4.975804950201992e-06</v>
       </c>
     </row>
     <row r="497">
@@ -5831,7 +5831,7 @@
         <v>4.208991021090733</v>
       </c>
       <c r="C497" t="n">
-        <v>5.116769842623296e-06</v>
+        <v>5.142373920541237e-06</v>
       </c>
     </row>
     <row r="498">
@@ -5842,7 +5842,7 @@
         <v>4.209908228573598</v>
       </c>
       <c r="C498" t="n">
-        <v>5.284616428493216e-06</v>
+        <v>5.313896027442976e-06</v>
       </c>
     </row>
     <row r="499">
@@ -5853,7 +5853,7 @@
         <v>4.210825436056463</v>
       </c>
       <c r="C499" t="n">
-        <v>5.45757423689659e-06</v>
+        <v>5.490330429339318e-06</v>
       </c>
     </row>
     <row r="500">
@@ -5864,7 +5864,7 @@
         <v>4.211742643539328</v>
       </c>
       <c r="C500" t="n">
-        <v>5.635653014237675e-06</v>
+        <v>5.671636284662383e-06</v>
       </c>
     </row>
     <row r="501">
@@ -5875,7 +5875,7 @@
         <v>4.212659851022193</v>
       </c>
       <c r="C501" t="n">
-        <v>5.818862506920728e-06</v>
+        <v>5.857772751844283e-06</v>
       </c>
     </row>
     <row r="502">
@@ -5886,7 +5886,7 @@
         <v>4.213577058505058</v>
       </c>
       <c r="C502" t="n">
-        <v>6.007212461350003e-06</v>
+        <v>6.048698989317132e-06</v>
       </c>
     </row>
     <row r="503">
@@ -5897,7 +5897,7 @@
         <v>4.214494265987922</v>
       </c>
       <c r="C503" t="n">
-        <v>6.200712623929566e-06</v>
+        <v>6.244374155512853e-06</v>
       </c>
     </row>
     <row r="504">
@@ -5908,7 +5908,7 @@
         <v>4.215411473470787</v>
       </c>
       <c r="C504" t="n">
-        <v>6.399372741064047e-06</v>
+        <v>6.444757408863937e-06</v>
       </c>
     </row>
     <row r="505">
@@ -5919,7 +5919,7 @@
         <v>4.216328680953652</v>
       </c>
       <c r="C505" t="n">
-        <v>6.603202559157518e-06</v>
+        <v>6.649807907802312e-06</v>
       </c>
     </row>
     <row r="506">
@@ -5930,7 +5930,7 @@
         <v>4.217245888436516</v>
       </c>
       <c r="C506" t="n">
-        <v>6.812211824614232e-06</v>
+        <v>6.859484810760094e-06</v>
       </c>
     </row>
     <row r="507">
@@ -5941,7 +5941,7 @@
         <v>4.218163095919381</v>
       </c>
       <c r="C507" t="n">
-        <v>7.026417691991291e-06</v>
+        <v>7.07375668137302e-06</v>
       </c>
     </row>
     <row r="508">
@@ -5952,7 +5952,7 @@
         <v>4.219080303402246</v>
       </c>
       <c r="C508" t="n">
-        <v>7.246050433586856e-06</v>
+        <v>7.292862652174792e-06</v>
       </c>
     </row>
     <row r="509">
@@ -5963,7 +5963,7 @@
         <v>4.219997510885111</v>
       </c>
       <c r="C509" t="n">
-        <v>7.471580286586051e-06</v>
+        <v>7.517346509055003e-06</v>
       </c>
     </row>
     <row r="510">
@@ -5974,7 +5974,7 @@
         <v>4.220914718367976</v>
       </c>
       <c r="C510" t="n">
-        <v>7.703490289462122e-06</v>
+        <v>7.747768290095123e-06</v>
       </c>
     </row>
     <row r="511">
@@ -5985,7 +5985,7 @@
         <v>4.221831925850841</v>
       </c>
       <c r="C511" t="n">
-        <v>7.942263480688306e-06</v>
+        <v>7.98468803337661e-06</v>
       </c>
     </row>
     <row r="512">
@@ -5996,7 +5996,7 @@
         <v>4.222749133333706</v>
       </c>
       <c r="C512" t="n">
-        <v>8.188382898737861e-06</v>
+        <v>8.22866577698094e-06</v>
       </c>
     </row>
     <row r="513">
@@ -6007,7 +6007,7 @@
         <v>4.223666340816571</v>
       </c>
       <c r="C513" t="n">
-        <v>8.442331582084021e-06</v>
+        <v>8.480261558989569e-06</v>
       </c>
     </row>
     <row r="514">
@@ -6018,7 +6018,7 @@
         <v>4.224583548299436</v>
       </c>
       <c r="C514" t="n">
-        <v>8.704592569200038e-06</v>
+        <v>8.740035417483971e-06</v>
       </c>
     </row>
     <row r="515">
@@ -6029,7 +6029,7 @@
         <v>4.225500755782301</v>
       </c>
       <c r="C515" t="n">
-        <v>8.975648898559148e-06</v>
+        <v>9.008547390545608e-06</v>
       </c>
     </row>
     <row r="516">
@@ -6040,7 +6040,7 @@
         <v>4.226417963265166</v>
       </c>
       <c r="C516" t="n">
-        <v>9.255983608634599e-06</v>
+        <v>9.286357516255945e-06</v>
       </c>
     </row>
     <row r="517">
@@ -6051,7 +6051,7 @@
         <v>4.227335170748031</v>
       </c>
       <c r="C517" t="n">
-        <v>9.546079737899636e-06</v>
+        <v>9.574025832696451e-06</v>
       </c>
     </row>
     <row r="518">
@@ -6062,7 +6062,7 @@
         <v>4.228252378230896</v>
       </c>
       <c r="C518" t="n">
-        <v>9.846420324827502e-06</v>
+        <v>9.872112377948587e-06</v>
       </c>
     </row>
     <row r="519">
@@ -6073,7 +6073,7 @@
         <v>4.229169585713761</v>
       </c>
       <c r="C519" t="n">
-        <v>1.015748840789144e-05</v>
+        <v>1.018117719009382e-05</v>
       </c>
     </row>
     <row r="520">
@@ -6084,7 +6084,7 @@
         <v>4.230086793196626</v>
       </c>
       <c r="C520" t="n">
-        <v>1.047976702556471e-05</v>
+        <v>1.050178030721362e-05</v>
       </c>
     </row>
     <row r="521">
@@ -6095,7 +6095,7 @@
         <v>4.231004000679491</v>
       </c>
       <c r="C521" t="n">
-        <v>1.081373921632053e-05</v>
+        <v>1.083448176738945e-05</v>
       </c>
     </row>
     <row r="522">
@@ -6106,7 +6106,7 @@
         <v>4.231921208162356</v>
       </c>
       <c r="C522" t="n">
-        <v>1.115985656291481e-05</v>
+        <v>1.117980883073452e-05</v>
       </c>
     </row>
     <row r="523">
@@ -6117,7 +6117,7 @@
         <v>4.232838415645221</v>
       </c>
       <c r="C523" t="n">
-        <v>1.151742773222341e-05</v>
+        <v>1.153709779865586e-05</v>
       </c>
     </row>
     <row r="524">
@@ -6128,7 +6128,7 @@
         <v>4.233755623128086</v>
       </c>
       <c r="C524" t="n">
-        <v>1.188432135387793e-05</v>
+        <v>1.190418440290071e-05</v>
       </c>
     </row>
     <row r="525">
@@ -6139,7 +6139,7 @@
         <v>4.23467283061095</v>
       </c>
       <c r="C525" t="n">
-        <v>1.225831418098858e-05</v>
+        <v>1.227880863663664e-05</v>
       </c>
     </row>
     <row r="526">
@@ -6150,7 +6150,7 @@
         <v>4.235590038093815</v>
       </c>
       <c r="C526" t="n">
-        <v>1.263718296666561e-05</v>
+        <v>1.265871049303125e-05</v>
       </c>
     </row>
     <row r="527">
@@ -6161,7 +6161,7 @@
         <v>4.23650724557668</v>
       </c>
       <c r="C527" t="n">
-        <v>1.301870446401922e-05</v>
+        <v>1.304162996525211e-05</v>
       </c>
     </row>
     <row r="528">
@@ -6172,7 +6172,7 @@
         <v>4.237424453059545</v>
       </c>
       <c r="C528" t="n">
-        <v>1.340065542615966e-05</v>
+        <v>1.342530704646681e-05</v>
       </c>
     </row>
     <row r="529">
@@ -6183,7 +6183,7 @@
         <v>4.23834166054241</v>
       </c>
       <c r="C529" t="n">
-        <v>1.378081260619714e-05</v>
+        <v>1.380748172984292e-05</v>
       </c>
     </row>
     <row r="530">
@@ -6194,7 +6194,7 @@
         <v>4.239258868025275</v>
       </c>
       <c r="C530" t="n">
-        <v>1.415695275724189e-05</v>
+        <v>1.418589400854803e-05</v>
       </c>
     </row>
     <row r="531">
@@ -6205,7 +6205,7 @@
         <v>4.24017607550814</v>
       </c>
       <c r="C531" t="n">
-        <v>1.452685263240414e-05</v>
+        <v>1.455828387574973e-05</v>
       </c>
     </row>
     <row r="532">
@@ -6216,7 +6216,7 @@
         <v>4.241093282991005</v>
       </c>
       <c r="C532" t="n">
-        <v>1.48883173746398e-05</v>
+        <v>1.492242078805021e-05</v>
       </c>
     </row>
     <row r="533">
@@ -6227,7 +6227,7 @@
         <v>4.24201049047387</v>
       </c>
       <c r="C533" t="n">
-        <v>1.524016887231375e-05</v>
+        <v>1.527712939665221e-05</v>
       </c>
     </row>
     <row r="534">
@@ -6238,7 +6238,7 @@
         <v>4.242927697956735</v>
       </c>
       <c r="C534" t="n">
-        <v>1.558250161382267e-05</v>
+        <v>1.562255507736703e-05</v>
       </c>
     </row>
     <row r="535">
@@ -6249,7 +6249,7 @@
         <v>4.2438449054396</v>
       </c>
       <c r="C535" t="n">
-        <v>1.591549045783603e-05</v>
+        <v>1.595892661555675e-05</v>
       </c>
     </row>
     <row r="536">
@@ -6260,7 +6260,7 @@
         <v>4.244762112922465</v>
       </c>
       <c r="C536" t="n">
-        <v>1.623931026302329e-05</v>
+        <v>1.628647279658348e-05</v>
       </c>
     </row>
     <row r="537">
@@ -6271,7 +6271,7 @@
         <v>4.24567932040533</v>
       </c>
       <c r="C537" t="n">
-        <v>1.655413588805389e-05</v>
+        <v>1.660542240580932e-05</v>
       </c>
     </row>
     <row r="538">
@@ -6282,7 +6282,7 @@
         <v>4.246596527888195</v>
       </c>
       <c r="C538" t="n">
-        <v>1.686014219159731e-05</v>
+        <v>1.691600422859639e-05</v>
       </c>
     </row>
     <row r="539">
@@ -6293,7 +6293,7 @@
         <v>4.24751373537106</v>
       </c>
       <c r="C539" t="n">
-        <v>1.7157504032323e-05</v>
+        <v>1.721844705030679e-05</v>
       </c>
     </row>
     <row r="540">
@@ -6304,7 +6304,7 @@
         <v>4.248430942853924</v>
       </c>
       <c r="C540" t="n">
-        <v>1.744639626890017e-05</v>
+        <v>1.751297965630236e-05</v>
       </c>
     </row>
     <row r="541">
@@ -6315,7 +6315,7 @@
         <v>4.249348150336789</v>
       </c>
       <c r="C541" t="n">
-        <v>1.772699375999881e-05</v>
+        <v>1.779983083194575e-05</v>
       </c>
     </row>
     <row r="542">
@@ -6326,7 +6326,7 @@
         <v>4.250265357819654</v>
       </c>
       <c r="C542" t="n">
-        <v>1.79994713642881e-05</v>
+        <v>1.807922936259879e-05</v>
       </c>
     </row>
     <row r="543">
@@ -6337,7 +6337,7 @@
         <v>4.251182565302519</v>
       </c>
       <c r="C543" t="n">
-        <v>1.826400394043751e-05</v>
+        <v>1.835140403362359e-05</v>
       </c>
     </row>
     <row r="544">
@@ -6348,7 +6348,7 @@
         <v>4.252099772785384</v>
       </c>
       <c r="C544" t="n">
-        <v>1.85207663471165e-05</v>
+        <v>1.861658363038226e-05</v>
       </c>
     </row>
     <row r="545">
@@ -6359,7 +6359,7 @@
         <v>4.253016980268248</v>
       </c>
       <c r="C545" t="n">
-        <v>1.876963939094455e-05</v>
+        <v>1.887463749078738e-05</v>
       </c>
     </row>
     <row r="546">
@@ -6370,7 +6370,7 @@
         <v>4.253934187751113</v>
       </c>
       <c r="C546" t="n">
-        <v>1.900888369368173e-05</v>
+        <v>1.912345444856711e-05</v>
       </c>
     </row>
     <row r="547">
@@ -6381,7 +6381,7 @@
         <v>4.254851395233978</v>
       </c>
       <c r="C547" t="n">
-        <v>1.923620486510094e-05</v>
+        <v>1.936024489414933e-05</v>
       </c>
     </row>
     <row r="548">
@@ -6392,7 +6392,7 @@
         <v>4.255768602716843</v>
       </c>
       <c r="C548" t="n">
-        <v>1.944930802388372e-05</v>
+        <v>1.95822186176548e-05</v>
       </c>
     </row>
     <row r="549">
@@ -6403,7 +6403,7 @@
         <v>4.256685810199708</v>
       </c>
       <c r="C549" t="n">
-        <v>1.964589828871158e-05</v>
+        <v>1.978658540920428e-05</v>
       </c>
     </row>
     <row r="550">
@@ -6414,7 +6414,7 @@
         <v>4.257603017682573</v>
       </c>
       <c r="C550" t="n">
-        <v>1.982368077826606e-05</v>
+        <v>1.997055505891855e-05</v>
       </c>
     </row>
     <row r="551">
@@ -6425,7 +6425,7 @@
         <v>4.258520225165438</v>
       </c>
       <c r="C551" t="n">
-        <v>1.99803606112287e-05</v>
+        <v>2.013133735691836e-05</v>
       </c>
     </row>
     <row r="552">
@@ -6436,7 +6436,7 @@
         <v>4.259437432648303</v>
       </c>
       <c r="C552" t="n">
-        <v>2.011364290628101e-05</v>
+        <v>2.026614209332447e-05</v>
       </c>
     </row>
     <row r="553">
@@ -6447,7 +6447,7 @@
         <v>4.260354640131168</v>
       </c>
       <c r="C553" t="n">
-        <v>2.022123278210453e-05</v>
+        <v>2.037217905825765e-05</v>
       </c>
     </row>
     <row r="554">
@@ -6458,7 +6458,7 @@
         <v>4.261271847614033</v>
       </c>
       <c r="C554" t="n">
-        <v>2.030083535738079e-05</v>
+        <v>2.044665804183866e-05</v>
       </c>
     </row>
     <row r="555">
@@ -6469,7 +6469,7 @@
         <v>4.262189055096898</v>
       </c>
       <c r="C555" t="n">
-        <v>2.035015570216138e-05</v>
+        <v>2.04867888648177e-05</v>
       </c>
     </row>
     <row r="556">
@@ -6480,7 +6480,7 @@
         <v>4.263106262579763</v>
       </c>
       <c r="C556" t="n">
-        <v>2.036656552822096e-05</v>
+        <v>2.048999131271957e-05</v>
       </c>
     </row>
     <row r="557">
@@ -6491,7 +6491,7 @@
         <v>4.264023470062628</v>
       </c>
       <c r="C557" t="n">
-        <v>2.034630721410814e-05</v>
+        <v>2.045439647843021e-05</v>
       </c>
     </row>
     <row r="558">
@@ -6502,7 +6502,7 @@
         <v>4.264940677545493</v>
       </c>
       <c r="C558" t="n">
-        <v>2.028538421944892e-05</v>
+        <v>2.037828593724805e-05</v>
       </c>
     </row>
     <row r="559">
@@ -6513,7 +6513,7 @@
         <v>4.265857885028358</v>
       </c>
       <c r="C559" t="n">
-        <v>2.017980000386929e-05</v>
+        <v>2.025994126447151e-05</v>
       </c>
     </row>
     <row r="560">
@@ -6524,7 +6524,7 @@
         <v>4.266775092511223</v>
       </c>
       <c r="C560" t="n">
-        <v>2.002555802699524e-05</v>
+        <v>2.009764403539902e-05</v>
       </c>
     </row>
     <row r="561">
@@ -6535,7 +6535,7 @@
         <v>4.267692299994088</v>
       </c>
       <c r="C561" t="n">
-        <v>1.981893372272602e-05</v>
+        <v>1.988987542951439e-05</v>
       </c>
     </row>
     <row r="562">
@@ -6546,7 +6546,7 @@
         <v>4.268609507476953</v>
       </c>
       <c r="C562" t="n">
-        <v>1.956423480965983e-05</v>
+        <v>1.964101158697208e-05</v>
       </c>
     </row>
     <row r="563">
@@ -6557,7 +6557,7 @@
         <v>4.269526714959818</v>
       </c>
       <c r="C563" t="n">
-        <v>1.927493333251693e-05</v>
+        <v>1.936215442323041e-05</v>
       </c>
     </row>
     <row r="564">
@@ -6568,7 +6568,7 @@
         <v>4.270443922442682</v>
       </c>
       <c r="C564" t="n">
-        <v>1.89650009531228e-05</v>
+        <v>1.906477252690438e-05</v>
       </c>
     </row>
     <row r="565">
@@ -6579,7 +6579,7 @@
         <v>4.271361129925547</v>
       </c>
       <c r="C565" t="n">
-        <v>1.864840933330298e-05</v>
+        <v>1.876033448660903e-05</v>
       </c>
     </row>
     <row r="566">
@@ -6590,7 +6590,7 @@
         <v>4.272278337408412</v>
       </c>
       <c r="C566" t="n">
-        <v>1.833730994120626e-05</v>
+        <v>1.845879341291539e-05</v>
       </c>
     </row>
     <row r="567">
@@ -6601,7 +6601,7 @@
         <v>4.273195544891277</v>
       </c>
       <c r="C567" t="n">
-        <v>1.803310006979605e-05</v>
+        <v>1.81611485800072e-05</v>
       </c>
     </row>
     <row r="568">
@@ -6612,7 +6612,7 @@
         <v>4.274112752374142</v>
       </c>
       <c r="C568" t="n">
-        <v>1.773324155553439e-05</v>
+        <v>1.786512263387357e-05</v>
       </c>
     </row>
     <row r="569">
@@ -6623,7 +6623,7 @@
         <v>4.275029959857007</v>
       </c>
       <c r="C569" t="n">
-        <v>1.743519035497108e-05</v>
+        <v>1.756843332493778e-05</v>
       </c>
     </row>
     <row r="570">
@@ -6634,7 +6634,7 @@
         <v>4.275947167339872</v>
       </c>
       <c r="C570" t="n">
-        <v>1.71364024246559e-05</v>
+        <v>1.726879840362316e-05</v>
       </c>
     </row>
     <row r="571">
@@ -6645,7 +6645,7 @@
         <v>4.276864374822737</v>
       </c>
       <c r="C571" t="n">
-        <v>1.683433372113865e-05</v>
+        <v>1.696393562035299e-05</v>
       </c>
     </row>
     <row r="572">
@@ -6656,7 +6656,7 @@
         <v>4.277781582305602</v>
       </c>
       <c r="C572" t="n">
-        <v>1.652644020096913e-05</v>
+        <v>1.665156272555059e-05</v>
       </c>
     </row>
     <row r="573">
@@ -6667,7 +6667,7 @@
         <v>4.278698789788467</v>
       </c>
       <c r="C573" t="n">
-        <v>1.621017782069714e-05</v>
+        <v>1.632939746963926e-05</v>
       </c>
     </row>
     <row r="574">
@@ -6678,7 +6678,7 @@
         <v>4.279615997271332</v>
       </c>
       <c r="C574" t="n">
-        <v>1.588300253687247e-05</v>
+        <v>1.59951576030423e-05</v>
       </c>
     </row>
     <row r="575">
@@ -6689,7 +6689,7 @@
         <v>4.280533204754196</v>
       </c>
       <c r="C575" t="n">
-        <v>1.554237030604525e-05</v>
+        <v>1.564656087618336e-05</v>
       </c>
     </row>
     <row r="576">
@@ -6700,7 +6700,7 @@
         <v>4.281450412237062</v>
       </c>
       <c r="C576" t="n">
-        <v>1.518573708476427e-05</v>
+        <v>1.52813250394847e-05</v>
       </c>
     </row>
     <row r="577">
@@ -6711,7 +6711,7 @@
         <v>4.282367619719926</v>
       </c>
       <c r="C577" t="n">
-        <v>1.481105772059685e-05</v>
+        <v>1.489766384023941e-05</v>
       </c>
     </row>
     <row r="578">
@@ -6722,7 +6722,7 @@
         <v>4.283284827202792</v>
       </c>
       <c r="C578" t="n">
-        <v>1.442059287170805e-05</v>
+        <v>1.449807185763168e-05</v>
       </c>
     </row>
     <row r="579">
@@ -6733,7 +6733,7 @@
         <v>4.284202034685656</v>
       </c>
       <c r="C579" t="n">
-        <v>1.401880490005827e-05</v>
+        <v>1.408723260219991e-05</v>
       </c>
     </row>
     <row r="580">
@@ -6744,7 +6744,7 @@
         <v>4.285119242168521</v>
       </c>
       <c r="C580" t="n">
-        <v>1.361017391093481e-05</v>
+        <v>1.366984722487739e-05</v>
       </c>
     </row>
     <row r="581">
@@ -6755,7 +6755,7 @@
         <v>4.286036449651386</v>
       </c>
       <c r="C581" t="n">
-        <v>1.31991800096265e-05</v>
+        <v>1.325061687659898e-05</v>
       </c>
     </row>
     <row r="582">
@@ -6766,7 +6766,7 @@
         <v>4.286953657134251</v>
       </c>
       <c r="C582" t="n">
-        <v>1.279030330142176e-05</v>
+        <v>1.283424270829912e-05</v>
       </c>
     </row>
     <row r="583">
@@ -6777,7 +6777,7 @@
         <v>4.287870864617116</v>
       </c>
       <c r="C583" t="n">
-        <v>1.238802389160905e-05</v>
+        <v>1.242542587091227e-05</v>
       </c>
     </row>
     <row r="584">
@@ -6788,7 +6788,7 @@
         <v>4.28878807209998</v>
       </c>
       <c r="C584" t="n">
-        <v>1.199682188547679e-05</v>
+        <v>1.20288675153729e-05</v>
       </c>
     </row>
     <row r="585">
@@ -6799,7 +6799,7 @@
         <v>4.289705279582845</v>
       </c>
       <c r="C585" t="n">
-        <v>1.162117738831344e-05</v>
+        <v>1.164926879261546e-05</v>
       </c>
     </row>
     <row r="586">
@@ -6810,7 +6810,7 @@
         <v>4.29062248706571</v>
       </c>
       <c r="C586" t="n">
-        <v>1.126549718512858e-05</v>
+        <v>1.129125199883157e-05</v>
       </c>
     </row>
     <row r="587">
@@ -6821,7 +6821,7 @@
         <v>4.291539694548575</v>
       </c>
       <c r="C587" t="n">
-        <v>1.093148506711338e-05</v>
+        <v>1.095653240522832e-05</v>
       </c>
     </row>
     <row r="588">
@@ -6832,7 +6832,7 @@
         <v>4.29245690203144</v>
       </c>
       <c r="C588" t="n">
-        <v>1.061741647382026e-05</v>
+        <v>1.064313814773285e-05</v>
       </c>
     </row>
     <row r="589">
@@ -6843,7 +6843,7 @@
         <v>4.293374109514305</v>
       </c>
       <c r="C589" t="n">
-        <v>1.032134587820001e-05</v>
+        <v>1.034885971636009e-05</v>
       </c>
     </row>
     <row r="590">
@@ -6854,7 +6854,7 @@
         <v>4.29429131699717</v>
       </c>
       <c r="C590" t="n">
-        <v>1.004132775320343e-05</v>
+        <v>1.007148760112497e-05</v>
       </c>
     </row>
     <row r="591">
@@ -6865,7 +6865,7 @@
         <v>4.295208524480035</v>
       </c>
       <c r="C591" t="n">
-        <v>9.775416571781309e-06</v>
+        <v>9.808812292042423e-06</v>
       </c>
     </row>
     <row r="592">
@@ -6876,7 +6876,7 @@
         <v>4.2961257319629</v>
       </c>
       <c r="C592" t="n">
-        <v>9.521666806884449e-06</v>
+        <v>9.558624279127369e-06</v>
       </c>
     </row>
     <row r="593">
@@ -6887,7 +6887,7 @@
         <v>4.297042939445765</v>
       </c>
       <c r="C593" t="n">
-        <v>9.278132931463641e-06</v>
+        <v>9.318714052394742e-06</v>
       </c>
     </row>
     <row r="594">
@@ -6898,7 +6898,7 @@
         <v>4.29796014692863</v>
       </c>
       <c r="C594" t="n">
-        <v>9.042869418469671e-06</v>
+        <v>9.086872101859457e-06</v>
       </c>
     </row>
     <row r="595">
@@ -6909,7 +6909,7 @@
         <v>4.298877354411495</v>
       </c>
       <c r="C595" t="n">
-        <v>8.813930740853341e-06</v>
+        <v>8.860888917536455e-06</v>
       </c>
     </row>
     <row r="596">
@@ -6920,7 +6920,7 @@
         <v>4.29979456189436</v>
       </c>
       <c r="C596" t="n">
-        <v>8.589371371565441e-06</v>
+        <v>8.638554989440654e-06</v>
       </c>
     </row>
     <row r="597">
@@ -6931,7 +6931,7 @@
         <v>4.300711769377225</v>
       </c>
       <c r="C597" t="n">
-        <v>8.367245783556766e-06</v>
+        <v>8.417660807586987e-06</v>
       </c>
     </row>
     <row r="598">
@@ -6942,7 +6942,7 @@
         <v>4.30162897686009</v>
       </c>
       <c r="C598" t="n">
-        <v>8.145608449778106e-06</v>
+        <v>8.195996861990377e-06</v>
       </c>
     </row>
     <row r="599">
@@ -6953,7 +6953,7 @@
         <v>4.302546184342955</v>
       </c>
       <c r="C599" t="n">
-        <v>7.92251384318026e-06</v>
+        <v>7.971353642665757e-06</v>
       </c>
     </row>
     <row r="600">
@@ -6964,7 +6964,7 @@
         <v>4.30346339182582</v>
       </c>
       <c r="C600" t="n">
-        <v>7.696018841046767e-06</v>
+        <v>7.741524315427439e-06</v>
       </c>
     </row>
     <row r="601">
@@ -6975,7 +6975,7 @@
         <v>4.304380599308685</v>
       </c>
       <c r="C601" t="n">
-        <v>7.466433642075332e-06</v>
+        <v>7.506809783870975e-06</v>
       </c>
     </row>
     <row r="602">
@@ -6986,7 +6986,7 @@
         <v>4.305297806791549</v>
       </c>
       <c r="C602" t="n">
-        <v>7.240502650971198e-06</v>
+        <v>7.274671626227946e-06</v>
       </c>
     </row>
     <row r="603">
@@ -6997,7 +6997,7 @@
         <v>4.306215014274414</v>
       </c>
       <c r="C603" t="n">
-        <v>7.026111253352519e-06</v>
+        <v>7.053841226681718e-06</v>
       </c>
     </row>
     <row r="604">
@@ -7008,7 +7008,7 @@
         <v>4.307132221757279</v>
       </c>
       <c r="C604" t="n">
-        <v>6.831144834837445e-06</v>
+        <v>6.85304996941565e-06</v>
       </c>
     </row>
     <row r="605">
@@ -7019,7 +7019,7 @@
         <v>4.308049429240144</v>
       </c>
       <c r="C605" t="n">
-        <v>6.663488781044129e-06</v>
+        <v>6.681029238613099e-06</v>
       </c>
     </row>
     <row r="606">
@@ -7030,7 +7030,7 @@
         <v>4.308966636723009</v>
       </c>
       <c r="C606" t="n">
-        <v>6.531028477590725e-06</v>
+        <v>6.546510418457429e-06</v>
       </c>
     </row>
     <row r="607">
@@ -7041,7 +7041,7 @@
         <v>4.309883844205874</v>
       </c>
       <c r="C607" t="n">
-        <v>6.441649310095382e-06</v>
+        <v>6.458224893132001e-06</v>
       </c>
     </row>
     <row r="608">
@@ -7052,7 +7052,7 @@
         <v>4.310801051688739</v>
       </c>
       <c r="C608" t="n">
-        <v>6.396932207693261e-06</v>
+        <v>6.417959504051562e-06</v>
       </c>
     </row>
     <row r="609">
@@ -7063,7 +7063,7 @@
         <v>4.311718259171604</v>
       </c>
       <c r="C609" t="n">
-        <v>6.36629278966614e-06</v>
+        <v>6.392070065302042e-06</v>
       </c>
     </row>
     <row r="610">
@@ -7074,7 +7074,7 @@
         <v>4.312635466654469</v>
       </c>
       <c r="C610" t="n">
-        <v>6.316548493548688e-06</v>
+        <v>6.344011456006103e-06</v>
       </c>
     </row>
     <row r="611">
@@ -7085,7 +7085,7 @@
         <v>4.313552674137334</v>
       </c>
       <c r="C611" t="n">
-        <v>6.249248230391054e-06</v>
+        <v>6.275318993466675e-06</v>
       </c>
     </row>
     <row r="612">
@@ -7096,7 +7096,7 @@
         <v>4.314469881620198</v>
       </c>
       <c r="C612" t="n">
-        <v>6.175815899356548e-06</v>
+        <v>6.198355180021115e-06</v>
       </c>
     </row>
     <row r="613">
@@ -7107,7 +7107,7 @@
         <v>4.315387089103064</v>
       </c>
       <c r="C613" t="n">
-        <v>6.107676088505308e-06</v>
+        <v>6.125483273330579e-06</v>
       </c>
     </row>
     <row r="614">
@@ -7118,7 +7118,7 @@
         <v>4.316304296585928</v>
       </c>
       <c r="C614" t="n">
-        <v>6.056253385897928e-06</v>
+        <v>6.069066531056707e-06</v>
       </c>
     </row>
     <row r="615">
@@ -7129,7 +7129,7 @@
         <v>4.317221504068794</v>
       </c>
       <c r="C615" t="n">
-        <v>6.032972379594577e-06</v>
+        <v>6.041468210860678e-06</v>
       </c>
     </row>
     <row r="616">
@@ -7140,7 +7140,7 @@
         <v>4.318138711551658</v>
       </c>
       <c r="C616" t="n">
-        <v>6.049257657655673e-06</v>
+        <v>6.055051570403958e-06</v>
       </c>
     </row>
     <row r="617">
@@ -7151,7 +7151,7 @@
         <v>4.319055919034523</v>
       </c>
       <c r="C617" t="n">
-        <v>6.116095280792534e-06</v>
+        <v>6.121700372943574e-06</v>
       </c>
     </row>
     <row r="618">
@@ -7162,7 +7162,7 @@
         <v>4.319973126517388</v>
       </c>
       <c r="C618" t="n">
-        <v>6.233495932590455e-06</v>
+        <v>6.241297689125037e-06</v>
       </c>
     </row>
     <row r="619">
@@ -7173,7 +7173,7 @@
         <v>4.320890334000253</v>
       </c>
       <c r="C619" t="n">
-        <v>6.389976910060616e-06</v>
+        <v>6.401159495291985e-06</v>
       </c>
     </row>
     <row r="620">
@@ -7184,7 +7184,7 @@
         <v>4.321807541483118</v>
       </c>
       <c r="C620" t="n">
-        <v>6.573513311897428e-06</v>
+        <v>6.588008917514265e-06</v>
       </c>
     </row>
     <row r="621">
@@ -7195,7 +7195,7 @@
         <v>4.322724748965983</v>
       </c>
       <c r="C621" t="n">
-        <v>6.772080236795298e-06</v>
+        <v>6.788569081861723e-06</v>
       </c>
     </row>
     <row r="622">
@@ -7206,7 +7206,7 @@
         <v>4.323641956448848</v>
       </c>
       <c r="C622" t="n">
-        <v>6.974133680234637e-06</v>
+        <v>6.990230765096675e-06</v>
       </c>
     </row>
     <row r="623">
@@ -7217,7 +7217,7 @@
         <v>4.324559163931712</v>
       </c>
       <c r="C623" t="n">
-        <v>7.171565179961911e-06</v>
+        <v>7.185154462223891e-06</v>
       </c>
     </row>
     <row r="624">
@@ -7228,7 +7228,7 @@
         <v>4.325476371414577</v>
       </c>
       <c r="C624" t="n">
-        <v>7.357760884979488e-06</v>
+        <v>7.367575704449275e-06</v>
       </c>
     </row>
     <row r="625">
@@ -7239,7 +7239,7 @@
         <v>4.326393578897442</v>
       </c>
       <c r="C625" t="n">
-        <v>7.526113077961995e-06</v>
+        <v>7.531738538632527e-06</v>
       </c>
     </row>
     <row r="626">
@@ -7250,7 +7250,7 @@
         <v>4.327310786380307</v>
       </c>
       <c r="C626" t="n">
-        <v>7.670014041584077e-06</v>
+        <v>7.671887011633358e-06</v>
       </c>
     </row>
     <row r="627">
@@ -7261,7 +7261,7 @@
         <v>4.328227993863172</v>
       </c>
       <c r="C627" t="n">
-        <v>7.78288835422197e-06</v>
+        <v>7.7822920924097e-06</v>
       </c>
     </row>
     <row r="628">
@@ -7272,7 +7272,7 @@
         <v>4.329145201346037</v>
       </c>
       <c r="C628" t="n">
-        <v>7.860700654115734e-06</v>
+        <v>7.859342175390507e-06</v>
       </c>
     </row>
     <row r="629">
@@ -7283,7 +7283,7 @@
         <v>4.330062408828902</v>
       </c>
       <c r="C629" t="n">
-        <v>7.903744695973317e-06</v>
+        <v>7.90303446029575e-06</v>
       </c>
     </row>
     <row r="630">
@@ -7294,7 +7294,7 @@
         <v>4.330979616311767</v>
       </c>
       <c r="C630" t="n">
-        <v>7.912736546179348e-06</v>
+        <v>7.913718191107688e-06</v>
       </c>
     </row>
     <row r="631">
@@ -7305,7 +7305,7 @@
         <v>4.331896823794632</v>
       </c>
       <c r="C631" t="n">
-        <v>7.888392271118459e-06</v>
+        <v>7.891742611808577e-06</v>
       </c>
     </row>
     <row r="632">
@@ -7316,7 +7316,7 @@
         <v>4.332814031277497</v>
       </c>
       <c r="C632" t="n">
-        <v>7.831427937175274e-06</v>
+        <v>7.837456966380673e-06</v>
       </c>
     </row>
     <row r="633">
@@ -7327,7 +7327,7 @@
         <v>4.333731238760362</v>
       </c>
       <c r="C633" t="n">
-        <v>7.742652510968985e-06</v>
+        <v>7.751316746736566e-06</v>
       </c>
     </row>
     <row r="634">
@@ -7338,7 +7338,7 @@
         <v>4.334648446243227</v>
       </c>
       <c r="C634" t="n">
-        <v>7.624273397454006e-06</v>
+        <v>7.635376807584017e-06</v>
       </c>
     </row>
     <row r="635">
@@ -7349,7 +7349,7 @@
         <v>4.335565653726092</v>
       </c>
       <c r="C635" t="n">
-        <v>7.479578821996052e-06</v>
+        <v>7.492928113876451e-06</v>
       </c>
     </row>
     <row r="636">
@@ -7360,7 +7360,7 @@
         <v>4.336482861208957</v>
       </c>
       <c r="C636" t="n">
-        <v>7.311885061916607e-06</v>
+        <v>7.327293712964678e-06</v>
       </c>
     </row>
     <row r="637">
@@ -7371,7 +7371,7 @@
         <v>4.337400068691822</v>
       </c>
       <c r="C637" t="n">
-        <v>7.124508394537153e-06</v>
+        <v>7.141796652199507e-06</v>
       </c>
     </row>
     <row r="638">
@@ -7382,7 +7382,7 @@
         <v>4.338317276174687</v>
       </c>
       <c r="C638" t="n">
-        <v>6.920765097179181e-06</v>
+        <v>6.939759978931746e-06</v>
       </c>
     </row>
     <row r="639">
@@ -7393,7 +7393,7 @@
         <v>4.339234483657552</v>
       </c>
       <c r="C639" t="n">
-        <v>6.703971447164178e-06</v>
+        <v>6.724506740512214e-06</v>
       </c>
     </row>
     <row r="640">
@@ -7404,7 +7404,7 @@
         <v>4.340151691140417</v>
       </c>
       <c r="C640" t="n">
-        <v>6.477443721813627e-06</v>
+        <v>6.499359984291713e-06</v>
       </c>
     </row>
     <row r="641">
@@ -7415,7 +7415,7 @@
         <v>4.341068898623281</v>
       </c>
       <c r="C641" t="n">
-        <v>6.244498198449012e-06</v>
+        <v>6.267642757621057e-06</v>
       </c>
     </row>
     <row r="642">
@@ -7426,7 +7426,7 @@
         <v>4.341986106106146</v>
       </c>
       <c r="C642" t="n">
-        <v>6.008444582455346e-06</v>
+        <v>6.032671515911557e-06</v>
       </c>
     </row>
     <row r="643">
@@ -7437,7 +7437,7 @@
         <v>4.342903313589011</v>
       </c>
       <c r="C643" t="n">
-        <v>5.771835800902159e-06</v>
+        <v>5.797003632850753e-06</v>
       </c>
     </row>
     <row r="644">
@@ -7448,7 +7448,7 @@
         <v>4.343820521071876</v>
       </c>
       <c r="C644" t="n">
-        <v>5.535775231924885e-06</v>
+        <v>5.561742521195889e-06</v>
       </c>
     </row>
     <row r="645">
@@ -7459,7 +7459,7 @@
         <v>4.344737728554741</v>
       </c>
       <c r="C645" t="n">
-        <v>5.301202498389685e-06</v>
+        <v>5.327827340012568e-06</v>
       </c>
     </row>
     <row r="646">
@@ -7470,7 +7470,7 @@
         <v>4.345654936037606</v>
       </c>
       <c r="C646" t="n">
-        <v>5.069057223162722e-06</v>
+        <v>5.096197248366392e-06</v>
       </c>
     </row>
     <row r="647">
@@ -7481,7 +7481,7 @@
         <v>4.346572143520471</v>
       </c>
       <c r="C647" t="n">
-        <v>4.840279029110158e-06</v>
+        <v>4.867791405322963e-06</v>
       </c>
     </row>
     <row r="648">
@@ -7492,7 +7492,7 @@
         <v>4.347489351003336</v>
       </c>
       <c r="C648" t="n">
-        <v>4.615807539098155e-06</v>
+        <v>4.643548969947885e-06</v>
       </c>
     </row>
     <row r="649">
@@ -7503,7 +7503,7 @@
         <v>4.3484065584862</v>
       </c>
       <c r="C649" t="n">
-        <v>4.396582375993088e-06</v>
+        <v>4.424409101306964e-06</v>
       </c>
     </row>
     <row r="650">
@@ -7514,7 +7514,7 @@
         <v>4.349323765969066</v>
       </c>
       <c r="C650" t="n">
-        <v>4.183543162660487e-06</v>
+        <v>4.211310958465179e-06</v>
       </c>
     </row>
     <row r="651">
@@ -7525,7 +7525,7 @@
         <v>4.35024097345193</v>
       </c>
       <c r="C651" t="n">
-        <v>3.977629521967343e-06</v>
+        <v>4.005193700488955e-06</v>
       </c>
     </row>
     <row r="652">
@@ -7536,7 +7536,7 @@
         <v>4.351158180934796</v>
       </c>
       <c r="C652" t="n">
-        <v>3.779781076779018e-06</v>
+        <v>3.806996486443094e-06</v>
       </c>
     </row>
     <row r="653">
@@ -7547,7 +7547,7 @@
         <v>4.35207538841766</v>
       </c>
       <c r="C653" t="n">
-        <v>3.590937449962442e-06</v>
+        <v>3.617658475393967e-06</v>
       </c>
     </row>
     <row r="654">
@@ -7558,7 +7558,7 @@
         <v>4.352992595900525</v>
       </c>
       <c r="C654" t="n">
-        <v>3.412038264383215e-06</v>
+        <v>3.438118826406613e-06</v>
       </c>
     </row>
     <row r="655">
@@ -7569,7 +7569,7 @@
         <v>4.35390980338339</v>
       </c>
       <c r="C655" t="n">
-        <v>3.244023142907687e-06</v>
+        <v>3.269316698546821e-06</v>
       </c>
     </row>
     <row r="656">
@@ -7580,7 +7580,7 @@
         <v>4.354827010866255</v>
       </c>
       <c r="C656" t="n">
-        <v>3.087830898153083e-06</v>
+        <v>3.112190454652715e-06</v>
       </c>
     </row>
     <row r="657">
@@ -7591,7 +7591,7 @@
         <v>4.35574421834912</v>
       </c>
       <c r="C657" t="n">
-        <v>2.944014984402266e-06</v>
+        <v>2.967299767902835e-06</v>
       </c>
     </row>
     <row r="658">
@@ -7602,7 +7602,7 @@
         <v>4.356661425831985</v>
       </c>
       <c r="C658" t="n">
-        <v>2.812128091792648e-06</v>
+        <v>2.834220865680536e-06</v>
       </c>
     </row>
     <row r="659">
@@ -7613,7 +7613,7 @@
         <v>4.35757863331485</v>
       </c>
       <c r="C659" t="n">
-        <v>2.69156255469226e-06</v>
+        <v>2.712372394576688e-06</v>
       </c>
     </row>
     <row r="660">
@@ -7624,7 +7624,7 @@
         <v>4.358495840797715</v>
       </c>
       <c r="C660" t="n">
-        <v>2.581710707469134e-06</v>
+        <v>2.601173001182163e-06</v>
       </c>
     </row>
     <row r="661">
@@ -7635,7 +7635,7 @@
         <v>4.35941304828058</v>
       </c>
       <c r="C661" t="n">
-        <v>2.481964884491303e-06</v>
+        <v>2.50004133208783e-06</v>
       </c>
     </row>
     <row r="662">
@@ -7646,7 +7646,7 @@
         <v>4.360330255763444</v>
       </c>
       <c r="C662" t="n">
-        <v>2.391717420126797e-06</v>
+        <v>2.408396033884562e-06</v>
       </c>
     </row>
     <row r="663">
@@ -7657,7 +7657,7 @@
         <v>4.361247463246309</v>
       </c>
       <c r="C663" t="n">
-        <v>2.310360648743649e-06</v>
+        <v>2.325655753163227e-06</v>
       </c>
     </row>
     <row r="664">
@@ -7668,7 +7668,7 @@
         <v>4.362164670729174</v>
       </c>
       <c r="C664" t="n">
-        <v>2.23728690470989e-06</v>
+        <v>2.251239136514699e-06</v>
       </c>
     </row>
     <row r="665">
@@ -7679,7 +7679,7 @@
         <v>4.363081878212039</v>
       </c>
       <c r="C665" t="n">
-        <v>2.17188852239355e-06</v>
+        <v>2.184564830529845e-06</v>
       </c>
     </row>
     <row r="666">
@@ -7690,7 +7690,7 @@
         <v>4.363999085694904</v>
       </c>
       <c r="C666" t="n">
-        <v>2.113557836162663e-06</v>
+        <v>2.125051481799538e-06</v>
       </c>
     </row>
     <row r="667">
@@ -7701,7 +7701,7 @@
         <v>4.364916293177769</v>
       </c>
       <c r="C667" t="n">
-        <v>2.06168718038526e-06</v>
+        <v>2.072117736914649e-06</v>
       </c>
     </row>
     <row r="668">
@@ -7712,7 +7712,7 @@
         <v>4.365833500660634</v>
       </c>
       <c r="C668" t="n">
-        <v>2.015668889429373e-06</v>
+        <v>2.025182242466047e-06</v>
       </c>
     </row>
     <row r="669">
@@ -7723,7 +7723,7 @@
         <v>4.366750708143499</v>
       </c>
       <c r="C669" t="n">
-        <v>1.974895297663032e-06</v>
+        <v>1.983663645044604e-06</v>
       </c>
     </row>
     <row r="670">
@@ -7734,7 +7734,7 @@
         <v>4.367667915626364</v>
       </c>
       <c r="C670" t="n">
-        <v>1.938801232503485e-06</v>
+        <v>1.947012016114998e-06</v>
       </c>
     </row>
     <row r="671">
@@ -7745,7 +7745,7 @@
         <v>4.368585123109229</v>
       </c>
       <c r="C671" t="n">
-        <v>1.907150772613488e-06</v>
+        <v>1.914920918231209e-06</v>
       </c>
     </row>
     <row r="672">
@@ -7756,7 +7756,7 @@
         <v>4.369502330592094</v>
       </c>
       <c r="C672" t="n">
-        <v>1.879861733492175e-06</v>
+        <v>1.887197606910467e-06</v>
       </c>
     </row>
     <row r="673">
@@ -7767,7 +7767,7 @@
         <v>4.370419538074959</v>
       </c>
       <c r="C673" t="n">
-        <v>1.856852798186669e-06</v>
+        <v>1.863649979247542e-06</v>
       </c>
     </row>
     <row r="674">
@@ -7778,7 +7778,7 @@
         <v>4.371336745557824</v>
       </c>
       <c r="C674" t="n">
-        <v>1.83804264974409e-06</v>
+        <v>1.844085932337206e-06</v>
       </c>
     </row>
     <row r="675">
@@ -7789,7 +7789,7 @@
         <v>4.372253953040689</v>
       </c>
       <c r="C675" t="n">
-        <v>1.823349971211562e-06</v>
+        <v>1.82831336327423e-06</v>
       </c>
     </row>
     <row r="676">
@@ -7800,7 +7800,7 @@
         <v>4.373171160523554</v>
       </c>
       <c r="C676" t="n">
-        <v>1.812693445636205e-06</v>
+        <v>1.816140169153384e-06</v>
       </c>
     </row>
     <row r="677">
@@ -7811,7 +7811,7 @@
         <v>4.374088368006419</v>
       </c>
       <c r="C677" t="n">
-        <v>1.805991756065143e-06</v>
+        <v>1.807374247069439e-06</v>
       </c>
     </row>
     <row r="678">
@@ -7822,7 +7822,7 @@
         <v>4.375005575489284</v>
       </c>
       <c r="C678" t="n">
-        <v>1.803163585545495e-06</v>
+        <v>1.801823494117166e-06</v>
       </c>
     </row>
     <row r="679">
@@ -7833,7 +7833,7 @@
         <v>4.375922782972149</v>
       </c>
       <c r="C679" t="n">
-        <v>1.803612550950896e-06</v>
+        <v>1.798902997358536e-06</v>
       </c>
     </row>
     <row r="680">
@@ -7844,7 +7844,7 @@
         <v>4.376839990455013</v>
       </c>
       <c r="C680" t="n">
-        <v>1.804032506016256e-06</v>
+        <v>1.795961270272964e-06</v>
       </c>
     </row>
     <row r="681">
@@ -7855,7 +7855,7 @@
         <v>4.377757197937878</v>
       </c>
       <c r="C681" t="n">
-        <v>1.800229330393395e-06</v>
+        <v>1.789669621843319e-06</v>
       </c>
     </row>
     <row r="682">
@@ -7866,7 +7866,7 @@
         <v>4.378674405420743</v>
       </c>
       <c r="C682" t="n">
-        <v>1.788008388667954e-06</v>
+        <v>1.776698968242436e-06</v>
       </c>
     </row>
     <row r="683">
@@ -7877,7 +7877,7 @@
         <v>4.379591612903608</v>
       </c>
       <c r="C683" t="n">
-        <v>1.763175781749222e-06</v>
+        <v>1.753720906600635e-06</v>
       </c>
     </row>
     <row r="684">
@@ -7888,7 +7888,7 @@
         <v>4.380508820386473</v>
       </c>
       <c r="C684" t="n">
-        <v>1.728160776898373e-06</v>
+        <v>1.723532186653849e-06</v>
       </c>
     </row>
     <row r="685">
@@ -7899,7 +7899,7 @@
         <v>4.381426027869338</v>
       </c>
       <c r="C685" t="n">
-        <v>1.705929924307952e-06</v>
+        <v>1.707689534373498e-06</v>
       </c>
     </row>
     <row r="686">
@@ -7910,7 +7910,7 @@
         <v>4.382343235352202</v>
       </c>
       <c r="C686" t="n">
-        <v>1.696558480804315e-06</v>
+        <v>1.703688935622765e-06</v>
       </c>
     </row>
     <row r="687">
@@ -7921,7 +7921,7 @@
         <v>4.383260442835068</v>
       </c>
       <c r="C687" t="n">
-        <v>1.681476042617605e-06</v>
+        <v>1.689869794403924e-06</v>
       </c>
     </row>
     <row r="688">
@@ -7932,7 +7932,7 @@
         <v>4.384177650317932</v>
       </c>
       <c r="C688" t="n">
-        <v>1.651799145286686e-06</v>
+        <v>1.656421072289249e-06</v>
       </c>
     </row>
     <row r="689">
@@ -7943,7 +7943,7 @@
         <v>4.385094857800798</v>
       </c>
       <c r="C689" t="n">
-        <v>1.615073860190551e-06</v>
+        <v>1.613516450371166e-06</v>
       </c>
     </row>
     <row r="690">
@@ -7954,7 +7954,7 @@
         <v>4.386012065283662</v>
       </c>
       <c r="C690" t="n">
-        <v>1.580365780616269e-06</v>
+        <v>1.5731779406647e-06</v>
       </c>
     </row>
     <row r="691">
@@ -7965,7 +7965,7 @@
         <v>4.386929272766527</v>
       </c>
       <c r="C691" t="n">
-        <v>1.556226906090879e-06</v>
+        <v>1.546731036675938e-06</v>
       </c>
     </row>
     <row r="692">
@@ -7976,7 +7976,7 @@
         <v>4.387846480249392</v>
       </c>
       <c r="C692" t="n">
-        <v>1.542735051423243e-06</v>
+        <v>1.534008828840416e-06</v>
       </c>
     </row>
     <row r="693">
@@ -7987,7 +7987,7 @@
         <v>4.388763687732257</v>
       </c>
       <c r="C693" t="n">
-        <v>1.533015758523027e-06</v>
+        <v>1.525415969924334e-06</v>
       </c>
     </row>
     <row r="694">
@@ -7998,7 +7998,7 @@
         <v>4.389680895215122</v>
       </c>
       <c r="C694" t="n">
-        <v>1.520440250188116e-06</v>
+        <v>1.511755956971616e-06</v>
       </c>
     </row>
     <row r="695">
@@ -8009,7 +8009,7 @@
         <v>4.390598102697987</v>
       </c>
       <c r="C695" t="n">
-        <v>1.503391122591454e-06</v>
+        <v>1.491357897889925e-06</v>
       </c>
     </row>
     <row r="696">
@@ -8020,7 +8020,7 @@
         <v>4.391515310180852</v>
       </c>
       <c r="C696" t="n">
-        <v>1.483376709800803e-06</v>
+        <v>1.467244840810075e-06</v>
       </c>
     </row>
     <row r="697">
@@ -8031,7 +8031,7 @@
         <v>4.392432517663717</v>
       </c>
       <c r="C697" t="n">
-        <v>1.461952068459978e-06</v>
+        <v>1.4425097105999e-06</v>
       </c>
     </row>
     <row r="698">
@@ -8042,7 +8042,7 @@
         <v>4.393349725146582</v>
       </c>
       <c r="C698" t="n">
-        <v>1.440168016102371e-06</v>
+        <v>1.419296223655496e-06</v>
       </c>
     </row>
     <row r="699">
@@ -8053,7 +8053,7 @@
         <v>4.394266932629447</v>
       </c>
       <c r="C699" t="n">
-        <v>1.417697467665586e-06</v>
+        <v>1.397154253907905e-06</v>
       </c>
     </row>
     <row r="700">
@@ -8064,7 +8064,7 @@
         <v>4.395184140112312</v>
       </c>
       <c r="C700" t="n">
-        <v>1.393980121727191e-06</v>
+        <v>1.37519465550545e-06</v>
       </c>
     </row>
     <row r="701">
@@ -8075,7 +8075,7 @@
         <v>4.396101347595176</v>
       </c>
       <c r="C701" t="n">
-        <v>1.368455676864752e-06</v>
+        <v>1.352528282596452e-06</v>
       </c>
     </row>
     <row r="702">
@@ -8086,7 +8086,7 @@
         <v>4.397018555078041</v>
       </c>
       <c r="C702" t="n">
-        <v>1.340563831655834e-06</v>
+        <v>1.328265989329234e-06</v>
       </c>
     </row>
     <row r="703">
@@ -8097,7 +8097,7 @@
         <v>4.397935762560906</v>
       </c>
       <c r="C703" t="n">
-        <v>1.309744284678005e-06</v>
+        <v>1.301518629852116e-06</v>
       </c>
     </row>
     <row r="704">
@@ -8108,7 +8108,7 @@
         <v>4.398852970043771</v>
       </c>
       <c r="C704" t="n">
-        <v>1.275436734508831e-06</v>
+        <v>1.271397058313423e-06</v>
       </c>
     </row>
     <row r="705">
@@ -8119,7 +8119,7 @@
         <v>4.399770177526636</v>
       </c>
       <c r="C705" t="n">
-        <v>1.237080879725878e-06</v>
+        <v>1.237012128861475e-06</v>
       </c>
     </row>
     <row r="706">
@@ -8130,7 +8130,7 @@
         <v>4.400687385009501</v>
       </c>
       <c r="C706" t="n">
-        <v>1.194116418906712e-06</v>
+        <v>1.197474695644595e-06</v>
       </c>
     </row>
     <row r="707">
@@ -8141,7 +8141,7 @@
         <v>4.401604592492366</v>
       </c>
       <c r="C707" t="n">
-        <v>1.146599478660945e-06</v>
+        <v>1.152543062668789e-06</v>
       </c>
     </row>
     <row r="708">
@@ -8152,7 +8152,7 @@
         <v>4.402521799975231</v>
       </c>
       <c r="C708" t="n">
-        <v>1.099362489042304e-06</v>
+        <v>1.106992205513055e-06</v>
       </c>
     </row>
     <row r="709">
@@ -8163,7 +8163,7 @@
         <v>4.403439007458096</v>
       </c>
       <c r="C709" t="n">
-        <v>1.059468072977293e-06</v>
+        <v>1.067939527392753e-06</v>
       </c>
     </row>
     <row r="710">
@@ -8174,7 +8174,7 @@
         <v>4.404356214940961</v>
       </c>
       <c r="C710" t="n">
-        <v>1.033991438530648e-06</v>
+        <v>1.042515650010288e-06</v>
       </c>
     </row>
     <row r="711">
@@ -8185,7 +8185,7 @@
         <v>4.405273422423826</v>
       </c>
       <c r="C711" t="n">
-        <v>1.030007793767105e-06</v>
+        <v>1.037851195068067e-06</v>
       </c>
     </row>
     <row r="712">
@@ -8196,7 +8196,7 @@
         <v>4.406190629906691</v>
       </c>
       <c r="C712" t="n">
-        <v>1.054591120965034e-06</v>
+        <v>1.061075572980738e-06</v>
       </c>
     </row>
     <row r="713">
@@ -8207,7 +8207,7 @@
         <v>4.407107837389556</v>
       </c>
       <c r="C713" t="n">
-        <v>1.112340695419645e-06</v>
+        <v>1.116872758027869e-06</v>
       </c>
     </row>
     <row r="714">
@@ -8218,7 +8218,7 @@
         <v>4.408025044872421</v>
       </c>
       <c r="C714" t="n">
-        <v>1.200190953780905e-06</v>
+        <v>1.202352545598274e-06</v>
       </c>
     </row>
     <row r="715">
@@ -8229,7 +8229,7 @@
         <v>4.408942252355286</v>
       </c>
       <c r="C715" t="n">
-        <v>1.313596870931274e-06</v>
+        <v>1.313162768395347e-06</v>
       </c>
     </row>
     <row r="716">
@@ -8240,7 +8240,7 @@
         <v>4.409859459838151</v>
       </c>
       <c r="C716" t="n">
-        <v>1.448013421753212e-06</v>
+        <v>1.444951259122481e-06</v>
       </c>
     </row>
     <row r="717">
@@ -8251,7 +8251,7 @@
         <v>4.410776667321016</v>
       </c>
       <c r="C717" t="n">
-        <v>1.598895581129177e-06</v>
+        <v>1.593365850483069e-06</v>
       </c>
     </row>
     <row r="718">
@@ -8262,7 +8262,7 @@
         <v>4.411693874803881</v>
       </c>
       <c r="C718" t="n">
-        <v>1.761698323941631e-06</v>
+        <v>1.754054375180505e-06</v>
       </c>
     </row>
     <row r="719">
@@ -8273,7 +8273,7 @@
         <v>4.412611082286745</v>
       </c>
       <c r="C719" t="n">
-        <v>1.931876625073034e-06</v>
+        <v>1.922664665918181e-06</v>
       </c>
     </row>
     <row r="720">
@@ -8284,7 +8284,7 @@
         <v>4.41352828976961</v>
       </c>
       <c r="C720" t="n">
-        <v>2.104885459405844e-06</v>
+        <v>2.094844555399493e-06</v>
       </c>
     </row>
     <row r="721">
@@ -8295,7 +8295,7 @@
         <v>4.414445497252475</v>
       </c>
       <c r="C721" t="n">
-        <v>2.276126119065373e-06</v>
+        <v>2.266165983055438e-06</v>
       </c>
     </row>
     <row r="722">
@@ -8306,7 +8306,7 @@
         <v>4.41536270473534</v>
       </c>
       <c r="C722" t="n">
-        <v>2.440398167663315e-06</v>
+        <v>2.431350202763286e-06</v>
       </c>
     </row>
     <row r="723">
@@ -8317,7 +8317,7 @@
         <v>4.416279912218204</v>
       </c>
       <c r="C723" t="n">
-        <v>2.592123305121688e-06</v>
+        <v>2.584584268715928e-06</v>
       </c>
     </row>
     <row r="724">
@@ -8328,7 +8328,7 @@
         <v>4.41719711970107</v>
       </c>
       <c r="C724" t="n">
-        <v>2.725717382649672e-06</v>
+        <v>2.720046966567306e-06</v>
       </c>
     </row>
     <row r="725">
@@ -8339,7 +8339,7 @@
         <v>4.418114327183934</v>
       </c>
       <c r="C725" t="n">
-        <v>2.835596251455519e-06</v>
+        <v>2.831917081970422e-06</v>
       </c>
     </row>
     <row r="726">
@@ -8350,7 +8350,7 @@
         <v>4.4190315346668</v>
       </c>
       <c r="C726" t="n">
-        <v>2.916208256610974e-06</v>
+        <v>2.914406677067523e-06</v>
       </c>
     </row>
     <row r="727">
@@ -8361,7 +8361,7 @@
         <v>4.419948742149664</v>
       </c>
       <c r="C727" t="n">
-        <v>2.965653483224814e-06</v>
+        <v>2.965467507439487e-06</v>
       </c>
     </row>
     <row r="728">
@@ -8372,7 +8372,7 @@
         <v>4.420865949632529</v>
       </c>
       <c r="C728" t="n">
-        <v>2.98897840791404e-06</v>
+        <v>2.990165026378974e-06</v>
       </c>
     </row>
     <row r="729">
@@ -8383,7 +8383,7 @@
         <v>4.421783157115394</v>
       </c>
       <c r="C729" t="n">
-        <v>2.992007620553398e-06</v>
+        <v>2.994361541559015e-06</v>
       </c>
     </row>
     <row r="730">
@@ -8394,7 +8394,7 @@
         <v>4.422700364598259</v>
       </c>
       <c r="C730" t="n">
-        <v>2.980565711017696e-06</v>
+        <v>2.983919360652709e-06</v>
       </c>
     </row>
     <row r="731">
@@ -8405,7 +8405,7 @@
         <v>4.423617572081124</v>
       </c>
       <c r="C731" t="n">
-        <v>2.960447437683988e-06</v>
+        <v>2.964670844192613e-06</v>
       </c>
     </row>
     <row r="732">
@@ -8416,7 +8416,7 @@
         <v>4.424534779563989</v>
       </c>
       <c r="C732" t="n">
-        <v>2.935239916031049e-06</v>
+        <v>2.940232151812766e-06</v>
       </c>
     </row>
     <row r="733">
@@ -8427,7 +8427,7 @@
         <v>4.425451987046854</v>
       </c>
       <c r="C733" t="n">
-        <v>2.904843774247925e-06</v>
+        <v>2.910518665068338e-06</v>
       </c>
     </row>
     <row r="734">
@@ -8438,7 +8438,7 @@
         <v>4.426369194529719</v>
       </c>
       <c r="C734" t="n">
-        <v>2.868809439808066e-06</v>
+        <v>2.875094207234322e-06</v>
       </c>
     </row>
     <row r="735">
@@ -8449,7 +8449,7 @@
         <v>4.427286402012584</v>
       </c>
       <c r="C735" t="n">
-        <v>2.826687340184916e-06</v>
+        <v>2.833522601585708e-06</v>
       </c>
     </row>
     <row r="736">
@@ -8460,7 +8460,7 @@
         <v>4.428203609495449</v>
       </c>
       <c r="C736" t="n">
-        <v>2.778027902851926e-06</v>
+        <v>2.785367671397488e-06</v>
       </c>
     </row>
     <row r="737">
@@ -8471,7 +8471,7 @@
         <v>4.429120816978314</v>
       </c>
       <c r="C737" t="n">
-        <v>2.722381555282543e-06</v>
+        <v>2.730193239944651e-06</v>
       </c>
     </row>
     <row r="738">
@@ -8482,7 +8482,7 @@
         <v>4.430038024461179</v>
       </c>
       <c r="C738" t="n">
-        <v>2.659409411940259e-06</v>
+        <v>2.667672573099615e-06</v>
       </c>
     </row>
     <row r="739">
@@ -8493,7 +8493,7 @@
         <v>4.430955231944044</v>
       </c>
       <c r="C739" t="n">
-        <v>2.589688779131991e-06</v>
+        <v>2.598384828339958e-06</v>
       </c>
     </row>
     <row r="740">
@@ -8504,7 +8504,7 @@
         <v>4.431872439426908</v>
       </c>
       <c r="C740" t="n">
-        <v>2.514249420694632e-06</v>
+        <v>2.523356533943428e-06</v>
       </c>
     </row>
     <row r="741">
@@ -8515,7 +8515,7 @@
         <v>4.432789646909773</v>
       </c>
       <c r="C741" t="n">
-        <v>2.43412430096291e-06</v>
+        <v>2.443617382704182e-06</v>
       </c>
     </row>
     <row r="742">
@@ -8526,7 +8526,7 @@
         <v>4.433706854392638</v>
       </c>
       <c r="C742" t="n">
-        <v>2.350346384271554e-06</v>
+        <v>2.360197067416376e-06</v>
       </c>
     </row>
     <row r="743">
@@ -8537,7 +8537,7 @@
         <v>4.434624061875503</v>
       </c>
       <c r="C743" t="n">
-        <v>2.263948634955294e-06</v>
+        <v>2.274125280874167e-06</v>
       </c>
     </row>
     <row r="744">
@@ -8548,7 +8548,7 @@
         <v>4.435541269358368</v>
       </c>
       <c r="C744" t="n">
-        <v>2.175964017348859e-06</v>
+        <v>2.186431715871711e-06</v>
       </c>
     </row>
     <row r="745">
@@ -8559,7 +8559,7 @@
         <v>4.436458476841233</v>
       </c>
       <c r="C745" t="n">
-        <v>2.087425495786977e-06</v>
+        <v>2.098146065203164e-06</v>
       </c>
     </row>
     <row r="746">
@@ -8570,7 +8570,7 @@
         <v>4.437375684324098</v>
       </c>
       <c r="C746" t="n">
-        <v>1.999366034604376e-06</v>
+        <v>2.010298021662682e-06</v>
       </c>
     </row>
     <row r="747">
@@ -8581,7 +8581,7 @@
         <v>4.438292891806963</v>
       </c>
       <c r="C747" t="n">
-        <v>1.912818598135787e-06</v>
+        <v>1.923917278044423e-06</v>
       </c>
     </row>
     <row r="748">
@@ -8592,7 +8592,7 @@
         <v>4.439210099289828</v>
       </c>
       <c r="C748" t="n">
-        <v>1.828816150715938e-06</v>
+        <v>1.840033527142542e-06</v>
       </c>
     </row>
     <row r="749">
@@ -8603,7 +8603,7 @@
         <v>4.440127306772693</v>
       </c>
       <c r="C749" t="n">
-        <v>1.748391656679558e-06</v>
+        <v>1.759676461751197e-06</v>
       </c>
     </row>
     <row r="750">
@@ -8614,7 +8614,7 @@
         <v>4.441044514255558</v>
       </c>
       <c r="C750" t="n">
-        <v>1.672530926160385e-06</v>
+        <v>1.683828879259966e-06</v>
       </c>
     </row>
     <row r="751">
@@ -8625,7 +8625,7 @@
         <v>4.441961721738423</v>
       </c>
       <c r="C751" t="n">
-        <v>1.601563892762243e-06</v>
+        <v>1.612821300175838e-06</v>
       </c>
     </row>
     <row r="752">
@@ -8636,7 +8636,7 @@
         <v>4.442878929221288</v>
       </c>
       <c r="C752" t="n">
-        <v>1.535339860186083e-06</v>
+        <v>1.546506252944148e-06</v>
       </c>
     </row>
     <row r="753">
@@ -8647,7 +8647,7 @@
         <v>4.443796136704153</v>
       </c>
       <c r="C753" t="n">
-        <v>1.473697092541974e-06</v>
+        <v>1.484725287007939e-06</v>
       </c>
     </row>
     <row r="754">
@@ -8658,7 +8658,7 @@
         <v>4.444713344187018</v>
       </c>
       <c r="C754" t="n">
-        <v>1.416473853939984e-06</v>
+        <v>1.427319951810251e-06</v>
       </c>
     </row>
     <row r="755">
@@ -8669,7 +8669,7 @@
         <v>4.445630551669883</v>
       </c>
       <c r="C755" t="n">
-        <v>1.363508408490183e-06</v>
+        <v>1.374131796794128e-06</v>
       </c>
     </row>
     <row r="756">
@@ -8680,7 +8680,7 @@
         <v>4.446547759152748</v>
       </c>
       <c r="C756" t="n">
-        <v>1.31463902030264e-06</v>
+        <v>1.325002371402611e-06</v>
       </c>
     </row>
     <row r="757">
@@ -8691,7 +8691,7 @@
         <v>4.447464966635613</v>
       </c>
       <c r="C757" t="n">
-        <v>1.269703953487423e-06</v>
+        <v>1.279773225078742e-06</v>
       </c>
     </row>
     <row r="758">
@@ -8702,7 +8702,7 @@
         <v>4.448382174118477</v>
       </c>
       <c r="C758" t="n">
-        <v>1.228541472154604e-06</v>
+        <v>1.238285907265564e-06</v>
       </c>
     </row>
     <row r="759">
@@ -8713,7 +8713,7 @@
         <v>4.449299381601342</v>
       </c>
       <c r="C759" t="n">
-        <v>1.190989840414249e-06</v>
+        <v>1.200381967406119e-06</v>
       </c>
     </row>
     <row r="760">
@@ -8724,7 +8724,7 @@
         <v>4.450216589084206</v>
       </c>
       <c r="C760" t="n">
-        <v>1.15688732237646e-06</v>
+        <v>1.16590295494348e-06</v>
       </c>
     </row>
     <row r="761">
@@ -8735,7 +8735,7 @@
         <v>4.451133796567072</v>
       </c>
       <c r="C761" t="n">
-        <v>1.126072182151212e-06</v>
+        <v>1.134690419320595e-06</v>
       </c>
     </row>
     <row r="762">
@@ -8746,7 +8746,7 @@
         <v>4.452051004049936</v>
       </c>
       <c r="C762" t="n">
-        <v>1.098382683848693e-06</v>
+        <v>1.106585909980625e-06</v>
       </c>
     </row>
     <row r="763">
@@ -8757,7 +8757,7 @@
         <v>4.452968211532802</v>
       </c>
       <c r="C763" t="n">
-        <v>1.073657091578865e-06</v>
+        <v>1.081430976366507e-06</v>
       </c>
     </row>
     <row r="764">
@@ -8768,7 +8768,7 @@
         <v>4.453885419015666</v>
       </c>
       <c r="C764" t="n">
-        <v>1.051733669451893e-06</v>
+        <v>1.059067167921377e-06</v>
       </c>
     </row>
     <row r="765">
@@ -8779,7 +8779,7 @@
         <v>4.454802626498531</v>
       </c>
       <c r="C765" t="n">
-        <v>1.032450681577778e-06</v>
+        <v>1.03933603408821e-06</v>
       </c>
     </row>
     <row r="766">
@@ -8790,7 +8790,7 @@
         <v>4.455719833981396</v>
       </c>
       <c r="C766" t="n">
-        <v>1.015646392066613e-06</v>
+        <v>1.022079124310071e-06</v>
       </c>
     </row>
     <row r="767">
@@ -8801,7 +8801,7 @@
         <v>4.456637041464261</v>
       </c>
       <c r="C767" t="n">
-        <v>1.001159065028466e-06</v>
+        <v>1.007137988030001e-06</v>
       </c>
     </row>
     <row r="768">
@@ -8812,7 +8812,7 @@
         <v>4.457554248947126</v>
       </c>
       <c r="C768" t="n">
-        <v>9.888269645734059e-07</v>
+        <v>9.943541746910439e-07</v>
       </c>
     </row>
     <row r="769">
@@ -8823,7 +8823,7 @@
         <v>4.458471456429991</v>
       </c>
       <c r="C769" t="n">
-        <v>9.784883548115026e-07</v>
+        <v>9.835692337362407e-07</v>
       </c>
     </row>
     <row r="770">
@@ -8834,7 +8834,7 @@
         <v>4.459388663912856</v>
       </c>
       <c r="C770" t="n">
-        <v>9.699814998528249e-07</v>
+        <v>9.746247146086334e-07</v>
       </c>
     </row>
     <row r="771">
@@ -8845,7 +8845,7 @@
         <v>4.460305871395721</v>
       </c>
       <c r="C771" t="n">
-        <v>9.631446638074418e-07</v>
+        <v>9.673621667512651e-07</v>
       </c>
     </row>
     <row r="772">
@@ -8856,7 +8856,7 @@
         <v>4.461223078878586</v>
       </c>
       <c r="C772" t="n">
-        <v>9.578161107854223e-07</v>
+        <v>9.616231396071765e-07</v>
       </c>
     </row>
     <row r="773">
@@ -8867,7 +8867,7 @@
         <v>4.462140286361451</v>
       </c>
       <c r="C773" t="n">
-        <v>9.538341048968361e-07</v>
+        <v>9.572491826194113e-07</v>
       </c>
     </row>
     <row r="774">
@@ -8878,7 +8878,7 @@
         <v>4.463057493844316</v>
       </c>
       <c r="C774" t="n">
-        <v>9.510369102517517e-07</v>
+        <v>9.540818452310102e-07</v>
       </c>
     </row>
     <row r="775">
@@ -8889,7 +8889,7 @@
         <v>4.463974701327181</v>
       </c>
       <c r="C775" t="n">
-        <v>9.492627909602383e-07</v>
+        <v>9.519626768850162e-07</v>
       </c>
     </row>
     <row r="776">
@@ -8900,7 +8900,7 @@
         <v>4.464891908810046</v>
       </c>
       <c r="C776" t="n">
-        <v>9.483500111323651e-07</v>
+        <v>9.507332270244712e-07</v>
       </c>
     </row>
     <row r="777">
@@ -8911,7 +8911,7 @@
         <v>4.465809116292911</v>
       </c>
       <c r="C777" t="n">
-        <v>9.481368348782013e-07</v>
+        <v>9.502350450924173e-07</v>
       </c>
     </row>
     <row r="778">
@@ -8922,7 +8922,7 @@
         <v>4.466726323775775</v>
       </c>
       <c r="C778" t="n">
-        <v>9.484615263078161e-07</v>
+        <v>9.503096805318969e-07</v>
       </c>
     </row>
     <row r="779">
@@ -8933,7 +8933,7 @@
         <v>4.46764353125864</v>
       </c>
       <c r="C779" t="n">
-        <v>9.491623495312781e-07</v>
+        <v>9.507986827859513e-07</v>
       </c>
     </row>
     <row r="780">
@@ -8944,7 +8944,7 @@
         <v>4.468560738741505</v>
       </c>
       <c r="C780" t="n">
-        <v>9.500775686586567e-07</v>
+        <v>9.515436012976237e-07</v>
       </c>
     </row>
     <row r="781">
@@ -8955,7 +8955,7 @@
         <v>4.46947794622437</v>
       </c>
       <c r="C781" t="n">
-        <v>9.510454478000211e-07</v>
+        <v>9.523859855099554e-07</v>
       </c>
     </row>
     <row r="782">
@@ -8966,7 +8966,7 @@
         <v>4.470395153707235</v>
       </c>
       <c r="C782" t="n">
-        <v>9.519042510654407e-07</v>
+        <v>9.531673848659892e-07</v>
       </c>
     </row>
     <row r="783">
@@ -8977,7 +8977,7 @@
         <v>4.4713123611901</v>
       </c>
       <c r="C783" t="n">
-        <v>9.524922425649839e-07</v>
+        <v>9.537293488087666e-07</v>
       </c>
     </row>
     <row r="784">
@@ -8988,7 +8988,7 @@
         <v>4.472229568672965</v>
       </c>
       <c r="C784" t="n">
-        <v>9.526476864087203e-07</v>
+        <v>9.539134267813302e-07</v>
       </c>
     </row>
     <row r="785">
@@ -8999,7 +8999,7 @@
         <v>4.47314677615583</v>
       </c>
       <c r="C785" t="n">
-        <v>9.522088467067186e-07</v>
+        <v>9.535611682267216e-07</v>
       </c>
     </row>
     <row r="786">
@@ -9010,7 +9010,7 @@
         <v>4.474063983638695</v>
       </c>
       <c r="C786" t="n">
-        <v>9.510139875690484e-07</v>
+        <v>9.525141225879836e-07</v>
       </c>
     </row>
     <row r="787">
@@ -9021,7 +9021,7 @@
         <v>4.47498119112156</v>
       </c>
       <c r="C787" t="n">
-        <v>9.489024050886859e-07</v>
+        <v>9.506148399906424e-07</v>
       </c>
     </row>
     <row r="788">
@@ -9032,7 +9032,7 @@
         <v>4.475898398604425</v>
       </c>
       <c r="C788" t="n">
-        <v>9.458447545619343e-07</v>
+        <v>9.478332455903971e-07</v>
       </c>
     </row>
     <row r="789">
@@ -9043,7 +9043,7 @@
         <v>4.47681560608729</v>
       </c>
       <c r="C789" t="n">
-        <v>9.42070377352812e-07</v>
+        <v>9.443901045666812e-07</v>
       </c>
     </row>
     <row r="790">
@@ -9054,7 +9054,7 @@
         <v>4.477732813570155</v>
       </c>
       <c r="C790" t="n">
-        <v>9.378388401424714e-07</v>
+        <v>9.405354906710309e-07</v>
       </c>
     </row>
     <row r="791">
@@ -9065,7 +9065,7 @@
         <v>4.47865002105302</v>
       </c>
       <c r="C791" t="n">
-        <v>9.334097096120642e-07</v>
+        <v>9.365194776549806e-07</v>
       </c>
     </row>
     <row r="792">
@@ -9076,7 +9076,7 @@
         <v>4.479567228535885</v>
       </c>
       <c r="C792" t="n">
-        <v>9.290425524427429e-07</v>
+        <v>9.325921392700659e-07</v>
       </c>
     </row>
     <row r="793">
@@ -9087,7 +9087,7 @@
         <v>4.48048443601875</v>
       </c>
       <c r="C793" t="n">
-        <v>9.249969353156596e-07</v>
+        <v>9.290035492678224e-07</v>
       </c>
     </row>
     <row r="794">
@@ -9098,7 +9098,7 @@
         <v>4.481401643501615</v>
       </c>
       <c r="C794" t="n">
-        <v>9.215324249119666e-07</v>
+        <v>9.26003781399785e-07</v>
       </c>
     </row>
     <row r="795">
@@ -9109,7 +9109,7 @@
         <v>4.48231885098448</v>
       </c>
       <c r="C795" t="n">
-        <v>9.189085879128156e-07</v>
+        <v>9.238429094174889e-07</v>
       </c>
     </row>
     <row r="796">
@@ -9120,7 +9120,7 @@
         <v>4.483236058467345</v>
       </c>
       <c r="C796" t="n">
-        <v>9.173849909993593e-07</v>
+        <v>9.227710070724696e-07</v>
       </c>
     </row>
     <row r="797">
@@ -9131,7 +9131,7 @@
         <v>4.484153265950209</v>
       </c>
       <c r="C797" t="n">
-        <v>9.172212008527492e-07</v>
+        <v>9.230381481162618e-07</v>
       </c>
     </row>
     <row r="798">
@@ -9142,7 +9142,7 @@
         <v>4.485070473433074</v>
       </c>
       <c r="C798" t="n">
-        <v>9.18676784154139e-07</v>
+        <v>9.248944063004033e-07</v>
       </c>
     </row>
     <row r="799">
@@ -9153,7 +9153,7 @@
         <v>4.485987680915938</v>
       </c>
       <c r="C799" t="n">
-        <v>9.220113075846751e-07</v>
+        <v>9.28589855376422e-07</v>
       </c>
     </row>
     <row r="800">
@@ -9164,7 +9164,7 @@
         <v>4.486904888398804</v>
       </c>
       <c r="C800" t="n">
-        <v>9.274843378255231e-07</v>
+        <v>9.343745690958679e-07</v>
       </c>
     </row>
     <row r="801">
@@ -9175,7 +9175,7 @@
         <v>4.487822095881668</v>
       </c>
       <c r="C801" t="n">
-        <v>9.353554415578132e-07</v>
+        <v>9.424986212102535e-07</v>
       </c>
     </row>
     <row r="802">
@@ -9186,7 +9186,7 @@
         <v>4.488739303364533</v>
       </c>
       <c r="C802" t="n">
-        <v>9.45884185462717e-07</v>
+        <v>9.532120854711341e-07</v>
       </c>
     </row>
     <row r="803">
@@ -9197,7 +9197,7 @@
         <v>4.489656510847398</v>
       </c>
       <c r="C803" t="n">
-        <v>9.593301362213802e-07</v>
+        <v>9.667650356300385e-07</v>
       </c>
     </row>
     <row r="804">
@@ -9208,7 +9208,7 @@
         <v>4.490573718330263</v>
       </c>
       <c r="C804" t="n">
-        <v>9.759528605149555e-07</v>
+        <v>9.834075454385021e-07</v>
       </c>
     </row>
     <row r="805">
@@ -9219,7 +9219,7 @@
         <v>4.491490925813128</v>
       </c>
       <c r="C805" t="n">
-        <v>9.960119250245943e-07</v>
+        <v>1.00338968864806e-06</v>
       </c>
     </row>
     <row r="806">
@@ -9230,7 +9230,7 @@
         <v>4.492408133295993</v>
       </c>
       <c r="C806" t="n">
-        <v>1.019766896431449e-06</v>
+        <v>1.026961539010247e-06</v>
       </c>
     </row>
     <row r="807">
@@ -9241,7 +9241,7 @@
         <v>4.493325340778858</v>
       </c>
       <c r="C807" t="n">
-        <v>1.047477341416672e-06</v>
+        <v>1.054373170276599e-06</v>
       </c>
     </row>
     <row r="808">
@@ -9252,7 +9252,7 @@
         <v>4.494242548261723</v>
       </c>
       <c r="C808" t="n">
-        <v>1.079402826661416e-06</v>
+        <v>1.085874656198652e-06</v>
       </c>
     </row>
     <row r="809">
@@ -9263,7 +9263,7 @@
         <v>4.495159755744588</v>
       </c>
       <c r="C809" t="n">
-        <v>1.115802918846832e-06</v>
+        <v>1.12171607052794e-06</v>
       </c>
     </row>
     <row r="810">
@@ -9274,7 +9274,7 @@
         <v>4.496076963227453</v>
       </c>
       <c r="C810" t="n">
-        <v>1.156937184654073e-06</v>
+        <v>1.162147487015999e-06</v>
       </c>
     </row>
     <row r="811">
@@ -9285,7 +9285,7 @@
         <v>4.496994170710318</v>
       </c>
       <c r="C811" t="n">
-        <v>1.203065190764291e-06</v>
+        <v>1.207418979414364e-06</v>
       </c>
     </row>
     <row r="812">
@@ -9296,7 +9296,7 @@
         <v>4.497911378193183</v>
       </c>
       <c r="C812" t="n">
-        <v>1.254446503858638e-06</v>
+        <v>1.257780621474571e-06</v>
       </c>
     </row>
     <row r="813">
@@ -9307,7 +9307,7 @@
         <v>4.498828585676048</v>
       </c>
       <c r="C813" t="n">
-        <v>1.311340690618266e-06</v>
+        <v>1.313482486948154e-06</v>
       </c>
     </row>
     <row r="814">
@@ -9318,7 +9318,7 @@
         <v>4.499745793158913</v>
       </c>
       <c r="C814" t="n">
-        <v>1.374007317724327e-06</v>
+        <v>1.374774649586649e-06</v>
       </c>
     </row>
     <row r="815">
@@ -9329,7 +9329,7 @@
         <v>4.500663000641778</v>
       </c>
       <c r="C815" t="n">
-        <v>1.44266271539942e-06</v>
+        <v>1.441870709752281e-06</v>
       </c>
     </row>
     <row r="816">
@@ -9340,7 +9340,7 @@
         <v>4.501580208124643</v>
       </c>
       <c r="C816" t="n">
-        <v>1.517047254119571e-06</v>
+        <v>1.514582757930807e-06</v>
       </c>
     </row>
     <row r="817">
@@ -9351,7 +9351,7 @@
         <v>4.502497415607507</v>
       </c>
       <c r="C817" t="n">
-        <v>1.596606438118869e-06</v>
+        <v>1.592474141496351e-06</v>
       </c>
     </row>
     <row r="818">
@@ -9362,7 +9362,7 @@
         <v>4.503414623090372</v>
       </c>
       <c r="C818" t="n">
-        <v>1.680781377526128e-06</v>
+        <v>1.675104501045985e-06</v>
       </c>
     </row>
     <row r="819">
@@ -9373,7 +9373,7 @@
         <v>4.504331830573237</v>
       </c>
       <c r="C819" t="n">
-        <v>1.769013182470168e-06</v>
+        <v>1.762033477176786e-06</v>
       </c>
     </row>
     <row r="820">
@@ -9384,7 +9384,7 @@
         <v>4.505249038056102</v>
       </c>
       <c r="C820" t="n">
-        <v>1.860742963079806e-06</v>
+        <v>1.852820710485827e-06</v>
       </c>
     </row>
     <row r="821">
@@ -9395,7 +9395,7 @@
         <v>4.506166245538967</v>
       </c>
       <c r="C821" t="n">
-        <v>1.955411829483859e-06</v>
+        <v>1.947025841570185e-06</v>
       </c>
     </row>
     <row r="822">
@@ -9406,7 +9406,7 @@
         <v>4.507083453021832</v>
       </c>
       <c r="C822" t="n">
-        <v>2.052460891811144e-06</v>
+        <v>2.044208511026934e-06</v>
       </c>
     </row>
     <row r="823">
@@ -9417,7 +9417,7 @@
         <v>4.508000660504697</v>
       </c>
       <c r="C823" t="n">
-        <v>2.15133126019048e-06</v>
+        <v>2.143928359453148e-06</v>
       </c>
     </row>
     <row r="824">
@@ -9428,7 +9428,7 @@
         <v>4.508917867987562</v>
       </c>
       <c r="C824" t="n">
-        <v>2.251464044750682e-06</v>
+        <v>2.245745027445903e-06</v>
       </c>
     </row>
     <row r="825">
@@ -9439,7 +9439,7 @@
         <v>4.509835075470427</v>
       </c>
       <c r="C825" t="n">
-        <v>2.352253135467725e-06</v>
+        <v>2.349145560466504e-06</v>
       </c>
     </row>
     <row r="826">
@@ -9450,7 +9450,7 @@
         <v>4.510752282953292</v>
       </c>
       <c r="C826" t="n">
-        <v>2.452717414456498e-06</v>
+        <v>2.453040475842628e-06</v>
       </c>
     </row>
     <row r="827">
@@ -9461,7 +9461,7 @@
         <v>4.511669490436157</v>
       </c>
       <c r="C827" t="n">
-        <v>2.551696932990654e-06</v>
+        <v>2.556065360635584e-06</v>
       </c>
     </row>
     <row r="828">
@@ -9472,7 +9472,7 @@
         <v>4.512586697919022</v>
       </c>
       <c r="C828" t="n">
-        <v>2.648030640999167e-06</v>
+        <v>2.656854108725673e-06</v>
       </c>
     </row>
     <row r="829">
@@ -9483,7 +9483,7 @@
         <v>4.513503905401887</v>
       </c>
       <c r="C829" t="n">
-        <v>2.740557488411017e-06</v>
+        <v>2.754040613993194e-06</v>
       </c>
     </row>
     <row r="830">
@@ -9494,7 +9494,7 @@
         <v>4.514421112884752</v>
       </c>
       <c r="C830" t="n">
-        <v>2.828116425155182e-06</v>
+        <v>2.84625877031845e-06</v>
       </c>
     </row>
     <row r="831">
@@ -9505,7 +9505,7 @@
         <v>4.515338320367617</v>
       </c>
       <c r="C831" t="n">
-        <v>2.909546401160636e-06</v>
+        <v>2.932142471581737e-06</v>
       </c>
     </row>
     <row r="832">
@@ -9516,7 +9516,7 @@
         <v>4.516255527850482</v>
       </c>
       <c r="C832" t="n">
-        <v>2.983686366356358e-06</v>
+        <v>3.010325611663359e-06</v>
       </c>
     </row>
     <row r="833">
@@ -9527,7 +9527,7 @@
         <v>4.517172735333347</v>
       </c>
       <c r="C833" t="n">
-        <v>3.049375270671326e-06</v>
+        <v>3.079442084443613e-06</v>
       </c>
     </row>
     <row r="834">
@@ -9538,7 +9538,7 @@
         <v>4.518089942816211</v>
       </c>
       <c r="C834" t="n">
-        <v>3.105452064034467e-06</v>
+        <v>3.138125783802751e-06</v>
       </c>
     </row>
     <row r="835">
@@ -9549,7 +9549,7 @@
         <v>4.519007150299077</v>
       </c>
       <c r="C835" t="n">
-        <v>3.150755696374907e-06</v>
+        <v>3.185010603621225e-06</v>
       </c>
     </row>
     <row r="836">
@@ -9560,7 +9560,7 @@
         <v>4.519924357781941</v>
       </c>
       <c r="C836" t="n">
-        <v>3.184125117621448e-06</v>
+        <v>3.218730437779156e-06</v>
       </c>
     </row>
     <row r="837">
@@ -9571,7 +9571,7 @@
         <v>4.520841565264806</v>
       </c>
       <c r="C837" t="n">
-        <v>3.204399277703196e-06</v>
+        <v>3.237919180156973e-06</v>
       </c>
     </row>
     <row r="838">
@@ -9582,7 +9582,7 @@
         <v>4.52175877274767</v>
       </c>
       <c r="C838" t="n">
-        <v>3.210417126549052e-06</v>
+        <v>3.241210724634904e-06</v>
       </c>
     </row>
     <row r="839">
@@ -9593,7 +9593,7 @@
         <v>4.522675980230535</v>
       </c>
       <c r="C839" t="n">
-        <v>3.201301275755375e-06</v>
+        <v>3.227601903752994e-06</v>
       </c>
     </row>
     <row r="840">
@@ -9604,7 +9604,7 @@
         <v>4.5235931877134</v>
       </c>
       <c r="C840" t="n">
-        <v>3.177930793313072e-06</v>
+        <v>3.198336896108469e-06</v>
       </c>
     </row>
     <row r="841">
@@ -9615,7 +9615,7 @@
         <v>4.524510395196265</v>
       </c>
       <c r="C841" t="n">
-        <v>3.141856209333881e-06</v>
+        <v>3.155519000829231e-06</v>
       </c>
     </row>
     <row r="842">
@@ -9626,7 +9626,7 @@
         <v>4.52542760267913</v>
       </c>
       <c r="C842" t="n">
-        <v>3.094629402352456e-06</v>
+        <v>3.101253242319667e-06</v>
       </c>
     </row>
     <row r="843">
@@ -9637,7 +9637,7 @@
         <v>4.526344810161995</v>
       </c>
       <c r="C843" t="n">
-        <v>3.03780225090345e-06</v>
+        <v>3.037644644984166e-06</v>
       </c>
     </row>
     <row r="844">
@@ -9648,7 +9648,7 @@
         <v>4.52726201764486</v>
       </c>
       <c r="C844" t="n">
-        <v>2.972926633521519e-06</v>
+        <v>2.966798233227115e-06</v>
       </c>
     </row>
     <row r="845">
@@ -9659,7 +9659,7 @@
         <v>4.528179225127725</v>
       </c>
       <c r="C845" t="n">
-        <v>2.901554428741317e-06</v>
+        <v>2.890819031452904e-06</v>
       </c>
     </row>
     <row r="846">
@@ -9670,7 +9670,7 @@
         <v>4.52909643261059</v>
       </c>
       <c r="C846" t="n">
-        <v>2.825237515097496e-06</v>
+        <v>2.811812064065921e-06</v>
       </c>
     </row>
     <row r="847">
@@ -9681,7 +9681,7 @@
         <v>4.530013640093455</v>
       </c>
       <c r="C847" t="n">
-        <v>2.74552777112471e-06</v>
+        <v>2.731882355470552e-06</v>
       </c>
     </row>
     <row r="848">
@@ -9692,7 +9692,7 @@
         <v>4.53093084757632</v>
       </c>
       <c r="C848" t="n">
-        <v>2.663965744210232e-06</v>
+        <v>2.653090542594121e-06</v>
       </c>
     </row>
     <row r="849">
@@ -9703,7 +9703,7 @@
         <v>4.531848055059185</v>
       </c>
       <c r="C849" t="n">
-        <v>2.581846190219285e-06</v>
+        <v>2.576534423810989e-06</v>
       </c>
     </row>
     <row r="850">
@@ -9714,7 +9714,7 @@
         <v>4.53276526254205</v>
       </c>
       <c r="C850" t="n">
-        <v>2.500226037875928e-06</v>
+        <v>2.50238015779313e-06</v>
       </c>
     </row>
     <row r="851">
@@ -9725,7 +9725,7 @@
         <v>4.533682470024915</v>
       </c>
       <c r="C851" t="n">
-        <v>2.420152478174829e-06</v>
+        <v>2.430755757627999e-06</v>
       </c>
     </row>
     <row r="852">
@@ -9736,7 +9736,7 @@
         <v>4.53459967750778</v>
       </c>
       <c r="C852" t="n">
-        <v>2.342672702110653e-06</v>
+        <v>2.361789236403046e-06</v>
       </c>
     </row>
     <row r="853">
@@ -9747,7 +9747,7 @@
         <v>4.535516884990645</v>
       </c>
       <c r="C853" t="n">
-        <v>2.268833900678066e-06</v>
+        <v>2.295608607205726e-06</v>
       </c>
     </row>
     <row r="854">
@@ -9758,7 +9758,7 @@
         <v>4.53643409247351</v>
       </c>
       <c r="C854" t="n">
-        <v>2.199683264871733e-06</v>
+        <v>2.232341883123489e-06</v>
       </c>
     </row>
     <row r="855">
@@ -9769,7 +9769,7 @@
         <v>4.537351299956375</v>
       </c>
       <c r="C855" t="n">
-        <v>2.136267985686322e-06</v>
+        <v>2.172117077243789e-06</v>
       </c>
     </row>
     <row r="856">
@@ -9780,7 +9780,7 @@
         <v>4.538268507439239</v>
       </c>
       <c r="C856" t="n">
-        <v>2.079635254116496e-06</v>
+        <v>2.115062202654077e-06</v>
       </c>
     </row>
     <row r="857">
@@ -9791,7 +9791,7 @@
         <v>4.539185714922104</v>
       </c>
       <c r="C857" t="n">
-        <v>2.030830289452141e-06</v>
+        <v>2.061305197432761e-06</v>
       </c>
     </row>
     <row r="858">
@@ -9802,7 +9802,7 @@
         <v>4.540102922404969</v>
       </c>
       <c r="C858" t="n">
-        <v>1.990255528294797e-06</v>
+        <v>2.010949546445734e-06</v>
       </c>
     </row>
     <row r="859">
@@ -9813,7 +9813,7 @@
         <v>4.541020129887834</v>
       </c>
       <c r="C859" t="n">
-        <v>1.956749006817208e-06</v>
+        <v>1.964039220485416e-06</v>
       </c>
     </row>
     <row r="860">
@@ -9824,7 +9824,7 @@
         <v>4.541937337370699</v>
       </c>
       <c r="C860" t="n">
-        <v>1.928915305119328e-06</v>
+        <v>1.920609309036338e-06</v>
       </c>
     </row>
     <row r="861">
@@ -9835,7 +9835,7 @@
         <v>4.542854544853564</v>
       </c>
       <c r="C861" t="n">
-        <v>1.905359003301112e-06</v>
+        <v>1.880694901583034e-06</v>
       </c>
     </row>
     <row r="862">
@@ -9846,7 +9846,7 @@
         <v>4.543771752336429</v>
       </c>
       <c r="C862" t="n">
-        <v>1.884684681462512e-06</v>
+        <v>1.844331087610034e-06</v>
       </c>
     </row>
     <row r="863">
@@ -9857,7 +9857,7 @@
         <v>4.544688959819294</v>
       </c>
       <c r="C863" t="n">
-        <v>1.865496919703483e-06</v>
+        <v>1.811552956601871e-06</v>
       </c>
     </row>
     <row r="864">
@@ -9868,7 +9868,7 @@
         <v>4.545606167302159</v>
       </c>
       <c r="C864" t="n">
-        <v>1.846400298123976e-06</v>
+        <v>1.782395598043076e-06</v>
       </c>
     </row>
     <row r="865">
@@ -9879,7 +9879,7 @@
         <v>4.546523374785024</v>
       </c>
       <c r="C865" t="n">
-        <v>1.826211241097479e-06</v>
+        <v>1.756898456378207e-06</v>
       </c>
     </row>
     <row r="866">
@@ -9890,7 +9890,7 @@
         <v>4.547440582267889</v>
       </c>
       <c r="C866" t="n">
-        <v>1.805374237702037e-06</v>
+        <v>1.73513444477197e-06</v>
       </c>
     </row>
     <row r="867">
@@ -9901,7 +9901,7 @@
         <v>4.548357789750754</v>
       </c>
       <c r="C867" t="n">
-        <v>1.785088634956227e-06</v>
+        <v>1.717191994279177e-06</v>
       </c>
     </row>
     <row r="868">
@@ -9912,7 +9912,7 @@
         <v>4.549274997233619</v>
       </c>
       <c r="C868" t="n">
-        <v>1.766557914072177e-06</v>
+        <v>1.703159620942762e-06</v>
       </c>
     </row>
     <row r="869">
@@ -9923,7 +9923,7 @@
         <v>4.550192204716484</v>
       </c>
       <c r="C869" t="n">
-        <v>1.750985556262011e-06</v>
+        <v>1.69312584080566e-06</v>
       </c>
     </row>
     <row r="870">
@@ -9934,7 +9934,7 @@
         <v>4.551109412199349</v>
       </c>
       <c r="C870" t="n">
-        <v>1.739575042737857e-06</v>
+        <v>1.687179169910808e-06</v>
       </c>
     </row>
     <row r="871">
@@ -9945,7 +9945,7 @@
         <v>4.552026619682213</v>
       </c>
       <c r="C871" t="n">
-        <v>1.73351225696779e-06</v>
+        <v>1.685410757137116e-06</v>
       </c>
     </row>
     <row r="872">
@@ -9956,7 +9956,7 @@
         <v>4.552943827165079</v>
       </c>
       <c r="C872" t="n">
-        <v>1.733419725306297e-06</v>
+        <v>1.687996036421377e-06</v>
       </c>
     </row>
     <row r="873">
@@ -9967,7 +9967,7 @@
         <v>4.553861034647943</v>
       </c>
       <c r="C873" t="n">
-        <v>1.739251227740157e-06</v>
+        <v>1.695210494269076e-06</v>
       </c>
     </row>
     <row r="874">
@@ -9978,7 +9978,7 @@
         <v>4.554778242130809</v>
       </c>
       <c r="C874" t="n">
-        <v>1.750921674151404e-06</v>
+        <v>1.707335432624912e-06</v>
       </c>
     </row>
     <row r="875">
@@ -9989,7 +9989,7 @@
         <v>4.555695449613673</v>
       </c>
       <c r="C875" t="n">
-        <v>1.768345974422007e-06</v>
+        <v>1.724652153433512e-06</v>
       </c>
     </row>
     <row r="876">
@@ -10000,7 +10000,7 @@
         <v>4.556612657096538</v>
       </c>
       <c r="C876" t="n">
-        <v>1.79143903843402e-06</v>
+        <v>1.747441958639592e-06</v>
       </c>
     </row>
     <row r="877">
@@ -10011,7 +10011,7 @@
         <v>4.557529864579402</v>
       </c>
       <c r="C877" t="n">
-        <v>1.82011577606944e-06</v>
+        <v>1.775986150187809e-06</v>
       </c>
     </row>
     <row r="878">
@@ -10022,7 +10022,7 @@
         <v>4.558447072062267</v>
       </c>
       <c r="C878" t="n">
-        <v>1.854291097210281e-06</v>
+        <v>1.810566030022838e-06</v>
       </c>
     </row>
     <row r="879">
@@ -10033,7 +10033,7 @@
         <v>4.559364279545132</v>
       </c>
       <c r="C879" t="n">
-        <v>1.893872803656314e-06</v>
+        <v>1.851444352486685e-06</v>
       </c>
     </row>
     <row r="880">
@@ -10044,7 +10044,7 @@
         <v>4.560281487027997</v>
       </c>
       <c r="C880" t="n">
-        <v>1.93859924536679e-06</v>
+        <v>1.898441709703402e-06</v>
       </c>
     </row>
     <row r="881">
@@ -10055,7 +10055,7 @@
         <v>4.561198694510862</v>
       </c>
       <c r="C881" t="n">
-        <v>1.98803593824273e-06</v>
+        <v>1.950927706128269e-06</v>
       </c>
     </row>
     <row r="882">
@@ -10066,7 +10066,7 @@
         <v>4.562115901993727</v>
       </c>
       <c r="C882" t="n">
-        <v>2.041740613576547e-06</v>
+        <v>2.008251633307614e-06</v>
       </c>
     </row>
     <row r="883">
@@ -10077,7 +10077,7 @@
         <v>4.563033109476592</v>
       </c>
       <c r="C883" t="n">
-        <v>2.099271002660651e-06</v>
+        <v>2.069762782787764e-06</v>
       </c>
     </row>
     <row r="884">
@@ -10088,7 +10088,7 @@
         <v>4.563950316959457</v>
       </c>
       <c r="C884" t="n">
-        <v>2.160184836787459e-06</v>
+        <v>2.134810446115049e-06</v>
       </c>
     </row>
     <row r="885">
@@ -10099,7 +10099,7 @@
         <v>4.564867524442322</v>
       </c>
       <c r="C885" t="n">
-        <v>2.224039847249379e-06</v>
+        <v>2.202743914835797e-06</v>
       </c>
     </row>
     <row r="886">
@@ -10110,7 +10110,7 @@
         <v>4.565784731925187</v>
       </c>
       <c r="C886" t="n">
-        <v>2.290393765338827e-06</v>
+        <v>2.272912480496335e-06</v>
       </c>
     </row>
     <row r="887">
@@ -10121,7 +10121,7 @@
         <v>4.566701939408052</v>
       </c>
       <c r="C887" t="n">
-        <v>2.358804322348213e-06</v>
+        <v>2.344665434642993e-06</v>
       </c>
     </row>
     <row r="888">
@@ -10132,7 +10132,7 @@
         <v>4.567619146890917</v>
       </c>
       <c r="C888" t="n">
-        <v>2.428838553620512e-06</v>
+        <v>2.41738746550645e-06</v>
       </c>
     </row>
     <row r="889">
@@ -10143,7 +10143,7 @@
         <v>4.568536354373782</v>
       </c>
       <c r="C889" t="n">
-        <v>2.500131592109468e-06</v>
+        <v>2.490722334461661e-06</v>
       </c>
     </row>
     <row r="890">
@@ -10154,7 +10154,7 @@
         <v>4.569453561856647</v>
       </c>
       <c r="C890" t="n">
-        <v>2.572348833977972e-06</v>
+        <v>2.564428937389203e-06</v>
       </c>
     </row>
     <row r="891">
@@ -10165,7 +10165,7 @@
         <v>4.570370769339512</v>
       </c>
       <c r="C891" t="n">
-        <v>2.645155812690175e-06</v>
+        <v>2.638266692523786e-06</v>
       </c>
     </row>
     <row r="892">
@@ -10176,7 +10176,7 @@
         <v>4.571287976822377</v>
       </c>
       <c r="C892" t="n">
-        <v>2.718218061710223e-06</v>
+        <v>2.711995018100114e-06</v>
       </c>
     </row>
     <row r="893">
@@ -10187,7 +10187,7 @@
         <v>4.572205184305242</v>
       </c>
       <c r="C893" t="n">
-        <v>2.791201114502267e-06</v>
+        <v>2.785373332352895e-06</v>
       </c>
     </row>
     <row r="894">
@@ -10198,7 +10198,7 @@
         <v>4.573122391788107</v>
       </c>
       <c r="C894" t="n">
-        <v>2.863770504530455e-06</v>
+        <v>2.858161053516837e-06</v>
       </c>
     </row>
     <row r="895">
@@ -10209,7 +10209,7 @@
         <v>4.574039599270971</v>
       </c>
       <c r="C895" t="n">
-        <v>2.935591765258932e-06</v>
+        <v>2.930117599826644e-06</v>
       </c>
     </row>
     <row r="896">
@@ -10220,7 +10220,7 @@
         <v>4.574956806753836</v>
       </c>
       <c r="C896" t="n">
-        <v>3.006330430151852e-06</v>
+        <v>3.001002389517024e-06</v>
       </c>
     </row>
     <row r="897">
@@ -10231,7 +10231,7 @@
         <v>4.575874014236701</v>
       </c>
       <c r="C897" t="n">
-        <v>3.075645757998991e-06</v>
+        <v>3.07056820685342e-06</v>
       </c>
     </row>
     <row r="898">
@@ -10242,7 +10242,7 @@
         <v>4.576791221719566</v>
       </c>
       <c r="C898" t="n">
-        <v>3.142584413455429e-06</v>
+        <v>3.13792016413881e-06</v>
       </c>
     </row>
     <row r="899">
@@ -10253,7 +10253,7 @@
         <v>4.577708429202431</v>
       </c>
       <c r="C899" t="n">
-        <v>3.205075007161808e-06</v>
+        <v>3.200981298633918e-06</v>
       </c>
     </row>
     <row r="900">
@@ -10264,7 +10264,7 @@
         <v>4.578625636685296</v>
       </c>
       <c r="C900" t="n">
-        <v>3.260927163341107e-06</v>
+        <v>3.257548847885971e-06</v>
       </c>
     </row>
     <row r="901">
@@ -10275,7 +10275,7 @@
         <v>4.579542844168161</v>
       </c>
       <c r="C901" t="n">
-        <v>3.307950506216307e-06</v>
+        <v>3.305420049442197e-06</v>
       </c>
     </row>
     <row r="902">
@@ -10286,7 +10286,7 @@
         <v>4.580460051651026</v>
       </c>
       <c r="C902" t="n">
-        <v>3.343954660010379e-06</v>
+        <v>3.342392140849816e-06</v>
       </c>
     </row>
     <row r="903">
@@ -10297,7 +10297,7 @@
         <v>4.581377259133891</v>
       </c>
       <c r="C903" t="n">
-        <v>3.366749248946308e-06</v>
+        <v>3.366262359656059e-06</v>
       </c>
     </row>
     <row r="904">
@@ -10308,7 +10308,7 @@
         <v>4.582294466616756</v>
       </c>
       <c r="C904" t="n">
-        <v>3.374143897247069e-06</v>
+        <v>3.374827943408148e-06</v>
       </c>
     </row>
     <row r="905">
@@ -10319,7 +10319,7 @@
         <v>4.583211674099621</v>
       </c>
       <c r="C905" t="n">
-        <v>3.36394822913564e-06</v>
+        <v>3.365886129653313e-06</v>
       </c>
     </row>
     <row r="906">
@@ -10330,7 +10330,7 @@
         <v>4.584128881582486</v>
       </c>
       <c r="C906" t="n">
-        <v>3.33397292866358e-06</v>
+        <v>3.337235207141345e-06</v>
       </c>
     </row>
     <row r="907">
@@ -10341,7 +10341,7 @@
         <v>4.585046089065351</v>
       </c>
       <c r="C907" t="n">
-        <v>3.282964659388941e-06</v>
+        <v>3.287601826131488e-06</v>
       </c>
     </row>
     <row r="908">
@@ -10352,7 +10352,7 @@
         <v>4.585963296548215</v>
       </c>
       <c r="C908" t="n">
-        <v>3.212323150787654e-06</v>
+        <v>3.218344109327738e-06</v>
       </c>
     </row>
     <row r="909">
@@ -10363,7 +10363,7 @@
         <v>4.586880504031081</v>
       </c>
       <c r="C909" t="n">
-        <v>3.12391497040587e-06</v>
+        <v>3.131283217879415e-06</v>
       </c>
     </row>
     <row r="910">
@@ -10374,7 +10374,7 @@
         <v>4.587797711513945</v>
       </c>
       <c r="C910" t="n">
-        <v>3.019606685790316e-06</v>
+        <v>3.028240312936399e-06</v>
       </c>
     </row>
     <row r="911">
@@ -10385,7 +10385,7 @@
         <v>4.588714918996811</v>
       </c>
       <c r="C911" t="n">
-        <v>2.901265696418236e-06</v>
+        <v>2.911037386093786e-06</v>
       </c>
     </row>
     <row r="912">
@@ -10396,7 +10396,7 @@
         <v>4.589632126479675</v>
       </c>
       <c r="C912" t="n">
-        <v>2.773644830447641e-06</v>
+        <v>2.78437670600925e-06</v>
       </c>
     </row>
     <row r="913">
@@ -10407,7 +10407,7 @@
         <v>4.59054933396254</v>
       </c>
       <c r="C913" t="n">
-        <v>2.650842485020812e-06</v>
+        <v>2.662289424830728e-06</v>
       </c>
     </row>
     <row r="914">
@@ -10418,7 +10418,7 @@
         <v>4.591466541445405</v>
       </c>
       <c r="C914" t="n">
-        <v>2.54884573043643e-06</v>
+        <v>2.56069199584265e-06</v>
       </c>
     </row>
     <row r="915">
@@ -10429,7 +10429,7 @@
         <v>4.59238374892827</v>
       </c>
       <c r="C915" t="n">
-        <v>2.483641636993062e-06</v>
+        <v>2.495500872329325e-06</v>
       </c>
     </row>
     <row r="916">
@@ -10440,7 +10440,7 @@
         <v>4.593300956411134</v>
       </c>
       <c r="C916" t="n">
-        <v>2.471217154076409e-06</v>
+        <v>2.482632388296651e-06</v>
       </c>
     </row>
     <row r="917">
@@ -10451,7 +10451,7 @@
         <v>4.594218163893999</v>
       </c>
       <c r="C917" t="n">
-        <v>2.519467812981244e-06</v>
+        <v>2.530020836021588e-06</v>
       </c>
     </row>
     <row r="918">
@@ -10462,7 +10462,7 @@
         <v>4.595135371376864</v>
       </c>
       <c r="C918" t="n">
-        <v>2.606283174191694e-06</v>
+        <v>2.616000144972443e-06</v>
       </c>
     </row>
     <row r="919">
@@ -10473,7 +10473,7 @@
         <v>4.596052578859729</v>
       </c>
       <c r="C919" t="n">
-        <v>2.702598802554317e-06</v>
+        <v>2.712044250147069e-06</v>
       </c>
     </row>
     <row r="920">
@@ -10484,7 +10484,7 @@
         <v>4.596969786342594</v>
       </c>
       <c r="C920" t="n">
-        <v>2.779906507586489e-06</v>
+        <v>2.790161033507546e-06</v>
       </c>
     </row>
     <row r="921">
@@ -10495,7 +10495,7 @@
         <v>4.597886993825459</v>
       </c>
       <c r="C921" t="n">
-        <v>2.8241467768733e-06</v>
+        <v>2.836227863226103e-06</v>
       </c>
     </row>
     <row r="922">
@@ -10506,7 +10506,7 @@
         <v>4.598804201308324</v>
       </c>
       <c r="C922" t="n">
-        <v>2.836692837787155e-06</v>
+        <v>2.850936208160282e-06</v>
       </c>
     </row>
     <row r="923">
@@ -10517,7 +10517,7 @@
         <v>4.599721408791189</v>
       </c>
       <c r="C923" t="n">
-        <v>2.819671242596429e-06</v>
+        <v>2.835700664169799e-06</v>
       </c>
     </row>
     <row r="924">
@@ -10528,7 +10528,7 @@
         <v>4.600638616274054</v>
       </c>
       <c r="C924" t="n">
-        <v>2.775208543569499e-06</v>
+        <v>2.791935827114372e-06</v>
       </c>
     </row>
     <row r="925">
@@ -10539,7 +10539,7 @@
         <v>4.601555823756919</v>
       </c>
       <c r="C925" t="n">
-        <v>2.705431600453339e-06</v>
+        <v>2.721056667001666e-06</v>
       </c>
     </row>
     <row r="926">
@@ -10550,7 +10550,7 @@
         <v>4.602473031239784</v>
       </c>
       <c r="C926" t="n">
-        <v>2.61457503880764e-06</v>
+        <v>2.627042938062874e-06</v>
       </c>
     </row>
     <row r="927">
@@ -10561,7 +10561,7 @@
         <v>4.603390238722649</v>
       </c>
       <c r="C927" t="n">
-        <v>2.514014059752801e-06</v>
+        <v>2.52256323246103e-06</v>
       </c>
     </row>
     <row r="928">
@@ -10572,7 +10572,7 @@
         <v>4.604307446205514</v>
       </c>
       <c r="C928" t="n">
-        <v>2.416634506777983e-06</v>
+        <v>2.42212433125635e-06</v>
       </c>
     </row>
     <row r="929">
@@ -10583,7 +10583,7 @@
         <v>4.605224653688379</v>
       </c>
       <c r="C929" t="n">
-        <v>2.335192622657194e-06</v>
+        <v>2.340085141492808e-06</v>
       </c>
     </row>
     <row r="930">
@@ -10594,7 +10594,7 @@
         <v>4.606141861171244</v>
       </c>
       <c r="C930" t="n">
-        <v>2.273747799841532e-06</v>
+        <v>2.280881490821088e-06</v>
       </c>
     </row>
     <row r="931">
@@ -10605,7 +10605,7 @@
         <v>4.607059068654109</v>
       </c>
       <c r="C931" t="n">
-        <v>2.222321368478253e-06</v>
+        <v>2.232931821103139e-06</v>
       </c>
     </row>
     <row r="932">
@@ -10616,7 +10616,7 @@
         <v>4.607976276136974</v>
       </c>
       <c r="C932" t="n">
-        <v>2.169659433018832e-06</v>
+        <v>2.183199545615407e-06</v>
       </c>
     </row>
     <row r="933">
@@ -10627,7 +10627,7 @@
         <v>4.608893483619839</v>
       </c>
       <c r="C933" t="n">
-        <v>2.104723865331238e-06</v>
+        <v>2.11892524473256e-06</v>
       </c>
     </row>
     <row r="934">
@@ -10638,7 +10638,7 @@
         <v>4.609810691102703</v>
       </c>
       <c r="C934" t="n">
-        <v>2.021746281978648e-06</v>
+        <v>2.034118824194588e-06</v>
       </c>
     </row>
     <row r="935">
@@ -10649,7 +10649,7 @@
         <v>4.610727898585568</v>
       </c>
       <c r="C935" t="n">
-        <v>1.920404517996731e-06</v>
+        <v>1.929786207002913e-06</v>
       </c>
     </row>
     <row r="936">
@@ -10660,7 +10660,7 @@
         <v>4.611645106068433</v>
       </c>
       <c r="C936" t="n">
-        <v>1.800627505302067e-06</v>
+        <v>1.807255851797777e-06</v>
       </c>
     </row>
     <row r="937">
@@ -10671,7 +10671,7 @@
         <v>4.612562313551298</v>
       </c>
       <c r="C937" t="n">
-        <v>1.663236428356231e-06</v>
+        <v>1.668435490266015e-06</v>
       </c>
     </row>
     <row r="938">
@@ -10682,7 +10682,7 @@
         <v>4.613479521034163</v>
       </c>
       <c r="C938" t="n">
-        <v>1.512311645401754e-06</v>
+        <v>1.517348792609904e-06</v>
       </c>
     </row>
     <row r="939">
@@ -10693,7 +10693,7 @@
         <v>4.614396728517028</v>
       </c>
       <c r="C939" t="n">
-        <v>1.352677467133948e-06</v>
+        <v>1.35850242188645e-06</v>
       </c>
     </row>
     <row r="940">
@@ -10704,7 +10704,7 @@
         <v>4.615313935999893</v>
       </c>
       <c r="C940" t="n">
-        <v>1.189158204248126e-06</v>
+        <v>1.196403041152655e-06</v>
       </c>
     </row>
     <row r="941">
@@ -10715,7 +10715,7 @@
         <v>4.616231143482758</v>
       </c>
       <c r="C941" t="n">
-        <v>1.026578167439601e-06</v>
+        <v>1.035557313465522e-06</v>
       </c>
     </row>
     <row r="942">
@@ -10726,7 +10726,7 @@
         <v>4.617148350965623</v>
       </c>
       <c r="C942" t="n">
-        <v>8.697616674036869e-07</v>
+        <v>8.804719018820562e-07</v>
       </c>
     </row>
     <row r="943">
@@ -10737,7 +10737,7 @@
         <v>4.618065558448488</v>
       </c>
       <c r="C943" t="n">
-        <v>7.235330148356963e-07</v>
+        <v>7.356534694592599e-07</v>
       </c>
     </row>
     <row r="944">
@@ -10748,7 +10748,7 @@
         <v>4.618982765931353</v>
       </c>
       <c r="C944" t="n">
-        <v>5.927165204309427e-07</v>
+        <v>6.05608679254137e-07</v>
       </c>
     </row>
     <row r="945">
@@ -10759,7 +10759,7 @@
         <v>4.619899973414217</v>
       </c>
       <c r="C945" t="n">
-        <v>4.821364948848346e-07</v>
+        <v>4.948441943237874e-07</v>
       </c>
     </row>
     <row r="946">
@@ -10770,7 +10770,7 @@
         <v>4.620817180897083</v>
       </c>
       <c r="C946" t="n">
-        <v>3.965495005191725e-07</v>
+        <v>4.078070304743947e-07</v>
       </c>
     </row>
     <row r="947">
@@ -10781,7 +10781,7 @@
         <v>4.621734388379947</v>
       </c>
       <c r="C947" t="n">
-        <v>3.359868467669487e-07</v>
+        <v>3.44783980477217e-07</v>
       </c>
     </row>
     <row r="948">
@@ -10792,7 +10792,7 @@
         <v>4.622651595862813</v>
       </c>
       <c r="C948" t="n">
-        <v>2.927484303638904e-07</v>
+        <v>2.992549207429319e-07</v>
       </c>
     </row>
     <row r="949">
@@ -10803,7 +10803,7 @@
         <v>4.623568803345677</v>
       </c>
       <c r="C949" t="n">
-        <v>2.584720177943361e-07</v>
+        <v>2.641074659713247e-07</v>
       </c>
     </row>
     <row r="950">
@@ -10814,7 +10814,7 @@
         <v>4.624486010828542</v>
       </c>
       <c r="C950" t="n">
-        <v>2.282147622221536e-07</v>
+        <v>2.346384629428203e-07</v>
       </c>
     </row>
     <row r="951">
@@ -10825,7 +10825,7 @@
         <v>4.625403218311407</v>
       </c>
       <c r="C951" t="n">
-        <v>2.024790144350105e-07</v>
+        <v>2.099813367575506e-07</v>
       </c>
     </row>
     <row r="952">
@@ -10836,7 +10836,7 @@
         <v>4.626320425794272</v>
       </c>
       <c r="C952" t="n">
-        <v>1.821183582110449e-07</v>
+        <v>1.896350289365368e-07</v>
       </c>
     </row>
     <row r="953">
@@ -10847,7 +10847,7 @@
         <v>4.627237633277137</v>
       </c>
       <c r="C953" t="n">
-        <v>1.669935338248273e-07</v>
+        <v>1.732699532605424e-07</v>
       </c>
     </row>
     <row r="954">
@@ -10858,7 +10858,7 @@
         <v>4.628154840760001</v>
       </c>
       <c r="C954" t="n">
-        <v>1.565209157960367e-07</v>
+        <v>1.606332691403016e-07</v>
       </c>
     </row>
     <row r="955">
@@ -10869,7 +10869,7 @@
         <v>4.629072048242866</v>
       </c>
       <c r="C955" t="n">
-        <v>1.501147960375785e-07</v>
+        <v>1.514724956699105e-07</v>
       </c>
     </row>
     <row r="956">
@@ -10880,7 +10880,7 @@
         <v>4.629989255725731</v>
       </c>
       <c r="C956" t="n">
-        <v>1.471894664623578e-07</v>
+        <v>1.455351519434657e-07</v>
       </c>
     </row>
     <row r="957">
@@ -10891,7 +10891,7 @@
         <v>4.630906463208596</v>
       </c>
       <c r="C957" t="n">
-        <v>1.471592189832799e-07</v>
+        <v>1.425687570550636e-07</v>
       </c>
     </row>
     <row r="958">
@@ -10902,7 +10902,7 @@
         <v>4.631823670691461</v>
       </c>
       <c r="C958" t="n">
-        <v>1.494386951888395e-07</v>
+        <v>1.423208790881413e-07</v>
       </c>
     </row>
     <row r="959">
@@ -10913,7 +10913,7 @@
         <v>4.632740878174326</v>
       </c>
       <c r="C959" t="n">
-        <v>1.535610766924582e-07</v>
+        <v>1.445556935126882e-07</v>
       </c>
     </row>
     <row r="960">
@@ -10924,7 +10924,7 @@
         <v>4.633658085657191</v>
       </c>
       <c r="C960" t="n">
-        <v>1.593501255226431e-07</v>
+        <v>1.490780859409486e-07</v>
       </c>
     </row>
     <row r="961">
@@ -10935,7 +10935,7 @@
         <v>4.634575293140056</v>
       </c>
       <c r="C961" t="n">
-        <v>1.666733131566209e-07</v>
+        <v>1.556990656527749e-07</v>
       </c>
     </row>
     <row r="962">
@@ -10946,7 +10946,7 @@
         <v>4.635492500622921</v>
       </c>
       <c r="C962" t="n">
-        <v>1.75398111071618e-07</v>
+        <v>1.642296419280193e-07</v>
       </c>
     </row>
     <row r="963">
@@ -10957,7 +10957,7 @@
         <v>4.636409708105786</v>
       </c>
       <c r="C963" t="n">
-        <v>1.853919907448612e-07</v>
+        <v>1.74480824046534e-07</v>
       </c>
     </row>
     <row r="964">
@@ -10968,7 +10968,7 @@
         <v>4.637326915588651</v>
       </c>
       <c r="C964" t="n">
-        <v>1.96522423653577e-07</v>
+        <v>1.862636212881712e-07</v>
       </c>
     </row>
     <row r="965">
@@ -10979,7 +10979,7 @@
         <v>4.638244123071516</v>
       </c>
       <c r="C965" t="n">
-        <v>2.086568812749921e-07</v>
+        <v>1.993890429327832e-07</v>
       </c>
     </row>
     <row r="966">
@@ -10990,7 +10990,7 @@
         <v>4.639161330554381</v>
       </c>
       <c r="C966" t="n">
-        <v>2.216628350863329e-07</v>
+        <v>2.136680982602221e-07</v>
       </c>
     </row>
     <row r="967">
@@ -11001,7 +11001,7 @@
         <v>4.640078538037246</v>
       </c>
       <c r="C967" t="n">
-        <v>2.354077565648263e-07</v>
+        <v>2.289117965503404e-07</v>
       </c>
     </row>
     <row r="968">
@@ -11012,7 +11012,7 @@
         <v>4.640995745520111</v>
       </c>
       <c r="C968" t="n">
-        <v>2.497591171876985e-07</v>
+        <v>2.449311470829899e-07</v>
       </c>
     </row>
     <row r="969">
@@ -11023,7 +11023,7 @@
         <v>4.641912953002976</v>
       </c>
       <c r="C969" t="n">
-        <v>2.645843884321765e-07</v>
+        <v>2.615371591380233e-07</v>
       </c>
     </row>
     <row r="970">
@@ -11034,7 +11034,7 @@
         <v>4.642830160485841</v>
       </c>
       <c r="C970" t="n">
-        <v>2.797510417754868e-07</v>
+        <v>2.785408419952924e-07</v>
       </c>
     </row>
     <row r="971">
@@ -11045,7 +11045,7 @@
         <v>4.643747367968706</v>
       </c>
       <c r="C971" t="n">
-        <v>2.951265486948558e-07</v>
+        <v>2.957532049346498e-07</v>
       </c>
     </row>
     <row r="972">
@@ -11056,7 +11056,7 @@
         <v>4.644664575451571</v>
       </c>
       <c r="C972" t="n">
-        <v>3.105783806675104e-07</v>
+        <v>3.129852572359475e-07</v>
       </c>
     </row>
     <row r="973">
@@ -11067,7 +11067,7 @@
         <v>4.645581782934435</v>
       </c>
       <c r="C973" t="n">
-        <v>3.25974009170677e-07</v>
+        <v>3.300480081790378e-07</v>
       </c>
     </row>
     <row r="974">
@@ -11078,7 +11078,7 @@
         <v>4.6464989904173</v>
       </c>
       <c r="C974" t="n">
-        <v>3.411809056815821e-07</v>
+        <v>3.467524670437729e-07</v>
       </c>
     </row>
     <row r="975">
@@ -11089,7 +11089,7 @@
         <v>4.647416197900165</v>
       </c>
       <c r="C975" t="n">
-        <v>3.560665416774526e-07</v>
+        <v>3.62909643110005e-07</v>
       </c>
     </row>
     <row r="976">
@@ -11100,7 +11100,7 @@
         <v>4.64833340538303</v>
       </c>
       <c r="C976" t="n">
-        <v>3.70498388635515e-07</v>
+        <v>3.783305456575864e-07</v>
       </c>
     </row>
     <row r="977">
@@ -11111,7 +11111,7 @@
         <v>4.649250612865895</v>
       </c>
       <c r="C977" t="n">
-        <v>3.843439180329958e-07</v>
+        <v>3.928261839663693e-07</v>
       </c>
     </row>
     <row r="978">
@@ -11122,7 +11122,7 @@
         <v>4.65016782034876</v>
       </c>
       <c r="C978" t="n">
-        <v>3.974720500430859e-07</v>
+        <v>4.062121107683456e-07</v>
       </c>
     </row>
     <row r="979">
@@ -11133,7 +11133,7 @@
         <v>4.651085027831625</v>
       </c>
       <c r="C979" t="n">
-        <v>4.097788611813818e-07</v>
+        <v>4.18389047488625e-07</v>
       </c>
     </row>
     <row r="980">
@@ -11144,7 +11144,7 @@
         <v>4.65200223531449</v>
       </c>
       <c r="C980" t="n">
-        <v>4.211845460685155e-07</v>
+        <v>4.293333556166426e-07</v>
       </c>
     </row>
     <row r="981">
@@ -11155,7 +11155,7 @@
         <v>4.652919442797355</v>
       </c>
       <c r="C981" t="n">
-        <v>4.316101376908391e-07</v>
+        <v>4.390240259544135e-07</v>
       </c>
     </row>
     <row r="982">
@@ -11166,7 +11166,7 @@
         <v>4.653836650280219</v>
       </c>
       <c r="C982" t="n">
-        <v>4.409766690346963e-07</v>
+        <v>4.474400493039464e-07</v>
       </c>
     </row>
     <row r="983">
@@ -11177,7 +11177,7 @@
         <v>4.654753857763085</v>
       </c>
       <c r="C983" t="n">
-        <v>4.492051730864648e-07</v>
+        <v>4.54560416467279e-07</v>
       </c>
     </row>
     <row r="984">
@@ -11188,7 +11188,7 @@
         <v>4.655671065245949</v>
       </c>
       <c r="C984" t="n">
-        <v>4.56216682832465e-07</v>
+        <v>4.603641182463995e-07</v>
       </c>
     </row>
     <row r="985">
@@ -11199,7 +11199,7 @@
         <v>4.656588272728815</v>
       </c>
       <c r="C985" t="n">
-        <v>4.619322312590764e-07</v>
+        <v>4.648301454433463e-07</v>
       </c>
     </row>
     <row r="986">
@@ -11210,7 +11210,7 @@
         <v>4.657505480211679</v>
       </c>
       <c r="C986" t="n">
-        <v>4.662728513526286e-07</v>
+        <v>4.679374888601173e-07</v>
       </c>
     </row>
     <row r="987">
@@ -11221,7 +11221,7 @@
         <v>4.658422687694544</v>
       </c>
       <c r="C987" t="n">
-        <v>4.691595760994887e-07</v>
+        <v>4.696651392987391e-07</v>
       </c>
     </row>
     <row r="988">
@@ -11232,7 +11232,7 @@
         <v>4.659339895177409</v>
       </c>
       <c r="C988" t="n">
-        <v>4.705134384860041e-07</v>
+        <v>4.69992087561224e-07</v>
       </c>
     </row>
     <row r="989">
@@ -11243,7 +11243,7 @@
         <v>4.660257102660274</v>
       </c>
       <c r="C989" t="n">
-        <v>4.702554714985267e-07</v>
+        <v>4.688973244495874e-07</v>
       </c>
     </row>
     <row r="990">
@@ -11254,7 +11254,7 @@
         <v>4.661174310143139</v>
       </c>
       <c r="C990" t="n">
-        <v>4.683067081234088e-07</v>
+        <v>4.663598407658449e-07</v>
       </c>
     </row>
     <row r="991">
@@ -11265,7 +11265,7 @@
         <v>4.662091517626004</v>
       </c>
       <c r="C991" t="n">
-        <v>4.645881813470026e-07</v>
+        <v>4.623586273120122e-07</v>
       </c>
     </row>
     <row r="992">
@@ -11276,7 +11276,7 @@
         <v>4.663008725108869</v>
       </c>
       <c r="C992" t="n">
-        <v>4.590209241556601e-07</v>
+        <v>4.568726748901048e-07</v>
       </c>
     </row>
     <row r="993">
@@ -11287,7 +11287,7 @@
         <v>4.663925932591733</v>
       </c>
       <c r="C993" t="n">
-        <v>4.515259695357338e-07</v>
+        <v>4.498809743021385e-07</v>
       </c>
     </row>
     <row r="994">
@@ -11298,7 +11298,7 @@
         <v>4.664843140074598</v>
       </c>
       <c r="C994" t="n">
-        <v>4.420243504735755e-07</v>
+        <v>4.413625163501286e-07</v>
       </c>
     </row>
     <row r="995">
@@ -11309,7 +11309,7 @@
         <v>4.665760347557463</v>
       </c>
       <c r="C995" t="n">
-        <v>4.304370999555375e-07</v>
+        <v>4.31296291836091e-07</v>
       </c>
     </row>
     <row r="996">
@@ -11320,7 +11320,7 @@
         <v>4.666677555040328</v>
       </c>
       <c r="C996" t="n">
-        <v>4.16685250967972e-07</v>
+        <v>4.196612915620413e-07</v>
       </c>
     </row>
     <row r="997">
@@ -11331,7 +11331,7 @@
         <v>4.667594762523193</v>
       </c>
       <c r="C997" t="n">
-        <v>4.006898364972311e-07</v>
+        <v>4.064365063299948e-07</v>
       </c>
     </row>
     <row r="998">
@@ -11342,7 +11342,7 @@
         <v>4.668511970006058</v>
       </c>
       <c r="C998" t="n">
-        <v>3.825828167190265e-07</v>
+        <v>3.917158743209734e-07</v>
       </c>
     </row>
     <row r="999">
@@ -11353,7 +11353,7 @@
         <v>4.669429177488923</v>
       </c>
       <c r="C999" t="n">
-        <v>3.651620217873753e-07</v>
+        <v>3.770461325121481e-07</v>
       </c>
     </row>
     <row r="1000">
@@ -11364,7 +11364,7 @@
         <v>4.670346384971788</v>
       </c>
       <c r="C1000" t="n">
-        <v>3.530525036124067e-07</v>
+        <v>3.649697849620486e-07</v>
       </c>
     </row>
     <row r="1001">
@@ -11375,7 +11375,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C1001" t="n">
-        <v>3.509149731208691e-07</v>
+        <v>3.580487685510742e-07</v>
       </c>
     </row>
   </sheetData>
